--- a/경주.xlsx
+++ b/경주.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -522,6 +522,1048 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>첨성대</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>경주시 인왕동 839-1</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>['봄에는 튤립꽃이 만발하면 아름답습니다', '오래전 여행다녀온 유적지사진을 찍었는데.십원빵도 맛있었음', '멋지고 사진찍기 좋았지만 여름에 가서 그런지 너무 더웠어요ㅠㅜ 여름에 가는건 비추ㅠ', '사람들이 많지만 산책하기 참 좋은 곳. 주변에도 볼거리도 많음.', '아름다운', '야간 투어 잼있습니다. 초딩 기분으로 선생님 강의를 들어보아요.', '밤에가면 조명이 예쁘고 걷기좋다그런대 첨성대 주변에서 발냄새같은 구린내가 코를 갑자기 찌르니깐 조심 !', '야경이 예쁘고 거리가 깨끗해요', '😁 역사적 의미가 깊은 곳이고 실제로 마주하면 마음이 동하는 무언가가 있음😡 주변에 휑하고 한여름에 푹푹찔때 가서 힘들었음 ㅠ⭐️ 온게 후회되는 곳⭐️⭐️ 한번정도는 와볼만한 곳⭐️⭐️⭐️ 근처에 있다면 갈만한 곳⭐️⭐️⭐️⭐️ 오길 잘한 곳⭐️⭐️⭐️⭐️⭐️ 이곳을 가기위한 여행', '첨성대가 관측시설이든, 제대이든, 상징물이든, 봉화대이든크게 중요하지 않습니다.세상 어디에도 역사 어느 때에도 존재하지 않는 이 단 하나의 생김새로,처음 만들어진 그 돌덩이 그대로 지금까지 존재한다는 것은우리 문화의 축복이 아닌가 생각합니다.', '버스로도 이동하기 편해요!!', '주위에 환경조성도 잘되어있고 사진도 정말 잘나옵니다.하지만 날씨가 너무더워서 그늘 쉼터가 많아졌으면.', '周邊還有花海可以拍照，附近很多小吃 ，很適合旅遊的地方핑크뮬리명소 해바라기', '너무 아름다워요. 사람이 많지만 구경하기 좋아요. 주변에 조경도 엄청 잘 되어 있습니다. 야경도 꼭 보세요.', '아니 대한사람이면 마 청성대 마 가야제 안그래?', '좋아요 낮에가고 밤에가고 선덕여왕 행차~~~~ 좋은추억 만드세요', '너무 좋아요~ 주변에 산책로가 잘 되어있어서 좋아요!', '첨성대는 동부사적지대에 위치한 국보 제31호.세계에서 가장 오래된 천문대다운 위상이 느껴집니다. 방문할려면 일찍 오셔야 주변 공영주차장을 이용가능할 것 같네요. 오후 늦게오면 주변에 차량이 붐벼서 주차가 힘들어요.', '⭐️⭐️⭐️1/2…(2013년에 방문)여기…가볼만해요…', '중학교 수학여행이후 20년만에 재방문', '야간에 가야 좋아요.', '밤에본 첨성대도 뷰가 이쁘네요. 주위에 문화재들도 있어서 걸어다니기에도 괜찮은거 같습니다.', '야간 뷰가 멋있고 봄 여름 쯤에 가면 꽃이 활짝 피어서 훨씬 더 예쁘답니다!', '역사적인 곳.뜻깊고 우리가 보존해야 할곳이지만솔직히 볼건 별로 없어요.', '30년만에 다시 찾아간 첨성대딱히 볼건 없네요 ㅋㅋ', '2022年도에 경주에 갔을때 찍은 사진데 이 첨성대가 신라시대에 만들어져서 오늘날까지 보존 되어있다는 것이 저는 놀랍다고 생각합니다.', '천체의 움직임을 관찰하던 신라시대의 천문관측대로, 받침대 역할을 하는 기단부(基壇部)위에 술병 모양의 원통부(圓筒部)를 올리고 맨 위에 정(井)자형의 정상부(頂上部)를 얹은 모습으로 높이는 약9m이다.원통부는 부채꼴 모양의 돌로 27단을 쌓아 올렸으며, 매끄럽게 잘 다듬어진 외부에 비해 내부는 돌의 뒷뿌리가 삐죽삐죽 나와 벽면이 고르지 않다. 남동쪽으로 난 창을 중심으로 아래쪽은 막돌로 채워져 있고 위쪽은 정상까지 뚫려서 속이 비어 있다. 동쪽 절반이 판돌로 막혀있는 정상부는 정(井)자 모양으로 맞물린 길다란 석재의 끝이 바깥까지 뚫고 나와있다.신라 선덕여왕(재위 632∼647) 때 건립된 것으로 추측되며 동양에서 가장 오래된 천문대로 그 가치가 높으며, 당시의 높은 과학 수준을 보여주는 귀중한 국가유산라 할 수 있다.', '처음가본 첨성대 너무좋아요', '포토존', '좋은 사람들과 좋은 분위기 좋은 장소', '생각보다 크다.', '우리 문화유산은 굿이져…주변 주차장도 이용하기 좋아여', '걷기좋고 신라의 역사를 다시보게되서 좋네요.', '와너무 좋다가장 오래된 천문대자랑스럽다', '추운 야간에  불빛에 비친 첨성대 모습 너무 아름다웠다.', '경주를 대표하는 문화유산 첨성대! 경주와서 첨성대 안보고 가면 어딘가 허전한... 경주에 살고 있는 저도 1년 중 가장 많이 찾는 곳이 바로 이곳 첨성대예요. 산책하러갔다가 들리기도 하고, 날씨 좋은 날은 사진 찍으러 가기도 하고. 첨성대를 만드는 데 사용된 돌의 갯수, 돌의 층계, 모습과 관련해서 24절기, 365일을 의미한다는 그런 신비로운 이야기도 좋지만 첨성대가 만들어진 것은 바로 우리나라 최초의 여왕인 선덕여왕때. 당시만해도 여성이 왕이 된다는 것은 유례를 찾아보기 힘든 사실이었죠. 여성으로서 국가를 이끌어가야 한다는 책임감과 무게감이 어떠했을지. 그래서 저는 첨성대를 보면 신라를 지키겠다는 선덕여왕의 소망이 담기지 않았을까 생각해요. 그리 멀지 않으니 선덕여왕릉도 꼭 한번 들러보세요!', '사람 없을때 오면 아주 좋을 듯', '주변 풍경이 탁트여 좋았습니다가을날 저녁 해질무렵이라 더욱 운치가...', '역시 멋진 우리 문화재 입니다', '제발 전동차타고 길막하고 저속으로 진상짓 하지마요 전동차 도로주행 안되요', '무료입장으로 사진도 찍을수 있는 좋은곳 고전의상 빌리는 곳도 있어요', '입구에서 산책로를 따라 500미터 정도 걸어들어가야 합니다.경주는 유적지가 많이서 한번으로는 부족하죠평일은 황리단길 거의 문여는 곳이 많이 없어서잘 체크 해보시고 가시면 좋아요', '초등학교때 가고 딸이랑 같이가니 더욱 좋네요주차는 힘듭니다', '낮과 밤이 공존하며 멋진 장소임.비오는 날만 아니면 굉장히 좋음.', '좋아요~~', '두말할나위 없는 우리민족의 걸작신라를 대표하는 건축물이자 랜드마크', '포토존', '생각보다 거대하네요산책하기 좋은 코스', '너무 이뻐서 감동', '생각보다 큼 사진포인트인만큼 사람 많음', '우리나라의 멋진곳', '주차가 불편해요. 근데 이뻐요.', '다시 방문하고 싶은 문화 유적 이에요', '주간, 야간 뷰가 좋아요그런데 주차하기 불편해요', '경주  청성대..가을 해바라기가 한창이다..꼭 한번 가보시길  바란다', '굿', '지난주에 다녀왔는데 만개였어요 조아요 !!', '봄에 벚꽃, 가을에 핑크뮬리, 그외의 계절에도 주변에 예쁜 꽃이 많아서 사진 찍으며 산책하기 좋습니다. 해설사 설명을 듣는 것도 좋을 듯.', '경주의 상징과도 같은 곳', '경주의 랜드마크초등학생시절 수학여행차 방문했던 첨성대는 거대했으나다 큰 오른이 되어 바라본 첨성대는 미니미 같았다.신라의 천체관측기구였다는데 아니라는 학설도 있고..뭐가 됐건 특이하면서 아름다운 건축물인 건 사실임.요즘은 첨성대보단 그 주변 드넓은 평야의 꽃밭이 더 인기있는 듯입장료는 무료~', '사진찍을곳이 너무 많아서 좋았어요 관리 너무 잘되어있고!근데 제발 사람들아 들어가지말란곳은 좀 들어가지마세요', '야외라 날씨나 풍경은 좋았지만 사람이 많은데 비해주차나 화장실등의 인프라시설들은 많이 부족하고 지저분해서 아쉬웠습니다.ㅠ.ㅠ', '이맘때 가면 너무 예쁜 핑크뮬리를 볼 수 있습니다.  추석연휴에 늦은 아침먹고 점심즈음 별 생각없이 갔다가 주차때문에 포기하고 다음날 아침일찍(9시 전) 갔더니 주차도 수월하고 사람도 별로 없어서 행복한 시간 보냈습니다. 첨성대는 항시 개방인것 같은데, 핑크뮬리 계절에는 일찍 가서 구경하고 아침 드시는 것도 좋을것 같네요. ㅎㅎ', '날씨가 좋아서 더 좋았어요', '주차가 매우 어렵지만 기어코 가봐야할 경주의 찐명소, 다시 가도 또 방문해야할 명소♡', '저는 개인적으로 낮에 보는 게 더 예쁜 것 같아요!', '동양 최고의 천문대’ 첨성대는 신라 제27대 선덕여왕 때 건립된 것으로 추정되며 경주를 상징하는 랜드마크 중 하나이다.', '낮에 조명이 없이 그냥 보는 게 더 멋있어요. 조명이 너무 현란해요.', '첨성대는 말이 필요없고~!! 야간에 색 있는 조명이 없는 게 더 좋았어요. 색이 요란스럽게 바뀌는 게 조금 아쉬웠습니다.', '선조들의 지혜를 엿볼수 있는곳~^^', '아름다워잉 \U0001f979\U0001f979\U0001f979 근처에 특색 있는 한복집들도 많아욘', '와', '역사교과서에서만 보던 첨성대를 실제로 보아 기억에 남아요', '사람 많다 비시즌에 가길', '황리단길도 그렇고, 경주가 관광도시로 상당히 많이 탈바꿈 했음. 몇년전만 해도 죽은 도시 같았으나... 첨성대 및 주변 야경 멋짐!!', '과거에 사용했다는 점이 놀라웠다', '첨성대 주변은 매년 매월 다른꽃들이 즐비해 있어요. 꽃 좋아하고 계절을 즐길 분들께 강추 !!', '너무 멋있어요 경주의.멋', '첨성대를 중심으로 주변 꽃들 정원식 조성이 잘되있고 하늘의 뷰가 그림처럼 아름다웠습니다~^^나들이 포토존', '첨성대 근처에 이렇게 꽃이 많은줄은 처음 알았네요.산책하기 좋아요👍', '예전에는 고즉넉한 분위기가 있었는데 주변을 너무 관광지 스럽게 바꾸어서 오히려 저녁이 조용하게 첨성대를 바라보기 좋았던거 같아요.', '더 말할게 있겠습니까. 역사가 느껴지지요', '역시 경주는 레전드다', '저녁에 더 이쁜 첨성대에요', '낮에보는 첨성대도 참 예쁘지만 밤에도 참 예뻐요 밤에 산책하기에 운치 있고 좋아요', '입장료 야간 무료.투박하면서도 유려한 곡선의 아름다움이 주는 감동이 있어요.경주 가면 빼놓지않고 가는 곳.', '근처에서 묵었는데 항상 볼 때마다 좋더라구요', '밤에 보러갔는데 너무 멋졌어요!조명도 잘되어있고 해설해주시는 분들도 계셔서 좋습니다!사진으로만 보던 첨성대보니 더 신기하네요~!', '야경이 진짜 이뻐요! 저는 낮보다 밤 추천 👍🏽💜', '첨성대는 낮이랑 밤에 볼 때 분위기기 또 달라서둘 다 사진 꼭 찍어야 해요', '생각보다 야경이 예쁨. 산책하기 좋음.', '햇빛이 뜨거웠지만 넘 좋아요주중에 갔더니 사람도 생각보다 많지 않았어요', '옆에 꽃밭도 이뻐요', '천년넘어 자리를 지키고있는 유적인데도 관리가 잘 되어있고 주변 경관이 좋아요.', '경주의 상징과 같은 첨성대👍', '사장님~~~~나이스 뷰~!! ㅎ', '나쁘지않아요.근처 뷰도 괜찮아요.30여년전 수학여행 생각나네요', '경주 와서 들른 곳..', '밤에 보는 첨성대. 사진찍으면 예쁘게 나옴.', '230523일 경주여행 무료 입장기간 일주', '과거에 이런 것이 만들어졌다는 것이 놀랍습니다.', '깜깜할 때 가서 첨성대 고유의 색은 못 봤지만 뻘건 조명을 받은 첨성대도 꽤 예뻤어요. 근처에 대릉원, 동궁과 월지 등 유적지가 많아 같이 둘러보기 좋아요.', '지진에도 멀쩡했던 1500년 유산', '멋즤다 성대야~~!!!!', '경주 가면 꼭 찍고 가야할 포토존입니당인스타에서 사진 찍는 거 보고 재밌어보여서 찍어봤어요 각도 맞추기 좀 힘들지만 이렇게 찍어도 좋을 것 같아요~주차는 가깝진 않지만 걸어오면서 이것저것 볼 수 있어서 나쁘진 않아요', 'AK HISTORY TV(방문영상)https://youtu.be/4Y-OF-R5_4U#별자리#달력#수학여행#유적지정비#너무좋아#근처에유적지많아요#경주는전체가문화유산#Real Life #Artificial Kernel#Arnold J. Kim#20.7.26', '0', '풍경이 되게 좋았어요.', '경주에 가면 꼭 가봐야죠 ㅎㅎ 신라의 상징', '연 날리기 최고ㅎㅎ애들은 역사보다는 액티비죠!', '밤에 가니 엄청 이쁨 주변에 꽃밭 조성해놓은 곳에도 조명을 쏴서 이쁨언제부터인가 무료입장이 되어서 더 좋음', '비가 왔지만 그만큼 운치도 있어 좋았습니다-!', '추억의 첨성대라 너무 좋습니다', '큰 기대 안하고 갔는데 마침 선덕여왕 이벤트가 있어서 아이랑 너무 즐거운 시간을 보내고 사진도 잔뜩 찍고 왔어요코스튬하고 친절하게 사진 응해주신 분들 너무 감사해요 아이랑 좋은 추억 만들었어요', '첨성대는 감상하러 오는 곳이지기대하고 가는곳은 아니다', '겨울에 방문하시는 분들을 위해:겨울엔 핑크뮬리 그런 거 없습니다.. 허허벌판 가운데에 첨성대 있음. 낮에도 웅장하긴 한데 날이 흐리거나 비 오면 별로예요... 날씨가 안 좋으면 밤에 보는 게 더 예뻐요. 근데 사실 주변에 뭐 없이 첨성대만 있으니 큰 감흥은 없더군요......', '첨성대가 친절하거 신라왕조가 맛있어요', '역시 멋있다~', '밤에 처음으로 방문 해봤는데 낮과는 또 다른 느낌', '대충 세도 대여섯번은 왔지만 밤에 한 번도 안 와 봤네 경주 여행의 시작과 끝은 여기여야만.', '밤에는 붉은 불빛을 쏴서 오히려 별로였어요 푸른하늘을 배경으로 둔 첨성대가 눈에 더 잘들어옵니다 주변이 온통 꽃밭이라 너무 좋았어요!', '내가 아끼는 첨성대! #경북경주시', '첨성대낮에 보아도 밤에 보아도 무언가 잔잔한 감동이 있음주변에 핑크뮬리, 여러 종류의 꽃밭들도 있어 사진 찍기도 좋음', '경주여행 필수코스ㅋ 구조물이 참 대단함ㅋ 밤에 가면 불빛이 첨성대를 비추는데.. 음 난 낮에가 훨씬 구조물도 잘 보이고 더 예쁜 것 같다', '정말 아름답네요~!!왓더버거 뒤쪽 넓은 주차장 무료 입니다', '해질녘 그 순간의 풍경만큼은 말로 표현 할 수 없을만큼 아름다웠다.', '휴가첫날밤에가고 이틀뒤에도 낮에 가봤는데 둘다좋아요ㅋㅋ 야경도 멋지고 낮에 해바라가랑도 잘어울리네요ㅋ', '원형이 매우 잘 보존되어 있는 첨성대. 공원조성을 잘 해놔서 낮,밤 모두 들리기 좋습니다.', '신라\xa0선덕\xa0여왕\xa0때\xa0세운\xa0천문\xa0기상\xa0관측대.\xa0경주시에\xa0있으며\xa0동양에서\xa0가장\xa0오래된\xa0관측대이다... 삼국시대 건축물이 이렇게 온전하게 유지되다니', '대릉원, 천마총, 첨성대 묶어서 산책 코스로 아주 좋습니다!일몰쯤 가세요. 너무 어두울때 가면 모든 인물 사진이 저렇게 그림자처럼 나옵니다 ㅎㅎ 주변에 해바라기 꽃밭이 너무 예뻤어요. 가을엔 핑크뮬리 인듯요?', '멋진 경주 멋진 유적지', '너무 더워 대충 보고왔지만 30년 전이나 지금이나 달라진 게 없어 좋았어요.', '밤에보는 첨성대는 더 멋있다', '수학여행온기분', '첨성대는 높고 멋있어서 좋은데, 꽃같은 예쁜 것이나 나무가 없어서 조금 허전해요.', '경주의 심벌', '멋지다 너!', '첨성대 하나지만 야경이 예쁘다...이거 하나때문이라 좀 아쉽지만 그래도 가볼만한곳이라 생각되네요~', '야경분위기가 아주 좋음.', '뭔 거지같게 유적지에 가요를 틀어놓냐', '낮보다 밤이 더 웅장할것이라는 기대를 안고 왔는데 알록달록 바뀌는 조명에 큰.실망이네요', '밤이 더 좋아요', '잘 꾸며놓음', '너무 멋져요~', '믓찌다믓쪄', '말이 필요없음 짱좋아영', '문화재를 평가한다는건 역사를 평가한다는건데.. 이건 쫌 그렇다 무조건 5점이지', '꼭 한번 가보세요.', '짱', '유명한 곳이라 사람이 참 많더군요. 주변이 넓고 가을엔 핑크뮬리도 있어서 잘 어울립니다.', '낮에 봐도 밤에 봐도 좋은 첨성대', '귯', 'Nice', '과학', '밤에 가세요', '첨성대도 좋지만 주위에 꽃밭이 좋았다', '묻지마 수학여행으로만 봐왔는데 다 커서 보는 첨성대는 또다른 느낌이네요. 야경이 예쁜데 분홍 조명만 너무 오래 나와요. 파랑 초록은 순식간에 사라짐ㅠ', '낮에도 이쁘고 밤에도 이뻐요. 내사랑 첨성대', '최고최고!!', '날씨 좋은 날 가니 너무 좋네용 자전거 타기도 좋았어요 첨성대 오랜만에 보는데 넘 멋있다는 ㅎㅎ', '곡선이 너무 아름답다', '입장료 무료', '여기는 야경이 멋있음. 근데 코로나땜에 사람이 없더라요ㅠ', '사진 찍을만한 스팟이 크게 많지는 않은데 꽃을 보니 괜히 기분 좋네요 ◡̈  황리단길이랑 가까우시면 걸어서 방문하시길 추천합니다!', '한번쯤 들릴만한곳', '좋아요', '공원처럼 조성되있고 무료라 더 좋으', '무조건 봄에 가세요. 첨성대 주변 벚꽃길도 아름답고 자전거 빌려서 한바퀴돌면 엄청 좋음', '길안내가 애매했다', '생각보다 아담해서 놀람.', '예뻐여 핑크뮬리도 지려여,,', '너무 너무 멋진 우리 문화재♥♥♥', '주차가 힘들수잇으니 숙소에 차두고 오세요', '아주 좋아요 이뻐요 꽃밭도 많구여 재방문의사 있어요', '최고', '이쁨.용도는 알 수 없음.저기 들어가서 별보는거랑뒷동산에 누워서 보는거랑다른가?', '근처에 꽃밭을 예쁘게 조성해줘서 산책할 맛이 남. 가을엔 핑크뮬리가 필것같다.', '무슨 말이 필요할까', '낮보단 밤이 나은듯', '크고 밤에보면 예뻐요!!', '1400년간 수많은 역경에도 잘 버텨준 기특한 첨성대', '점점 작아지는듯한 기분야경도 좋고', '신비롭다...', '신입사원 연수.', '멋있다!!', '20171006', 'ℹ 1962년 12월 20일 국보 제 31호로 지정.✌ 역사 시험에 자주 나왔던 경주하면 떠오르는 첨성대.', '첨성대..수학여행이후 첨..']</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>경북천년숲정원</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>경주시 통일로 366-4</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>['조용히 산책하기 좋아요개념없이 사진찍는 사람만 피하면...', '입장료 무료 주차 가능한 시간정도 걷기 좋고분재나 전시용으로는 타 수목원 등 대비해서 아직 덜 자라거나 조성이 미흡한 편이고 양귀비 등 자잘자잘한 꽃 정도는 있어요. 철쭉이 필 때나 벚꽃이나 은행 질 때 이쁠 거 같긴 해요.산책로는 일부 오래된 부분도 있어서 그런가 부모님이 좋아하셨어요.사람이 적어서, 걷기 좋아서 여유부리고 싶을 때 오기 좋은 곳', '도시에 이런 넓은 숲이 있는 경주가 부러웠습니다. 숲과 사진명소, 쉼의 공간으로 좋았는데 주차공간 부족이 아쉬웠습니다', '산책하기좋아요', '벚꽃축제를. 즐기기위해. 경주를 방문했으나개화가늦어 좀은실망스러웠는데이곳을방문해서. 많은힐링읋고옴메타세콰이어숲을. 충분히감상할수있는곳', '240309일 경주여행 모두가 찾는곳', '봄부터 가을까지 예쁜 사진을 찍을 수 있는 사진 명소. 통나무다리 스팟은 많은 스냅촬영 장소로 각광받는 포인트 입니다 :D 하절기, 동절기 개방시간이 다르니 꼭 시간을 확인하고 방문하시는 걸 추천드립니다. 봄~여름에는 초록초록한 분위기를, 가을 단풍철에는 메타세쿼이아 가로수가 물드는 풍경이 매력적인 곳이에요. 숨겨진 벚꽃 명소도 있답니다 ㅎㅎ 다만 장소 특성상 겨울은 좀 아쉬워요. 사진명소로서의 의미뿐만 아니라 경북 지역에 있는 천연기념물로 지정된 나무들의 후계목을 보존하는 공간도 있으니 천천히 둘러보시는 걸 추천드립니다.', '해가 짧아지는 계절이 오면 운영시간이 짧아진다그래서 한번 갔다가 운영시간 끝나서다른날 다시 왔다 주차장이 생각보다 협소해서 애먹음규모가 생각보다 크고 나무들이 멋지다포토존인 넘어진 나무 위에서 사진을 찍으려면상당히 오래 기다려야할것 같음..', '힐링 장소입니다. 무료 입장에 메타세쿼이아길 대박~~👍', '한적하게 힐링할 수 있는곳🌿 거기에 무료입장까지', '이미 너무 유명해져서 사람이 넘처납니다.주차장까지 가는것도 한세월~~그래도 일단 들어가면 완전 좋습니다.들어갈때 통일전 방향에서 가는걸 추천.', '정말 이쁘고 산책하기 좋아요', '작지만 아기자기해서 따뜻한 봄날에 가면 좋을듯', '포토존 봄 .가을날씨에 사진찍기 좋은곳 추천합니다 👍', '단풍들때 꼭 와 볼 곳인듯 해요.', '좋아요', '계절마다 다른 매력이 있을듯 합니다가을에 가도 충분히 멋져요..!봄에 피는 꽃을 많이 심어놔서 봄이 특히 더 기대됩니다!!', '이곳을 아직도 안 가신 분이 계시다면.. 얼른 다녀오세요!', '여유롭게 산책하기도 참 좋고 중간중간 의자가 있어 좋아요. 반대편 연구원 길 앞도 한적하니 좋아요!작년보다 올해 더 자연스러워진 식물들이 사랑스럽네요~ 내년은 또 더 이뻐지겠죠!', "천년숲정원 공식주제가 '천년의 사랑 - 숲튽훈'", '넘 더울때 가서 제대로. 보지도 못하고 왔어요 사진은 멋지던데. 실제로는 좀 실망', '무료입장이고 메타세콰이어나무 숲에 가면 좁지만 원시림에 들어간 기분이 납니다.', '멋있고 아름다운 경북천년숲정원이 만들어 졌습니다. 넘 아름다운 숲정원입니다.', '인위적인 느낌이 강해졌지만 구경하기 좋아요~몇 년뒤에 더 자연스러워질거라 생각해요꽃 많고 중간중간 의자가 있어 좋아요👍👍', '원래 아름다운 자연 그 자체였는데돈이 남았는지 다 갈아 엎음 나무크려면 20년 뒤에 와야할듯이라고 적었는데나무 쳐 박아놓은거보니 한숨만 나오네나무 가지 뻗은 만큼 뿌리도 뻗어야 건강한 나무임사람보기 좋으라고 돌사이에 나무만 쳐박아놨네장담하는데 작은 솔방울만 잔뜩 맺히고 절때 안커짐']</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>대릉원</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>경주시 계림로 9</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>['한복입고 사진 찍으면 더 예뻤어요♡ 나무가 많아서 들어 가면 시원하고 입장료는 무료입니다', '대릉원 무료에, 날씨좋은날 가면 보정없이 이런사진을 찍을수있습니다👍', '광복절에 왔어요신라 천 년의 숨결이 잠들어 있는 곳', '조선의 왕릉들과는 다른,자연의 일부이며 아담하며 정갈한 멋이 있는 신라의 능이 모여있는 곳입니다.관리가 잘 되고 있고, 쉴 수 있는 곳은 부족하고, 천마총을 품고 있으며,30여분 이상 기다리게 되는 몇몇 포토존이 있습니다.포토존에서 대기 없이 사진을 찍으려면 평일 아침 오픈런 뿐입니다.정 중앙에서 찍는 것도 좋지만, 첨부된 사진처럼 비스듬히 찍는 것도 좋은데,줄 서 있는 뒷 사람이 사진 찍어주는 구조로 돌아가서,그런 추가 요청을 할 수 있는 분위기가 아닌 게 안타깝습니다.', '신라 천년의 고도 가 느껴지는 곳이다 정말 추천한다', '괜찮아요 다시가고싶은 곳이네요', '산책하기 너무 좋아요~', '피크닉하기좋아용!(4월 사진임)', '무덤이 너무 신기했어요', '평일 아침에 가면 사람이 많이 없어서 아주 좋습니다.', '⭐️⭐️⭐️1/2…(2013년에 방문)여기…가볼만해요…', '경주의 분위기를 만끽할수 있는곳.산책로도 잘되어있고 사진도 정말 잘나와요.천마총도 관람할수있고. 청마총내부는 입장료가 있지만 후회안하고 관람할수있도록 관리도 구성도 잘되어 있네요.', '황리단길이 있어 주차는 더 까다로워졌지만 산책하기 좋아요', '비오는날 한번 맑은 날 한번 이렇게 갔는데, 맑은 날 가면 진짜 너무 예쁘고 쨍하니 사진 잘나옵니당. 바로 옆이 황리단길이라 접근성도 좋고, 여유를 즐기기 좋은 유적지예요.', '산책하기 참 좋네요~야간에도 굿~!', '신라의 왕릉들을 구경하면서 산책하기에 좋은거 같습니다.또 옆에는 황리단길 근처에 첨성대, 월정교, 동궁과 월지 등 문화재들도 구경할수 있어서 좋아요👍', '걸어다니며 볼 수 있는 왕릉 뷰가 경이롭고 아름다웠습니다! 봄이나 가을에 가면 더 좋을 것 같아요.', '산책 가기에도 좋고 아기 데려가기에도 좋아요!', '목련 한그루 피어있는 곳이 포토존 !!', '무덤을 크게 어떻게 만들었는지 궁금해요', '경주 랜드마크 같은 곳이죠. 이번엔 밤에 갔는데도 조명이 잘 되어 있어서 새로왔어요.', '무조건 가세요…첨성대 가깝고 주변 주차장도 좋아여', '산책삼아 걸어다닐만 함', '뷰 너무좋아요다시 가고 싶은 곳..', '대릉원 이쁘고 좋아요..나무가 많아 뜨거운 해도 피할수있고 1시간정도 여유롭게 산책하기 좋아요', '대릉원에는 신라시대 왕과 왕비의 무덤 23기가 모여있는 곳이라고 합니다', '걷기 좋어요. 천마총 보고 옆문으로 황리단길로 바로 가시면 됩니다.', '릉들이 많은 만큼 사진도 잘나오고 역사도 깊게 알 수 있음', '날씨 좋을 때 가면 좋아요', '야간뷰가 넘 예뻐서 다시 방문하고싶어요', '산책로도 좋고 천마총등 볼거리가 많아요.', '봄, 여름, 가을, 겨울 사계절 다양한 모습을 담고 있는 대릉원. 봄부터 가을까지는 많은 인파로 북적이는 곳이지만, 겨울에는 다소 한적합니다. 덕분에 고즈넉한 대릉원의 정취를 마음껏 느낄 수 있어요. 노을지는 풍경과 함께 야간산책 하기에는 겨울이 제격이랍니다.봄에는 미추왕릉의 벚꽃과 대표적인 포토존의 목련, 그리고 산수유 꽃이 피고여름에는 배롱나무 꽃과 초록잎의 숲이 우거집니다.그리고 가을엔 후문쪽 단풍이 참 예쁘고요!천마총만 부분 유료개방이지만 꼭 방문해보시길 바라요.', '산책하기 너무 좋았어요', '아이들 역사 체험하기 좋아요. 첨성대에서 천마총까지 한번에 보고옴', '즐거운 시간을 보내고 왔습니다', '정말 이쁘고 넓습니다 주차는 힘들어요', '황남대총, 천마총, 미추왕릉이 있는 대릉원,벚꽃명소 포토존', '맑은 날 가면 사진도 잘 나오고 참 좋습니다.', '어딜 둘러 봐도 예뻐용... 넓어서 산책하기도 넘 좋구용', '초등학생때 갔던 수학여행이 생각났던 관광지였네요.최고의 순간이었어요.', '대릉원은 사계절 언제든 가도 좋은 곳이에요.', '입장은 무료입니다잘 보존 된  곳 ᆢ포토존은  대기줄이  길어서  포기 ᆢ연인들 끼리 추억 만들기 좋은 곳 ᆢ어느 곳  어느 각도에서  찍어도멋진 배경이 되는  곳 ᆢ먹거리  볼거리  산책  사진 ᆢ모든 것이 되어 있는 곳 ᆢ', '경주 최대, 최고 규모의 무덤 단지이 특이한 형태의 고분들이 어우러진 모습이 묘한 매력을 느끼게 함과 동시에 신라 문화에 대한 경외심을 불러옴.대릉원 자체는 무료이나 원내 유명한 천마총은 유료.한바퀴 산책하듯 돌아보기 좋은 곳이고대릉원을 중심으로 서쪽은 황리단길, 동쪽은 돌담길인데둘다 상반되는 매력이 있어 걷기 좋다.', '좋은 추억만들기', '깔끔한 주변환경이 너무 아름답습니다.', '너무 좋은데 포토존 맛집', '20230924', '올라가고싶었다...', '경주의 아이덴티티.', '넓고 평일 낮엔 한적해요 !천천히 산책하기 좋습니다', '해가 질 무렵에 도착했다뜨겁던 더위도 한발 물러서고 오키나와에서는 우리나라를 비켜가는 태풍이 올라오고 있었는데도 아줌마 셋이서 세시간반을 달려 간 곳대릉원감동과 환희가 ~~~~', '날씨가 좋다면 꼭 대릉원 한바퀴 돌아주시는거 아시죠!!', '커플사진찍기 너무 좋아요', '날씨 좋을 때 왔으면 좋았을걸... 그래도 매우 예쁩니다. 산책하기 딱이에요.', '역시 거대하다.', '무료로 입장할 수 있어서 좋았어요 ! 볼 거리도 많고 사진찍을 공간도 많아요. 포토존은 줄이 항상 길어서 기다려야 합니다', '공원이 깔끔하고 좋다.내부에 천마총은 굳이 돈 낼 필요는 없을듯', '걷기 좋은데 길이 좀 복잡했다. 잔디에 들어가지 말라고 팻말도 있고 방송도 나오는데 들어가 사진 찍는 커플들 보기 좀 그랬다.', '입장료도 무료이고 거닐기 엄청 좋아요', '넓고 너~~~~무 좋음', '혼자 머리식힐 때 경주가곤 하는데 좋아요..대릉원 입장료도 무료로 바뀌어서 더 좋습니다!', '여름이라 날씨가 덥고 모기가 많지만, 청량한 아늘 아래 사진맛집, 뷰맛집💫', '평일에 구경 가시면 편하게 즐길수 있어요', '포토존 너무 이뻐서 줄 서서 잘 찍고왔어요!', '조용히 관람하고 싶었는데 시끄러웠어요.', '뷰가 예술이고 맑은날가면 인생사진건짐', '경주시 서북쪽 노서동 일대에 자리 잡고 있는 신라의 무덤들로 현재 10여 기의 크고 작은 무덤이 남아있다.\xa0', '초록 초록 넘 좋다 산책하기 좋아요 🌳🌳🌳', '포토존', '되게 멋있고 고즈넉하니 예뻐요', '시설도 깔끔하고 산책하기 좋아요:)', '대릉원 빛 축제', '가족과 같이 한 여행 중 사진명소로 기억남습니다. 사진 정말 잘 나올 정도로 포토존이 많습니다.', '경주왔는데 한번은 가야지.능이 멋있음', '낮엔 못 가고 밤에 갔는데 사람 너무 많고 화장실 넘  멀고..아이들과 고생했네요..ㅜㅜ 담에 오면 낮에 가보고 싶네요..밤엔 비추...너무 사람 많아서 힘들었어요..', '날씨잘맞춰서 가세용 완전이뿜', '230523일 경주여행 무료 입장기간 일주', '미디어아트 보러 저녁에 방문했어요. 행사기간이라 주차하기 너무 힘들었지만, 화려한 영상이 꽤 볼만했어요. 나중에 기회되면 그나마 한적할 평일 낮에도 한 번 와보고 싶네요.', '야간에 가는걸 추천해요! 지금 입장료도 안받으니 꼭 한번 가보세요^^', '무료개방', '대릉원 안에는 고즈넉하니 산책하기 좋은곳이지만 주변황리단길이 너무 핫해져서 평일에도 주차가 힘들고 통과하는것도 너무 힘들어서  가기 망설여지는포토존 곳이기도 해요', '입장료가 있기는 하지만 저렴하고 시설관리가 나름 잘되어 있어서 한번 정도는 가볼만한 관광지.(두번 갈 필요는 없을듯)안에 매점같은게 있으면 좋을것 같기는 한데 아무것도 없기 때문에 여름엔 음료수라도 사서 들어가는걸 추천함.주차는 무료.', '봄에 정말 예쁘다 포토존은 1시간 넘게 줄서야 함', '벚꽃 쩜', '아침에 가면 좋은 대릉원! 하지만 아침에도 포토스팟은 뭄벼요', '사진찍기 좋고 역사를 더 알 수 있어서 좋아요길이 좀 미로같아서 지도를 몇개 더 놓으면 좋을 거 같아요', '산책코스로도 좋습니다. 입장료는 입구에서 표 구매하면서 내게 됩니다.', '역사도 알고 예쁜 사진도 찍고걷기도 좋아요', '경주 필수코스', '동궁과 월지보다 여기가 더 좋았어요!크고 볼거리도 많고 별도 많이 보이고 사람도 없어서 한적했어요^^', '넘 조용하니 좋았습니다 ㅎㅎ', '경주의 고즈넉함과 위상을 느낄 수 있는곳', '너무예뻐요&gt;_&lt;', '가을가을 제대로 느끼고 왔습니당 ㅎㅎㅎ 이뻐욥', '입장료 3000원경주 랜드마크! 거의 10년만에 왔는데 천마총 내부가 리모델링 되었는지 현대적인 느낌이 되었다 ! 깔끔하게 정돈된 것고 좋지만 예전처럼 정말 무덤안에 들어온 느낌이 사라져서 아쉬움 ㅠㅠ 무튼 능들 너무 멋있구 소나무숲길이랑 포토존 뷰가 진짜 멋졌음', '바람이 선선하니 산책하기 좋았어요', '주차장도 크게 있고 접근하기도 좋아 경주 방문하시면 한번은 꼭 들러야 할 곳 같습니다.덥거나 추운 날씨에 방문하면 전체를 둘러보기에는 다소 큰 감이 있으나 천천히 둘러보다보면 고즈넉한 분위기와 함께 마음이 차분해지는 곳입니다.', '둘러보기 정말 좋은 곳ㅋ 역사에 관심이 없어도 한 번 둘러보면 힐링이 되는 곳이다. 요즘은 무조건 포토존 찾느라... 난리인 것 같은데 천마총에도 좀 관심을....', '소나무 숲이 아름다움수종이 다양하고 커서 식물 및 조류 관찰하기 좋음여름에는 너무 더워서 저녁부터 방문하기 좋은 곳', '경주오면 무조건 들려야하는 장소.', '많은 능을 공원처럼 꾸며놓고 관리도 잘 되고 있는 것 같다. 특히, 천마총 내부에 유적을 알기쉽게 이해를 돕는 장치가 잘 갖춰진 부분이 인상 깊었다. 아이들이 말하는 가장 기억에 남는 부분은 금관 등 장신구를 실제 만드는 영상이었다.', '신라시대의 고분군... 산책하기도 좋아요', '비오는날 본 대릉원. 소나무 숲이 멋있다경주는 비오는날도 좋음', '경주만의 고즈넉함을 느끼려면 이곳에서', '아침에 걸으니 한적하고 좋았어요. 1시간이면 돌아요ㅎㅎ', '대릉원과 청보리밭 추천해요 ㅎㅎ', '(2022.05.06 방문) 정말 오랫만에 방문하는 천마총. 어렸을땐 몰랐는데, 생각보다 작네. 날이 좋아서 그런지 더 푸릇하고 걷기 좋은 대릉원이었어요.', '경주의 대표관광지...늦은시간까지 개방이라 여유있게 갈수있어 좋고 초록의 릉사이길을 산책하듯 걷는게 좋다...내부까지 공개되어있는 천마총도 끝부분에 있다...경주에서 느낄수 있는 풍경이다...', '경관이며 분위기 좋음. 한바뀌도는데 오래걸리지 않음. 천마총은 생각과는 너무 달라서 매우 실망. 오리지널의 보존은 전혀보이지 않고 무슨 찜질방 내부 인테리어 처럼 해놨음. 문화유적 보존을 이런식으로 해놔도 되는건지 정말 의문.', '좋아요. 10년전보다 정비도 잘되고 특히 천마총안을 잘꾸며 놨더라구요.', '21.11.13 토요일아들의 첫 신라 유적지 체험', '여긴 꼭 해 있을 때!', '재밌었어요 &gt;.&lt;', '힐링되요사람이 적을때 오면 더 좋을거 같아요', 'Nice area. Very beautiful place', '부지가 넓은데 잔디나 능 관리가 엄청 잘 되어서 날씨만 좋으면 어딜 찍어도 그림같이 나와요 경주 여행 필수 코스', '한번가볼만함', 'ㅋㅋ 남친은 일점....속 든든하고 뜨끈한 순대국밥이나 먹으래용ㅉㅉ이뻐요 근데 포토스팟 줄이 어마어마함한번쯤 가볼만하구 안덥고안뜨거운 시간으로 골라가세용', '덥고 덥우며 덥지만 초록색 풍경과 파란 하늘이 주는 느낌이 좋았다.', '날씨가 덥고 습했는데도 그늘이 꽤 시원하고 바람이 불어서 좋았습니다. 걷기에 참 좋은 곳이에요. 경주에 오셨다면 한 번쯤은 꼭 들러보시면 좋겠습니다. 주차장도 잘 되어있어요. 그리고 잔디 들어가지 말라고 써있는데 사진 찍겠다고... 잔디 들어가는 관광객들 많아서 충격받았습니다.... 문화유산 보호에 대한 인식을 갖고 모두가 신경 써 주시면 좋지 않을까요? 그리고 전동차 입장 불가라는 점 참고하세요~', '사진찍기에 너무 좋다. 이쁨!', '평일에 방문했는데 사람도 별로 없고 조용하고 바람도 시원하고 좋았습니다!!!', '4계절 마다 가볼곳', '사진찍기 좋아요포토스팟엔 줄이 길어요', '경주오면 꼭 들려야 할 곳. 가을 겨울엔 솔직히 잘 모르겠고... 좀 파릇파릇 할때 오세요. 산책하기 너무 좋고 예뻐요^^', '대릉원은 밤에 가야 더 고즈넉하고 아름답습니다.. 제 생각^^', '너무 좋아요~', '말해모해. 푸른잎 돋아날때 가세요. 옆에 황리단길도 있음', '경주명소 인정', 'Good :)', '벌초해서 덜 예뻐요ㅠ', '입장료 3000원에 유료주차장 2000원은 대체...', '경주 = 대릉원공식입니다.', '대릉원은 아주 좋습니다  단 경주버스투어 방문시에는 주차장 부근 지하에 있는 허접 바가지 단체식당 들어가라고하는데 음식은 다 식어있고 고기 몇점주는 제육볶음보면  성질폭발합니다   다  무시하고 근처 편의점도시락 간단해결하시고 저녁에 맛잇는 거 드세요... 2016년이야기지만', '맛집입니다.', '낮에 와야 좋음.', '가까이에서 왕릉을 볼 수 있어서 좋았어요. 넓고 쾌적!!', '무덤에 대해 설명이 너무부족...', '5월19일~20일 경주시내관광~주상절리까지 공기좋고 친절하고 .깨끗한 환경 good~~~가을에 다시가야지.', '이런 규모로 무덤이 만들어지려면 힘이 어마어마했겠지. 공원 돌아다니듯이 걷다가 문득 무덤이란 생각이 드니 기분이 오묘했다. 사진은 사람들이 줄 지어 서있길래 나도 한 번 한 번 찍어봤다. 유명한 포토존이라는데 왠지 쓸쓸한 느낌. 잔디 푸릇할 때 다시 와보고 싶다. 어른 입장료 3,000원', '주차장 협소함 잘 찾아보면 무료 주차장 넓은데 있음입구쪽  주차장 오른 쪽 승용차 한대 들어갈 수는좁은 골목이 있는데 들어가면 넓은 공터가 있어요공기도 좋고 경치도 너무 멋있고 사진 찍기에 넘 좋아요공원 주위에 옷 대여하는 곳이 많아서 ...한복 교련복 학생복 옛날 옷등입고 사진 찍으면 넘 멋지고 옷 입고 대릉원 주위에카페 먹거리 식당에 마니 갖춰져서 먹고 가도 추억이마니 남아요. 또 운세 보는 도깨비가 있어서 봐도재밌어요. 수제 향수가게, 십자수등 가게도 있어서넘 좋구요, 패총도 관광할 수 있어서 역사적으로도배울게 많아요. 릉밖 주위에 한옥스테이지가 있어서자고 가도 넘 좋아요. 한옥 향기가 마니 나고 정겨워서행복했어요. 한옥카페도 사진 찍기에 너무 좋고맛은 마시분들 평가하시면 돼요^^;;안가보시면 평생 후회하실 수 있어요.고등학생 대학생 연령대가 골고루 마니 오시네요^^즐거운 여행도 되시고 좋은 추억도 되시고행복하게 다녀오세용~^^', 'ㄱㅊㄱㅊ 입장료 3천원', '정원 같은 무덤터라서 볼것이 있고 산책하기 좋음.', '너무 멋있음!', '산책하기 너무 좋았음', '아침 일찍 갔더니 한가로움산책하기 좋고', '아침시간에 방문했습니다.여유로운 시간 보냈습니다 최고에요!', '천년 신라의 증거', '20171006', 'ℹ 대릉원이란 이름은 미추왕을 대릉에 장사 지냈다는 삼국사기 기록에서 딴 것.✌ 편안하게 산책하기 좋은 곳. 대릉원 돌담길을 따라 걷는 연인들도 많은듯( 꼭 경복궁 돌담길 느낌이랄까 )', '나무가 빼곡란 초입부터 고즈넉한 산책길이 좋다.중학교때 감흥이 없던 천마총이 새롭다.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>오류고아라해변</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>경주시 감포읍 오류리</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>['You should wear safety jacketto get to the water, and the price for jacket is 10000won😡', '9시~7시까지 입욕 가능합니다!샤워장은 6시 반정도까지 하고, 찬물만 나옵니다.올해 동해안에 해파리가 많이 출몰되고 있어서많이 걱정되네요. 그래도, 관리를 열심히 하고 있는거같아요. 수영할 때는 해파리를 못봤습니다.파도가 거센편이라 구명조끼나 튜브 필수입니다.', '평상+그늘막 빌리려면 5만원이에요😭 너무 비쌉니다....그래도 바다는 예뻤습니다. 다만 해파리가 너무 많아서해수욕은 하지못해서 아쉬웠어요!', '바다는 이뻐요!', '바다가 정말 예뻐요. 다만 바다에 맨발로 들어가면 돌 때문에 발이 너무 아픕니다. 아쿠아슈즈 착용을 추천', '우연히 들렀다가 경치가 너무 좋아서 바다만 2시간동안보다 가네요~', '깨끗하고 한적한 동해바닷가🐟', '경주시 감포읍 오류리 소재의 동해바닷가에 해수욕장. 주차장, 화장실, 사워실등 있습니다.', '캠핑하기 괜찮은 백사장~', '조금만 나가도 수심이 3m 이상 깊어진다.물이 맑고 손가락만한 물고기들도 몇마리씩 돌아다닌다.', '내려올때 경유 박쥐CU감포파도소리점', '사람 많이 안 오는 꿀 장소근데 좀 멀고 주변이 휑 하다..', '평상?값이 4만원인데 좀비싸긴해도 하루 편하게 즐길수있다는생각에 빌렸는데 현명한선택인듯하고물싫어하고 모래놀이좋아하는 따님은 모래놀이를 아드님은 물속으로ㅋ 파도가높아 많이 놀지못한게 아쉬울뿐~~즐거웠어요~~', '튜브랑 천막평상 가격을 좀 쎄게 부르시는 것 같아서 놀려고 들렀다가 다른 곳으로 갑니다. 튜브 개당 1만원, 평상 4만원이네요~ 가실 분들은 참고하세요. (어제 갔던 구룡포는 튜브 5천원, 파라솔 2만원 이었어요...)', '날씨가 좀 흐렸는데도 에메랄드빛 물구경에 취했다. 동해는 사랑인 거 두 번 말하지 않겠습니다 하이고', '거제 몽돌해수욕장 갔다가 벌떼처럼 돗자리세 받으러 전투적으로 와서 화내는 할머니들 디여서 바닷가 안가다가.. 오류갔더니 그늘막 역시나 쭉 쳐놨지만 자리편다고 달려들진 않아요. 텐트는 가격없네요?또 가고 싶은 곳', '깨끗하고 와이파이도 돼네요']</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>경주보문관광단지</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>경주시 신평동 375</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>['드라이브명소 산책로', '산책로 드라이브명소', '드라이브명소 벚꽃명소 연이들의데이트장소로좋아요..한번즐겨보세요', 'Good place for a stroll during the cherry blossom season.Close by also the fun park...', '또 가보고 싶었습니다.드라이브코스 나들이', '벚꽃명소', '옆지역이어서 마음 놓고 당일치기로 놀러 갈수 있음', '경치도 좋고 가볍게 걷기도 좋네요~^^', '구경거리가 있으면서도 없고 음.. 차타고 돌기에는 좋은거 같네요', '놀거리가 많아서 좋습니다', '드라이브코스 나들이 벚꽃명소', '경치좋고 역사를 가까이서 보고 여유를 즐길수 있어 좋은 것 같아요~^^', '나들이 나들이 벚꽃명소', '사람 많은데 꼭 가봐야하는 장소', '무한 산책 가능 넘 예쁨.. 화장실은 왜인지 바닥에 물이 흥건해서 미끄러웟음', '경주갈때 네비에 찍는 곳', '보문 관광단지 유명하다해서 벚꽃 성수기 주말에 타지방에서 놀러왔는데요.... 차가 너무 막히고 식당은 대기 기본 30팀씩있고... 경주에 첨성대라던가 동궁과월지등 다른 유적지 구경하러도 못가요ㅠ 차가 너무 막혀서... 벚꽃 이쁜건 알겠지만 다신 안올것같아요. 식당도 대기팀 너무 많고 일찍 문닫아서 밥도 제대로 못먹고 고생만하다 가네요, 그리고 보문단지 호수 근처에 먹을만한 식당 없는것도 불편해요.', '볼거없어요', '벚꽃있으면 개이쁠듯', '벚꽃 구경 오시려면 적어도 5일후에 오세요.꽃이 거의 피지 않았습니다.(10% 정도 피었어요)', '주말에도 보문관광단지 관리소에서 열심히 일해주시더라구요! 오늘 보문호에 유모차가 날아가면서 가방 빠뜨리는 사고쳤는데 관리소에서 빠르고 친절하게 다 수습해주셔서 정말 너무죄송하고 진심으로 감사했어요ㅠㅠㅠㅠ 벚꽃여행왔다가 감동받고 갑니다ㅜㅜ', '음 뭘 보아야하는건지', 'ㅡ']</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>월정교</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>경주시 교동 274</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>['여긴 꼭 밤에 오세요!', '야경이 너무 아름다운 월정교 물위에 반영된 월정교가 황홀합니다', '야경 정말 예쁩니다.경주 오면 가야할 장소에요.', '야경 너무 이뻐요. 한바퀴 걷기 좋아요.', '야경이  넘 ㅇㆍㄱㅅ져', '어떻게 찍어도 사진 이쁨. 2층은 아이고 무릎.', '아...걸어갔는데 힘들어서 죽는줄ㅠ.가을에나 걸으세요.. 여름엔 너무 힘드네요', "깊이 생각하자면 근본 없는 복원을 질타할 수도 있겠지만,동궁과 월지와 함께, 야경 사진 하나만큼은 기똥차게 잘 뽑힙니다.좀 더 감성적으로 느껴보고 싶다면 '진혼기'를 읽은 후 방문해보는 것도 좋습니다.", '야경투어', '해질녘 방문해서 야경까지 멋지게 보는걸 추천해요~주변 맛집도 많고, 주차장도 잘되어있어요', '야경이 아름답습니다 .. 최고', '주차하기 편하고 돌다리 건너밤나들이 하기 최고에요.', '밤에 오면 갬성 뒤짐', '굿굿', '사진찍기좋아용!(4월 사진임)', '복원된지 크게 오래되지 않아 깨끗한 상태를 그대로 유지하고 있습니다논란이 좀 있는 다리지만 그럼에도 상당히 예쁩니다추울 때 가진 마세요 바람이 많이 셉니다', '야경맛집 너무 추웠지만 좋았던곳 ㅎ', '잊을 수 없는 밤의 야경!! 가족 혹은 연인을 동반하여 인생샷에 도전할것', '야간에 가서 보니 멋져요👍😀그리고 월정교 주변에 다양한 문화재들도 볼 수 있어서 좋은거 같습니다. 월성지구,경주교촌한옥마을, 계림숲, 동궁과 월지, 첨성대 등등 다양합니다👍👍😃', '월정교란 이름은 &lt;삼국사기&gt;에 통일신라 경덕왕 19년 “궁궐 남쪽 문천에 월정교, 춘양교 두 다리를 놓았다.”는 기록을 통해 알려졌다.조선시대에 유실되어 없어진 것을 10여 년간의 조사 및 고증과 복원을 진행해 2018년 4월 모든 복원을 완료했다.2013년 교량복원을 먼저 마치고, 이후 다리 양쪽의 문루(門樓)를 마저 지었다.문루 2층에는 교량의 복원과정을 담은 영상물과 출토 유물을 볼 수 있는 전시관이 있다.낮에는 월정교의 자태를 오롯이 볼 수 있어 좋고, 밤의 월정교는 또 다른 매력으로 우리를 유혹한다.월정교 앞에 설치된 징검다리에서 월정교를 바라보자.\xa0강 위에서 은은하게 빛나는 월정교를 담을 수 있다.\xa0', '정말 기분좋은곳이예요. 첨성대에서도 도보로 안멀어요.', '밤에 방문하니까 아름다웠어요', 'GOAT', '진짜 사진 맛집입니다~물에 비치는 월정교', '야경이 이쁩니다.', '야경맛집', '밤에 너무 예뻐요', '너무 예빴어요 최고였습니다', '다리가 멋있다. 다음엔 야경을 볼까', '야경이 진짜 이뻐요. 꼭 오세요.', '저렴한데 좋은 풍경까지 잘 보고 와써요', '너무추워서 차안에서 봤는데 따뜻할때 다시가고싶은 야경이네요 방문2024/03/01일', '이야 밤 야경너무 이쁘다걷고싶고 담고싶고', '아경 맛집돌다리에서 사진 찍으면 이쁘게 잘 찍혀요', '경상북도 경주시 교동 163-1에 위치하는 통일신라시대의 교량(橋梁)으로, 조선시대에 유실되어 없어진 것을 고증을 거쳐 2018년 4월 복원을 완료하였다. 《삼국사기》에 의하면 통일신라시대 경덕왕 19년(760년)에 지어진 것으로 기록되고 있으며, 경주 월성과 남산을 연결하는 역할을 하였다. 1984년 11월 26일부터 1986년 9월 8일까지 진행된 두 번의 복원 설계를 위한 자료수집과 발굴조사를 통해 나무로 된 다리가 있었음을 처음으로 확인하였고, 2008년부터 2013년까지의 공사로 길이 66.15m, 폭 13m, 높이 6m의 교량 복원이 완료되었다. 2016년 4월부터 시작된 다리 양 끝의 문루(門樓) 2개 동을 건립하는 공사를 진행하여 2018년 4월 준공되었다. 문루(門樓) 2층에는 출토된 유물과 교량의 건축 역사를 보여주는 디지털 전시관을 설치하여 월정교의 역사와 복원 과정 관련 영상도 상영한다. 경주시의 신라 왕경 8대 핵심 유적 복원 정비사업 중에서 첫 번째로 완성된 월정교 복원 사업은 이후 진행될 황룡사, 신라왕궁, 쪽샘지구, 신라방 등의 복원 정비 공사에도 많은 참고가 되고 있다.월래 북측 교대에 사마소가 있었으나, 월정교 복원시에 교촌교 북서측에 이전하였다.원효대사와 요석공주의 사랑의전설이 월정교 하류에 징검다리(사랑교)로 재현하고 있다.', '야경이 진짜 멋진 곳,, 🖤', '야경을 보지 못하고 돌아온 것이 못내 아쉽다. 원형복원이 불가한 건축물이니 고증논란이 다소 있다. 다만 월정교가 현존했더라면 조선시대 단청 없이 삼국시대 양식 그대로였을까? 오사카 시텐노지도 복원 전 건물은 아스카 양식이 아닌 에도시대 양식이었다.', '야경 명소에요. 일몰 후 꼭 들려보세요.', '저녁에 차로 지나가면서 볼만.  걸을 필요는 못느낌', '힘드네요. 좋는곳 보는것..', '진짜 너무 예쁜 경주 !!! 월정교 뷰도 환상이에오 \U0001f979', '밤이 보면 정말 밝고 예쁜 다리 보기 좋음', '야경이 진짜 이뻐오!! 월정교 + 동궁과월지 꼭 다녀오시길!!!', '겨울 월정교는 야경이 멋있어요~ 해질 무렵에 맞춰가면 인생샷 건지기 좋습니다!', '밤에가서 보면 좋은곳', '여자친구랑 갔는데 너무 이쁘고 야경보러 가기엔 좋은것 같아요', '야경이 멋져요!! 황리단길에서 멀지 않아서 걸어서 다닐만 합니다', '야경이 너무 예뻐요', '정말 이쁩니다 주차는 힘들어요', '2023년11월5일 오후8시경 방문주차장 무료였고 야경이 이뻣어요십원빵도 3000냥주고 하나 먹었는데 맛있었음', '아주 좋은', '이쁘다. 그게 끝.. 주차하기 쉽지않고 사람은많고.. 가을인디 추웠음.', '뷰 이쁨.', '무조건 경주가면 야간에가셈!!!!!', '포토존 야경 반영샷', '낮에 보는 것 보다밤에 보는 야경불빛이 남천에 반사돼너무나 환상적인 모습으로 자태를 뽐낸다..', '좋은 추억만들기', '야경명소', '물에 비친 모습이 정말로 아름답다.', '꼭 가야하는 장소 중 한 곳!', '밤에 예뻐요.', '야경이 멋있는 사진 잘 나오는 곳', '야경은 무조건 여기인 거 같아요.강바람이 차가우니까 꼭 걸칠 거 챙겨가세요', '좋습니다', '저녁에 놀기 좋았어요', '밖에서 찍는게 더 이쁜거 같았어요~', '경주여행지 목록중 빼놓을수없는 월정교월정교는 동궁과월지(안압지) 보고 차로 이동하면서 보는게 좋을것같다 풍경사진은 멀리 공원부지에서 찍는게 좋을지도..', '경주 최고 아입니꺼', '너무 예쁘다', '예쁨', '볼건 막 없는데 그냥 이쁜곳..', '예뻐용 월정교는 항상', '멋있어요! 사진이 아주 잘 나와요', '꼭 밤에 가세요. 강아래쪽 돌더리 있는데 건너면서 뷰도 이쁩니다.', '안전작업하시고 매너가 좋으세요항상 안전운전하세요', '야경이 너무 아름다워요', '야간에 가니까 조명을 이쁘게 잘 해놔서 꼭 가는걸 추천드려요!', '야경이 진짜 근사합니다.잠시 들어가기에 좋습니다.', '낮에 다녀왔지만 그래도 좋습니다', '이쁘네요', '경주의 야경스팟', '너무 이쁜 야경^^*', '야경이 너무 예쁨 사진찍기 좋음', '경주가면 꼭 가봐야할 곳', '한번  가볼만한  곳첨성대 가까움걷기 좋음', '꼭 밤에 가야한다!! 야경이 너무 예쁘다 🌃', '이뻐요', '멋진 다리다밤에 봐야 이쁘고 밤10시까지 운영한다고 써 있지만 불은 계속 켜놓는다', '밤에 보면 더 이쁜 월정교예요!경주 황리단길 갔다가 첨성대보구 꽃길 건너서 조금만 걸어오면 나오는데 정말 너무너무 이쁩니다!2층으로 올라가면 월정교의 역사에 대해 영상을 틀어주는데 잠깐 쉬어가는 타임이 될 수 있어서 더 좋더라구요~', '2018년에 복원한 곳이지만 꽤나 가볼만한 곳.', '밤에 가고싶었지만 낮도 너무 이쁘고 시원했네요주차도 편하고 화장실도 새로 만들어 놔서 좋아요', '월정교 사람이 많지 않고 예뻐요~', '우와. 길가다가 야경 너무 이뻐서 구경한곳.돌다리도 낭만있다.', '야경 최고임', '낮에도 가고 밤에도 갔었는데 낮과 밤 모두 아름다운곳~ 밤에는 조명이 예쁘게 밝혀져 있어서 어떻게 찍어도 예쁜사진이 담기는곳.', '230523일 경주여행 무료 입장기간 일주', '낮에 봐도 예쁘고, 저녁에 봐도 예뻐요. 월정교 앞에 있는 돌다리 건너는 것도 재밌었고요. 근데 이 돌다리가 양방향 통행 하기엔 너비도 좁은 편이고, 애들이 건너기엔 간격이 다소 넓어서 위험해 보이더라고요. 아니나 다를까 9살 쯤 돼보이는 여자애 한 명이 건너다 물에 빠졌어요. 그나마 수심이 깊지 않아서 다행이였죠.', '그 당시에 정말 저런 다리가 있었을까 싶을정도로 거대한 목조건축물', '처음 가봤지만 좋았습니다', '포토존', '야경0 경주시내외곽 금성삼거리', '야경너무멋있네요!!', '야경이 정말 예술이다 너무 이쁨', '야경 하나만 보고 가도 충분바로 앞에 있는 돌다리에서 찍으면 이쁘게 찍을 수 있음', '동궁과월지는 안가도 야경 보러 꼭 여기는 오세요. 돌다리에서 찍으면 더더욱 예쁘게 찍을 수 있어요.', '아주아주 좋아요! 월정교까지 걸어가는 길도 산책하기에 아주 좋았어요', '밤에보는 뷰가 너무 좋네요 옆에 주차장도 무려예서 좋습니다', '밤에 사진찍기 좋구 밑에 내려갈 수도 있어서 더더 좋아영입장료는 없구요!', '입장료 없고 야경이 미친듯이 예쁨', '개인적으로 경주에서 간 곳 중 가장 예뻤음. 동궁과월지랑 하나 골라야 한다면 월정교 추천.', '낮에가도 멋진 곳', '사진으로 안 담기는게 아쉬울 따름입니다. 야경이 최고예요.', '조명이 있을 뿐인데 이렇게 아름답다니...', '무료입장인데다 야경명소.', '왜 월정교 월정교하는지 알겠어요…. 진짜 웅장하고 멋지네요. 제가 이걸 돈 안내고 봐도 되나 싶었어요.! 여행 베스트 중 하나! 멋져서 친구들한테 페이스타임하고 난리였네요 ㅎ~', '경주 야경 명소', '필수관광필수', '이뻐요~', '경주 야경하면 월정교 안압지!!', '야경이 최고에요!!', '밤에 보면 최고임', '보면 볼수록 야경이 👍', '너무 이뻐요', '월정교오전에 한번, 저녁에 한번 방문했던 곳오전에 봤을때는 너무 현대식이라 어색했고 다리 끝에 있는 무대 구조물로 인해 별로였지만...저녁즈음 조명에 비친 월정교는 아름다움 그 자체다만 교통정리 및 주차가 좋지 않음', '해질무렵에 가서 야경까지 보면 좋음. 주변 풍경이 어우러져 더욱 아름다움.', '너무 좋음… 주변에 아무것도 없는 게 아쉽', '왜 이리 유명한지 당최...', '야경이 너무 예쁜 곳', '2층에 사고날까봐 열지 않아 볼 거 X복원엉망시원함', '굿~~', '시원하고 아름다움주변에 맛있고 편안한 카페는 없어 미리 간단한 간식거리를 준비해서 가면 좋음느긋하게 노을 및 야경 감상하기 좋음', '좋이요', '밤이되면 확실히 이쁘긴합니다. 한번은 가볼만합니다.관리도 잘되어있습니다.', '역시 경주하면 생각나는 곳 중하나인 월정교겠지요ㅋ야경은 정말멋집니다. 300억?들였다는데 돈값하네요ㅋ', '문 닫고 가서 좀 아쉬웠지만 야경은 멋졌어요. 아침에 보니까 월정교 옆에 해바라기밭이 똬악~~ 너무 좋더라구요 경주여행 추천', '밤에 꼭 와봐야 하는 야경 명소.복원을 정말 잘 해놨습니다.주차공간이 부족하니 차는 갖고 오지말고 대중교통을 이용해 방문하시는 것을 권장!', '통일신라시대에 지어졌던 교량으로, 조선시대에 유실된 것을 2018년 4월 국내 최대 규모의 목조 교량으로 복원하였다... 사진보다 훨씬 예뻐요!!', '교촌마을 공용주차장과 월정교 공용주차장 모두 가깝습니다. 징검다리 건너서 월정교 걸어서 되돌아오면 딱 좋은 코스.', '멋져용', '좋아용', '안동 갈 필요 없음 여기가 경주 최고의 밤야경 스팟동궁과 월지 지금 공사중이라 별로에요', '월정교의 멋짐은 밤에 빛을 발한다첨성대에서 걸어서 왔다갔다 할수있는 거리', '산책하러 가세요:) 야경이예쁘다는데 전 낮에갔어요.. 계림부터해서 최부자집 월정교 뚜벅이 여행코스입니다', '여기 안오면 경주 온거 아님..낮에도 밤에도 넘옙흐네요', '야경을 꼭 봐야하는 곳', '야경 하나는 최고', '야경은 꼭!', '동궁과 월지(안압지)와 더불어 대표적 야간명소이다.물론 낮은 낮대로 멋지며 경주최부자댁이 있는 교촌마을과 함께 구경할수있다. 현재 월정교 공영주차장이 잘조성되어 있는데 아직은 무료로 운영중이다...낮이건 밤이건 꼭한번 들러보세요~', '경주 야경 필수코스', '방문할만 했습니다러시아 사람이면 겨울에 가도 될듯', '세금이 엄청 들어가서 그런지 예쁨', '천년 고도의 위엄과 화려함이 느껴진다.  요석공주와 원효대사, 김유신과 천관의 사랑의 역사가 서린 월정교. 입구의 축대, 색이 다른 석재들, 돌못, 마름모꼴 기초석, 세굴방지목.90% 유물로 지어진 월정교. 반월성 남쪽가에 무지개 다리그림자 거꾸로 운천에 비치었네무지개가 강물을 마시면서 그 허리는 강물에 걸리었네', '웅장', '야경 짱', '야경명소였구나 .. 밤에 가봐야지', '최고.. 못에 비치는 월정교 보면 입이 저절로 벌어짐', '1300년 전 목조다리를 10년동안 복원 공사하여 2018년 3월 완공. 해설사분이 사진도 보여주시며 설명해 주심. 월정교 현판 하나(정자체)는 최치원, 또 하나(흘림체)는 김생의 글씨. 코로나로 인해 2층 전시물 관람은 제한됨. 경주향교 둘러보고, 내물왕릉, 계림과 함께 둘러보길 추천. 남천 징검다리에서 해질녘 바라보는 월정교 최고.', '야경으로 최고.. 현재 주차장은 임시무료', '다리가 정비가 잘 되어있고 해설하시는 분께 부탁하면 상세한 해설을 들을 수 있어요.', '한적하게 유유히 볼 수 있어서 동궁과월지 보다 매우 좋은 마음으로 관람할 수 있어요', '역시 야경 ㅋㅋ 돌다리에서 보면 더 멋져요~', '야경 산책하기 좋다', '저녁에 꼭 가야하는 곳으로 알려져 있지만낮에 시간이 없어서 못 간 게 아쉽다근처에 산책 코스가 있는데 정말 괜찮다 ㅎㅎ월정교만 걷지말고 주변 산책코스도 둘러보세요', '최고최고!!!', '밤이 더 이쁨', '낮에도 이쁨 하지만 밤을 더 추천함', '너무 이쁨... 포토존', '밤에가면 이뻐요', '야경 굿', '비오는날 야경은 진짜 최고입니다교리김밥은 최악이니 가지마세요.', '안오고뭐함', '경주시내에서 거의 유일하게 좋았던곳', '통일신라시대에 축조, 조선시대 유실, 2018년 복원.국내 최대규모의 목조교량으로, 야경이 아름다우나, 2층에서 조망이 가능하도록 창문을 개방하고, 휴게/전시시설 등을 보완해 활용도를 좀 더 높이면 더 좋을듯.인접한 교촌마을도 둘러보고 고즈넉한 한옥에서의 식사도 추천함', '밤에 가세요', '야경이 기가 맥힘', '돌다리에서 보는 야경 장관 예뻐요예뻐 낮에는 카페겸해서 오면 좋을듯 안압지는 사람 너무너무너무 많아서 발길돌려 왔는데 굿초이스', '경주에서 너무 갑자기 모던한 건축물 두둥. 밤이 조명때문에 더 멋있는 것 같다. 매우 한적한 강가에 위치해 있음.', '산책하다가 안내판 보고 가봤는데 야경 진짜 최고네요.', '바람이 안 불어 물결이 잔잔한 날에 가면 비치는 모습이 정말로 아름다워요 월정교 조금 남쪽으로 가면 징검다리에서 정면모습 볼 수 있습니다', '보자마자 예쁘다 소리가 나옴', '일몰 시간 확인하고 해지기 직전에 가서 완전히 해 지고 난 후까지 머물렀음. 안압지보다 훨씬 예쁘다', '동궁과월지 구경 후 택시타고 도착☞월정교 다리건너서 ☞교촌마을통과 ☞ 황리단길 갔어요 ㅋㅋ 예뻐요 월정교 야경굳', '굳이 다리를 건너는건 비추멀리서 보고 사진 찍고 오면 굿', '밤에 걸어서 가는길 너무 무서워요 하지만 그만큼 멋있당', '짧고 굵다.   그냥 이뻐요. 가까이서도 멀리서도', '진짜 최고 꼭 밤에가세요 ♥️', '낮에 봤는데도 최고다 꼭 가세요']</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>경주 양동마을</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>3.5</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>경주시 강동면 양동리 125</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>['돈내고 들어갈정도는 아님이걸 왜돈을받지?', '입장료 받는건 상관없는데 제발 유지 관리 보수좀 해줘요.', '바람 쐐러  가기 좋아요', '현재와는 맞지않지만 유교적 예제, 상하구분 등 그 당시 유교문화가 남아있는 마을', '하루 숙박했는데 운치있고 너무 좋았어요! 관광객들이 없는 시간대여서 그런지 조용하고 마음이편해지는 마을이었어요!', '생각보다 마을 엄청 넓어서 제대로 보면 2~3시간걸림. 근데 좀 이게 세계문화유산등재됐는데 마을 안 곳곳에 식당,찻집,민박집이 섞여있고 사람이 실제로 사는곳은 억지로라도 볏집으로 지붕 올린듯한느낌이 많이 남.', '정주형(?) 한옥마을. 한옥마을 자체가 주는 느낌은 전주나 안동보다 "진짜 한옥마을이구나"싶다. 다만 거주민이 계시는 특성상 한옥의 전체 구조를 살펴볼 수 없음은 아쉬웠으며 입구의 문화재 해설 안내문으로 아쉬움을 달랠 수 밖에 없다. 덧붙여 관련 지자체든 누구든 제발 한옥의 위에서 바라본 모습도 같이 안내해줬으면 좋겠다. 안쪽에 들어갈 수 없기 때문에, ㅡ자 배치, ㄷ자 배치, 독특성 등의 설명이 다소 멀게 느껴졌다.', '고즈넉하고 아름다운 힐링마을♡', '딱히 볼만한건 없어서 아쉬워요', '역사가 깊은 마을 봄, 가을에 걷기 좋음', '양동 민속마을은 조선시대 전통문화와 자연을 고스란히 간직하고 있는 한국 최대 규모의 집성촌으로 월성 손 씨와 여강 이 씨에 의해 형성되었다또한 옛 명문대가의 영광스러운 자취와 선조들의 삶이 배어있는 200년 이상된 고가 54호가 보존되어 있어 조선 중기 이후의 다양하고 특색있는 우리나라 전통가옥 구조를 한눈에 볼 수 있다. 단, 마을을 둘러볼 때는 집안에 살고 있는 분들에게 폐가 되지 않도록 배려하면 더욱 좋을 것이다.', 'ㄷ ㄷ 내가여길 오 ㅐ !  갔지   ..', '230524일 경주여행 중 코스로 넣었는데  입장료를 받으면 관리도 좀 잘하고 마을 동선표시를 잘해서 관광이 쉽도록 개선이 필요함', 'Overrated place, people live there so we basically visit where they live and we pay for that??! plus its so hard to come until there by bus, one every hour or hour and a half, and the horse inside is mistreated. So skinny, almost nothing to eat and drink and he seems to be hurt when he walks. Thats insane. Dont go there', '관리만 좀 더 잘되면 좋을듯합니다..입장권이 좀 비싼게 그렇네요..그래도 한적하고 조용하니 좋네요!!', '고향의정취를 느낄수 있었어요천천히 걸으며..좋습니다^^', "멀리서 보면 '와' 가까이서 보니 '아'향단 건물 들어가니 다 막아서 뭐 볼 것도 없고 다른 주요건물도 주민들이 사는 곳에다 다 구경할 곳 없는 거 마찬가지. 유네스코라고 해도 역사, 학문 자료적으로 가치가 있다는거지 관광지로서의 가치는 여기 방문객분들의 표정과 짧은 동선이 말해주고 있음. 4천원 입장료 낼 가치 없음. 못믿겠지만 거짓말 보태서 건물 8,90프로가 사람사는 곳이라서 아예 구경못함. 터벅터벅 걷다가 동네 차량 비켜주면서 사진 몇 번 찍고나면 아는 만큼 보인다고 '내가 공부를 해서 오면 다르게 보일텐데' 하며 나름 좋은 여행지였다고 애써 지친 마음을 부정해보려는 자신을 발견하게 될 거임.", '입장료4천원 무척 아까움. 심지어 관광책자에 나와있는 곳도 사유지라고 다 막아놓음. 그들만의 마을이라고 하면 될 듯. 세계문화유산 맞나싶다. 예산도 받을텐데...', '돈 4천원이 아까운게 문제가 아니라 관리가 되고 있느냐 안되고 있느냐의 문제가 큽니다  자주 가는 분들은 아시겠지만 문제가 있거나 하자가 있으면 보수하고 관리를 해야하는데 1년전이나 2년전이나 지금이나 똑같음 저녁에는 무료 입장 쪽문으로 무료 입장도 가능 아는분들은 다 알죠?', '놀이공원 입장료는 안 아깝고 유네스코 세계문화유산 입장료 4천원은 아까운 사람들', '흐릴때 갔지만 운치있고 좋았습니다아쉬운 것은 마을에 차량이 많이 다녀서 계속 신경을 써야 해요특히 애들하고 갈때는요', '혼자 203번 버스 타고 갔다왔는데 입장료내고 충분히 볼만합니다', '입장료받는거 저는 반감없어요 그런데 그건 관리를 할때의 이야기 같습니다. 차소리가안난다고 어느분은그러셨는데 차 많고,포크레인으로뭐파고있고, 길에 쓰레기가 보기싫어 제가 주웠으나 나갈때까지 쓰레기통이없어서 들고다녀야했으며 사람이 살지않는 집 일 지라도 적당히 경관을 해치지 않는정도의 청소는 해가며 입장료를 받는것이 마땅할것 같은데요.좋은점은 산책하기 적당하고요 집들도 예뻐서 사진이 잘 나오네요', '주차장 넓게 조성 잘되어있고 입구도 시설잘되어있음...근데 입장료내고 들어간곳 치고는 동네 산책외에 사먹는거 말고는...뭐하나 보려 먼길 걸어 찾아가도 대문만 들어섰다 나오는격~ 실제 생활하는 공간이라해도 개방된곳도 없고 장사하는곳만...정말 입장료내고 산책하고 나오는곳...지금보다 더워지면 최악일듯~ 기대만큼 나올때는 실망이커서 매우 아쉬웠던곳!', '자전거를 이용하셔서 방문하시는 것은 포기하시는것이 좋습니다. 이전에 다른 자전거 운전자들이 마을내에서 난폭운전을 하여 문화재를 파손하고 보행자들을 다치게 하는 사건을 벌인적이 있어서 지금은 문화재 보호와 보행자 안전보호를 위해서 마을내에서의 자전거 운전을 금지하고 있기 때문입니다.', '스탬프 때문에 방문은 했지만넓기만 넓고 볼것도 없다 4,000원관광객 대부분 하는말이 한번 오면 다시는 안오겠다.', '완전 기대이상. 불국사+석굴암(같은날 아침에 방문하고 오후에 여기 옴)보다 덜 알려진것 같은데 개인적으로 훨씬 기억에 남음. 특히 차소리 전혀 안들리는 너어어어무 편안한 그 고요함이 인상적.반드시 해설사 선생님과 함께 투어 하시기를 추천합니다. 해설 1시간쯤 해주시고 이제부터 니들끼리 놀아라 하심. 해설사 쌤이랑 빠빠이하고 나서 한시간쯤은 돌아다니며 사진찍고 풍광즐기기 좋음. 여행 코스로 3시간 쯤 잡으면 넉넉할듯.', '날좋은날 걷기 너무 좋았어요', '볼게 없어요안내판도 제대로 없고 주민들 차량들은 계속 다니고 인상쓰는 주민들....신경 전혀 안쓰는 이상한 곳입니다돈을 왜 받는 것인지? 별 하나도 아깝네요', '입장료 4000원.규모도 정말 크고 예쁜 마을인데,여름에 오기에는 벌레가 너무 많네요ㅠㅠ경주에 있지만 신라시대의 마을이 아닌, 조선시대에 조성된, 유교문화를 품고있는 마을.해설해주시는 시간에 잠깐이라도 설명 들으니 좋네요.', '입장료4천원은 다소 과한듯', '차 많이 다니고차 세게 다니고먼지 날리고열받아서 차길 가운데 길막아버림들어갈수 없는곳 많고애들도 각시도 다시는 안오고 싶다고 함코스 안내도 허술하고딱 남집 담벼락 근처 기웃거리다 온기분이름에 걸맞는 관리 하시길...', '한국에서 한옥마을을 꼽으라면 단연 최고입니다. 개인적으로 전주나 안동보다 더 좋아해요 ㅠㅠ', '고즈넉하이 초가집도보고 한옥 좋네예 1시간 산책하면서 아이스크림먹기에 딱', '입장료 아까움..   기와,초가집   많은데  차도 믾고, 중장비, 외제차  안어울림.출입불가  많음', '혹 이시기에 아이들데리고 방문한다면 좀 고려해보심이~그늘하나없는 뙤약볕입니다관가정을 보러갔으나 공사중이었고 대부분의고택이 문을 닫아서 들어갈수가 없어요~관리가안되고있다는 느낌도 받았구요~그거에비해서 입장료가 좀 비싼것같아요~너무 더운시기에 방문해서인지 좋은기억이 아니네요 시기적으로 잘맞는때가 있나봅니다~~', '언덕들 사이사이 집들이 모여 있는 모습이 위에서 보면 스머프 집들 생각도 나고 멀리 논밭이 보이는 풍경,영화같은 쉼터도 좋았어요.전 5월에 갔지만 가을도 멋질 것 같아요. 다시 가고 싶어요. 3시간 여유잡고 가면 좋겠어요. 주차장 좋아요.', '마을 내에 차도 많이 다니고 별로 볼게 없네여..관람료도 4,000 원...', '저는 차시간만 아니라면 하루종일 마을에 있고싶었어요. 고즈넉하고 운치있고 평온하고... 입장료4천원이 결코 아깝지않았어요. 유네스코지정되고 이제점점 관광객들도 많아지고 그만큼 대규모자본도 들어오겠죠. 개방하면서 동시에 마을도 지키는 방향이 되었으면 좋겠다는 생각을 했습니다. 상업자본으로 돈벌이의 수단이 되버린 다른 역사유적지나 테마파크와는 다른 무언가를 보여준 양동마을. 위로받고 갑니다. 감사합니다!', '초가집과 기와집 실컷보고옴과거로간것만같아서 주막에가서 전이랑 탁주시키고싶던데 주막은없음ㅋㅋㅋ생활공간이라서 마을전체를 구경하고 안쪽에 분위기에 안맞는 매점들만 몇개있음.입장료도 받던데 저략적으로 이런저런것들을 만들어 상품화시키면좋을듯.한복을입는다거나 민속적인걸루다', '기대한 것보다 별로였어요 안내 책자에 나와있는거 보고 찾으려해도 풀이 자라서 갈 수 없는 길도 많았고 길 모양도 다르고.. 제대로 안내가 안돼있더라구요 그리고 책자에 나와있는 집들중에 사람사는 집 아닌데도 개인사유지라고 못 들어가게 잠겨있는 집이 많았어요 길 찾는다고 수풀 사이 헤매다가 다른 곳도 가보고 싶은데 더 깊이 들어가면 고생할까봐 그냥 적당히 돌아나왔네요. 개인적으론 멀리서봐야 예쁜 곳 같아요.', '여기저기 조용히 산책하기 좋은 곳. 이정표가 좀 더 잘 돼있더라면. 사람 사는 집 안들어가게 조심.', '좀 더 일찍 왔으면 좋았을걸...', '경주 한옥마을', '경주..한옥마을..입장료 4,000원세계문화유산으로 등재된 마을...', '쾌청한 날씨에 너무 예뻤던 고택 마을.500년 이상 그대로 모습을 유지하고 있는손씨 이씨의 씨족 마을. 참 예쁘다~']</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>강동워터파크</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>경주시 천군로 95-32</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>[' ']</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>경주문무대왕릉</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>경주시 문무대왕면 봉길리 30-1</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>['문무대왕님과 담소를 나눘어요. 인생조언 감사드려요', '주변환경도 깨끗하고 상인분들도 친절합니다', '굿당 좀 경주시에서 단속 좀 해라 진짜.... 문무왕님 노하실라..', '31번국도 지나가다가 볼 수 있뉸 죠은곳이에여~모두가아시눈 전설의 그 곳!! 이라구 해여 날씨죠을때가야보임!!! 차에서두 걸어두 구냥듀잘보여여 ㅋㅋ', "문무대왕릉의 매력적인 이야기에 그래도 한 번은 가줘야지 하고 들렀습니다.저기 문무대왕의 석관이 있겠다 정도의 짧은 묵념, 그것보다 조금 더 긴 사진 촬영뒷맛이 너무 씁쓸한 건 '방생물고기' 파는 상혼이었습니다.", '한 번 정도는 꼭 가 볼만 한 곳!그럼 두 번은...음~~~ 글쎄 ㅋㅋㅋㅋㅋ', '문무대왕님을 그디어 뵙습니다.대왕암은 자연 바위를 이용하여 만든 것으로 그 안은 동서남북으로 인공수로를 만들었다. 바닷물은 동쪽에서 들어와 서쪽으로 나가게 만들어 항상 잔잔하게 하였다. 수면 아래에는 길이 3.7m, 폭 2.06m의 남북으로 길게 놓인 넓적한 거북모양의 돌이 덮혀 있는데 이 안에 문무왕의 유골이 매장되어 있을 것이라 추측된다.『삼국사기』에 의하면 왕이 죽으면서 불교식 장례에 따라 화장하고 동해에 묻으면 용이 되어 동해로 침입하는 왜구를 막겠다는 유언을 남겼다고 한다. 그의 아들 신문왕은 동해 근처에 감은사를 세워 법당아래 동해를 향한 배수로를 만들어 용이 된 문무왕이 왕래할 수 있도록 설계하였다.', '저 멀리 보이는 문무대왕릉 주변에 방생고기 파는 집이랑 기도원 때문에 풍경을 해친다', '여기가 그 유명한 신문왕의 아버지 문무왕의 왕릉이 맞나?굿하는 무당&amp;사람들, 생활한복 입고 기체조 하고있는 무리..근처 횟집에서는 아예 방생용 물고기를 팔고있다....너무 기괴한 풍경들이 문무대왕릉의 가치를 훼손시키고 있는 듯.', '신라 30대 국왕 문무왕릉', '무당들이 퍼져있고 갈매기 대신 까마귀가 있다.어쩌다 이렇게 변했는지...', '시원하고 좋아요~~ 문무왕 이야기도 너무 좋구요.', '음.... 굿당이 너무 많아서...', '그저 그런 곳.일부러 갈 정도 아님.', '근처에 함께 갈만한 곳이 별로 없어요.', '주전에서부터 이어지는 동해안길 자주가는 코스', '일출보러 가는 장소', '해변주변에  기도방 이라고 무허가 무당천막이 끝도없이  죽 늘어서 있어요.무척 불쾌한 장면입니다.바다를 바라보며 무속인 같은 사람이 징을 끊임 없이 치고  앉아 있습니다.지자체에서 나서서 환경정리를 정말 해야합니다.', '바닷가라서 릉 주변에 갈매기가 많나요.', '언제 가도 좋아요.', '신라의 서른번 째 임금이었던 문무왕의 유골을 장사지낸 곳으로 알려진 곳. 문무왕은 유언으로 죽어서 동해의 용이 되어 외적으로부터 나라를 지키겠다고 남겼다. 국립경주박물관에서 멀지 않은 곳에 있는 능지탑지는 문무왕의 화장이 진행된 곳으로 추정되고 있다. 능지탑지에서 화장을 진행한 후 이곳 문무대왕릉에서 아마도 마지막 장례절차가 진행되었을 것이다. 계룡산과 더불어 우리나라에서 터가 제일 세기로 소문난 곳. 그래서 주변에 당집도 많고 기도를 올리는 모습도 심심찮게 볼 수 있다. 고수레를 기다리는 까마귀와 비둘기, 갈매기가 항시 기다리고 있는 곳.보통 문무대왕릉만 보고 떠나곤 하지만 남쪽 얕은 하구를 건너 만나게 되는 해변은 바람이 잔잔해서 산책하기 좋고 거대한 바위들 덕분에 특별한 사진을 남길수 있는 포인트 이기도 하다. 경주의 해변 중 가장 역사적이고 가장 시간의 흔적을 많이 담고 있는 곳. 신라의 삼국통일을 완수한 임금이지만, 그의 업적보다 동해의 용이 되었다는 전설 덕분에 숭상되고 있는 것을 생각해보면 삶과 죽음이라는 절대적 명제에 대해 생각해보게 된다.', '가슴속이  시원해 지네요물고기 방생도 하고 있네요^^', '1일 새해 일출보러  멀리서 갔는데 구름이 껴서 해도 못보고발길을 돌린곳  하~~ㅜㅜ  혹시 오늘 여기서 해뜨는거 못보신 분들 위로의 좋아요 눌러주세요ㅜ', '정말 웅장합니다 문무대왕님', '오다가다   얻어 걸려서 간곳 그래도   좋았네요', '신비스러운곳', '예아', '명절 연휴에 가서 주차는 복잡했지만 멍때리며 바다보고 앉아 좋은 시간이었습니다.', '바다도 너무 맑고, 문무대왕릉도 멋있는 곳!!', '봉길리 앞바다에 육지로부터 200m쯤 떨어진 바위섬이 하나 있는데, 이곳이 바로 삼국통일을 이룩한 신라 제 30대 문무왕(재위661-681)의 수중릉이다. 둘레 200m의 바위섬에 동서와 남북으로 십자 모양의 물길을 깎은 다음, 가운데 작은 못처럼 파여서 항을 이루고 있으며, 이곳에 깊이 3.6m, 폭 2.85m, 두께 0.9m의 큰돌을 물속 2m 깊이에 놓아 그 밑에 유골을 모신 것으로 추측되고 있다. 단, 화장을 해서 재를 뿌렸느냐 유골을 직접 모셔 놓았느냐에 대해서는 아직 학자들간에 논란이 계속되고 있다.', '동해용왕이되신 문무왕이 독도를 동해바다를 지켜주시기를 기도합니다이 뜨거운 삼복더위 속에서도 자갈해변에 발을벗고 들어가니 그시원한바람과 피도가 별세계로 데려다주네요ㅡ경주여행에서 꼭 들르시길!', '신라시대의 웅장함을 느꼈습니다. 지나가면서 잠시 들리기에 좋을듯 합니다.', '비때문에 해무가 잔뜩껴서 처음엔 안보였는데 조금 지나니 어느정도 밝아져서 볼수있었어요 안개덕분에 더 멋있었던ㅎ', '여기가 맞나 싶을정도로 주변 주차장   시설관련  미흡함', '바다보며 차안에서 있을수 있고 근처 카페에서 보기두 좋다', '일출명소 차박 드라이브코스', "바닷가가 예쁜 것도 아니고, 주변도 좀 너저분해요. 역사적 장소라 '아~ 저게 문무대왕릉이구나' 눈도장이나 한 번 찍고 갈 정도지 또 가고 싶은 곳은 아니였어요.", 'AK HISTORY TV(방문영상)https://youtu.be/CTpqB-Ta01E#봉길대왕암해변#김춘추아들#김유신조카#삼한통일#해변앞암초#진짜로?#과학적증거는?#그냥믿어요#Real Life #Artificial Kernel#Arnold J. Kim#20.7.26', '날이 흐리고 비가 와서 아쉬웠지만 넓은 바다, 일출 보기에는 좋을 것 같다.주차가 무료인게 가장 큰 장점거쳐가는 관광지 정도로는 충분히 좋음', '날씨가 별로이긴했지만 정말 기분 좋은곳이고 마음이 뻥 뚤리는 기분이였어요', '바다가 너무예쁨 주차비도없고 사람도없어서 더좋음', '몽돌이 많다', '한국사를 공부하며 꼭 가보고 싶었던 장소. 굿소리와 향 피우는 냄새 때문에 조용한 감상은 어렵지만 그럼에도 마음이 차오름을 느낄 수 있었습니다. 경주여행 중 잠깐 들리시는 걸 추천합니다.', '바다 위 무덤은 가서 볼수도 없고 작은 해변은 장사하고 고사지내는 가게들과 갈매기만 많고 그닥이네요.', '리뷰가 별로라 가지말까 하다가 남편이 가보고 싶대서 들렸는데 생각보다 바다랑 날씨가 너무 좋아서 잘 보고 왔어요 그냥 잠시 들렸다가 가세요^__^힐링', '해변이 좀 지저분 그 외 괜찮', '온통 까마귀밭입니다', '일출보러 예전에 갔었는데 지금은 좀 달라졌겠네요.', '해안가 점유한 무질서한 시설들 정리와 전망대 시설 설치 등 해야할 일이 많은듯합니다.. 안타깝네요..', '따봉', '나라를 지켜 주심에 감사하는 마음으로…', '문화재라서 힘들겠지만가까이 가서 내려 볼수 있는길과 전망대를 만들었으면..', '표시판 없음 그냥 지나칠것같음...그냥 해수욕장 분위기~', '좋네요', '삼국통일후 문무왕이 사후 용이되어 나라를 지키고자 유골을 묻은 대왕암', '조용하고 한적하다 꼭 가야 할 곳이라면 애매한데 중간에 들릴 수 있다면 추천', '경이로운 전경입니다.', '오래 전에 오고 재방문했는데 그대로네요. 세월이 흐르고 나이가 들어가니 대왕암만 바다 한가운데 있는 것도 새삼 신기하네요. 주변에 여전히 굿과 기도하는 분들도 있습니다.', '동해의 청룡이 된 아버지를 위해 아들이 만든 감은사와 이견대도 가보세요', '자갈 모래가 쓸려나가서 아쉽지만 ..', '릉 바로 정면은 무당?들이 많아서 의식 같은 걸 하는 소리가 여기저기서 들리니 좀 신경이 쓰입니다..', '수중릉이라니...죽어서도 용이 되어 나라를 지키고 싶다?참신하네요.', '역사적장소', '감은사지에서 얼마 안되는 거리지만, 버스 타셔야 합니다. 보행로를 안해놔서 자전거나 걸어서는 못가요. 그냥 이견대 가서 보는것도 좋습니다. 별거 없음. 참고로 감은사지가 훨씬 볼만함.', '가볼수가 없어요  멀리서 봐야합니다', '내가 죽으면 화장하여동해에 장례하라.\u200b그러면 죽어서라도동해의 호국룡이 되어신라를 보호하리라!!!\u200b- 삼국통일의 위업을 완성한신라 30대 문무대왕 -역사적 장소이기도 하지만,경주여행을 가신다면일정잡아 꼭 들려도 좋은 곳입니다.', '기대 이상. 너무 예쁘고 아름다운 곳, 안들렀으면 후회할 뻔 했음 !', '꼭..꼭 가보세요', '신입사원 연수.', '바다가 참 좋군요.', 'ℹ 사적 제 158호. 신라 제 30대 문무왕의 수중릉.ℹ 해변에서 200m 떨어진 바다에 위치. 삼국을 통일한 왕으로 죽어서 호국용이 되겠다고 유언. 화장한 유골을 동해 큰 바위에 장사 지냈다고 한다.✌ 봉길리 해수욕장 옆에 위치. 해수욕장도 그닥 별로 인듯하고 왕릉 또한 바다 위에 돌 몇개 있는 수준.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>전촌용굴</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>경주시 감포읍 장진길 39</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>['너무너무 예쁘긴 하나 주차를 하고 걸어서 10분 정도 들어가야 나오는 곳에 위치해있어 이 무더운 날 가기엔 조금 힘들긴 했습니다 하지만 그만큼의 가치가 있을 정도로 예쁘고 물도 시원하더라구요사진 찍으실 땐 돌 위에 올라가기 위해 바닷물을 지나가야해서 샌들 혹은 닦으실 타올을 구비해서 오시는 것이 좋을 것 같아요저는 낮에 방문했으나 해질녘쯤에도 예쁠 것 같네요!', '해수욕장에서 멀지 않고 뷰가 좋아 사진 남기기 좋음', '해안길도 정겹고 시원하고 좋습니다.길도 잘 정리되어 있어 누구나 갈수 있어요', '굉장히 멋있고 가는 길이 잘 되어있습니다. 계단이 많고 오르락 내리락 해야해서 무릎 안 좋으신 분들은 힘드실 수 있으나 길 자체는 잘 닦여있고 위험하지 않습니다.', '음 .. 괜찮네요 ~', '사진 맛집 명소입니다', '계속 가세요 그길이 맞습니다.. 첫 이정표가 없어서 아닌거 같아도 쭈욱 한길로 가시면 됩니다.', '경주의 숨겨진 포토스팟. 뚜벅이 여행자 분들은 감포행 버스 100, 100-1, 700번 버스를 이용해서 갈 수 있습니다. 700번의 경우 배차간격이 길어 3~40분 간격인 100번을 추천드립니다. 전촌교 정류장에서 하차해 전촌항을 지나 약 20분 이동하면 용굴을 만날 수 있어요. 사룡굴과 단용굴 두 곳이 있는데 단용굴은 파도가 높거나 밀물때는 접근이 어렵습니다. 미리 물때표를 확인하시길! 일출 명소지만 12달 용굴 안으로 해가 뜨는 걸 볼 수 있는 건 아니고 보통 11월~3월 겨울 시즌에 동굴 안으로 떠오르는 해를 찍을 수 있습니다. 하지만 꼭 일출 뿐만 아니라 맑은 하늘이라면 예쁜 사진을 찍을 수 있는 곳이니 추천합니다. 용굴을 보시고 왔던길로 되돌아가는 것이 아닌 전촌마을로 이동하시는 걸 추천합니다. 시간이 넉넉하다면 감포항까지 둘러보시길!', '나무 향기가 좋고 바다뷰가 멋진 산책로', '포토존 산책로 👍👍', '역시나 멋있더라구여!!노을지는 시간에 갔는데 반했습니다!!', '걷기 싫으신분들은 가시지 않는게 좋음.. 인생샷 찍기엔 물에젖거나 돌 넘어가기가 위험해서 포기..', '사룡굴 단용굴이 있는데 사룡굴은 그냥 가면 되는데 단용굴은 길이 어딘지 모르고 인터넷검색해보니 바위를 넘어가라 혹은 바닷물에 들어가서 건너가라고 되어있어서 단용굴에는 못갔어요굴은 이쁜데 날씨 좋을때 와야 바다색도 이쁘고 그럴거 같아요그 주변에 걷는 길은 바다를 끼고 걸어서 아주 아름답습니다인터넷 검색 시에 밤에가면 별이 보인다 그러던데 밤에 가도 되는건지 궁금하네요일출명소라고 하는거 보면 새벽에 가나본데', '명소다 명소야여기 가는 길이 너무 빡셉니다ㅋㅋㅋㅋ더운 여름엔 죽어나요단디 맘 먹고 가야해요근데 가면 날 좋을 때는 예뻐요\U0001fae0', '여기 너무좋아요', '일출명소 좋아요%~', '아주 작은 해식동굴작은 오름 오르는 정도의 산책길을 걸어가야하기에 너무 어린 아이나 거동이 불편한 노인은 주의 필요바람 안부는 날에 가는 것을 추천비오고 바람불면 파도 때문에 제대로 사진 찍겠다 하면 신발 젖을 각오해야함', '일출명소', '가는길이 좀 위험합니다', '와 ~우 ~~~', '숨겨진 곳.아름답다.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>주상절리조망타워</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>경주시 양남면 동해안로 498-13</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>['주차공간 급히 협소하고 입구도 차 1대 지나갈 정도.하서항 쪽에 주차하고 주상절리보면서,전망대까지 걸어왔다 되돌아가시는걸 추천아님, 전망대 인근에 주차하고 전망대까지 걸어가시길주차면 총4면(장애인 주차공간1면 포함)', '18시까지면입장마감이17시30분아닌가요??17시20분도안되서입장마감이라니,,,왔던사람들아무도못들어가고그냥가네요자기들맘대로운영하네요', '주상절리를 바라보다Look at a columnar joint천연기념물 제536호 경주 양남 주상절리군경주시 양남 주상절리군은 경주시 양남면 읍천리와 하서리 사이에 형성된 주상절리들로 규모 및 형태의 다양성을 인정받아 2012년 9월 25일 천연기념물 제536호로 지정되었다. 이곳의 대표적인 특징은 다음과 같다. ‣ 주로한 형태로만 이루어진 타 지역의 주상절리 명소들과 달리 1km의 짧은 해안길에 부채꼴 형, 위로 솟은 형, 기울어진 형, 누운 형 등 다양한 형태의 주상절리들이 군집한다. ‣ 세계적으로도 드문 둥글게 펼쳐진 부채꼴 형 주상절리가 발달해 있어 희소성과 심미성을 지 고있다. 경주 양남 주상절리군은 신생대 제3기(약 2,600만~700만년 전)에 한반도와 붙어 있던 일본이 잡아당기는 힘에 의해 떨어져 나가면서 동해가 형성되었을 때 만들어진 것으로 추정되고 있다. 이때 잡아당기는 힘이 경주 양남 주상절리군 일대에도 영향을 미쳐 땅이 벌어지게 되었는데, 이 틈으로 땅 속 깊은 곳에 있던 용암이 솟아나오게 되었다. 이 곳의 현무암들은 이 때 솟아난 용암이 식어서 만들어진 것이다. 이처럼 경주 양남 주상절리군은 주상절리가 지닌 다양성.희소성 뿐 아니라, 동해가 만들어질 당시 환경을 엿볼 수 있게 한다는 점에서 국제적으로 중요한 지질학적 가치를 가지고 있다.몽골의 친구들과 같이 왔었는데, 몽골에는 바다가없어서 너무 좋아  했습니다. 2024.08.', '바다 위의 절벽이라면 어떤 생각이 드시나요?직접 와 보세요.', '무료 입장에 전망도 잘 볼수있게 되어있어서 강추!', '그냥 그랬다. 바닷가 풍경이 멋있을 줄 알았는데, 조망대 올라가서 본게 그게 다다. 바닷가를 따라서 산책로가 있긴한데 좀 무서웠다. 그냥 조망대 한번 올라갔다가 근처에 까페가 많으니 앉아있다 가는 걸 추천함.', '높은곳에서 주상절리 볼수 있어서 좋았어요지루하지 않게 1층 영상관도 좋았고 사진전도 재밌었어요', '날씨좋을 때 가면 뷰 좋음. 무료이나 주차 공간 몇 대 없어 카페에서 커피사고 주차장 이용해야 함.', '꼭 들러봐야하는 곳', '잘 해 놓았습니다. 주상절리 보기에 좋습니다.', '일출명소', '드라마 촬엉장소이고 주변 들레길 있어서 추천드려요', '요즘은 예전에 비해 관광객 유치를 위해 잘해 놨더군요', '바닷가의 주상절리신비롭습니다주차는 최악 근처 카페들이 즐비하니 카페에 주차하고 가심이...', '제주도보다는 작지만 보기좋은 경치와 부채꼴 주상절리 등은 기대 이상이었습니다. 근처에 가셨다면 가보실만 합니다.', '하서항부터 시작해서 망했..', '다 좋은데 주차공간 너무 협소', '멋지네요... 이런 곳 많이 방문하셔야 활성화되고 좋을 것 같아요. 산책하고 바로 올라가 감상했는데, 신비롭습니다.', '잠시 경치보러 갈 만합니다.', '신기하고 좋지만.. 접근성도 그렇고.. 굳이 타워 밖에서 보지 않아도 될 것 같아요 주상절리를 꼭 봐야 할 이유는 없어 보이네요', '경치가 아주 좋아요', '경치가 아주 기대이상이 었어요', '특별한것도 나쁜것도 없는데 에어컨은 죽이게 빵빵하네요 사람이 엄청 많아요', '꼭 들러보세요!', '부채꼴 주상절리를 가장 잘 볼 수 있는 곳. 가볍게 들러서 잠깐 보고 가기 좋네요', '괜찮았어요']</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>경주동궁원</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>경주시 보문로 74-14 1층</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>['온실 굿~ 어린이들 위주로 체험 프로그램이 있어서 가족이 가기 좋을듯', '보문단지 입구에 있는 사계절 푸르름을 품은 동화속 유리궁전 경주동궁원 입니다 경주동궁원 Gyeongju East Palace Garden 하늘처럼 새처럼. 경주버드파크 Bird Park', '버드파크까지 2시간 반 코스4천원이라 동궁원은 가볼만 함', '앵무 앵무 앵무~~~ 새 애기들 이쁘고 활달해요. 버드파크 좁쌀이랑 해바라기씨랑 17,000원어치 먹이고 옴.', '생각보다 볼게 많아서 좋았습니다 식물원보다는 버드파크가 훨씬 값진 경험이였네요', '봏아뇨', '조용하고 겨울에 식물들 볼 수 있어서 좋았어요관람시간 30분~40분정도', '어머니와 이모가 엄청 좋아하셨습니다. 평소에 잘 볼 수 없는 새들과 동물들을 볼 수 있어 좋았습니다. 남녀노소 모두가 즐기기 좋은 장소 입니다.', '네이버 예약하면 입장료 4천원!! 겨울에도 따땃해요. 신기한 나무도 많고 볼것도 많고 가족들이랑 힐링했어요. 🌴🌴 주변에 맛집도 많아서 나들이하기 딱입니다', '5천원 내고 입장했는데 다소 아쉬움이 있습니다.', '식물원 간다고 생각하면 한번 방문해볼만 해요 근데 좀 시설들이 다들 노후된 느낌이 있어요..ㅎㅎ', '겨울에도 안이 더워서 외투 벗어야 함평일에 갔는데 식물들 물주고 있어서 옷에 물이 튐 관람하는 입장에서는 불편했음천천히 여유를 가지고 둘러보면 볼만함', '한번정도는 가볼만 하내요.식물 좋아하시면 괜찮습니다.', '가족끼리 특히 어린이 동반하면 좋을 장소. 새도 있고 나무도 있고. 혼자, 성인이라면 조류학과 학생 아닌 이상 굳이? 그 시간에 호수를 돌며 자연을 누리자.', '버드파크와동구원이 서로 별도 요금받는게 이해가 안되네요 통합이 좋을듯', '기대안하고 갔는데 만족스러웠습니다.', '귀엽게 잘 꾸며져 있었고 다양한 구경거리도 많았습니다!!초록 초록하게 눈이 즐거웠어용 ㅎㅎ', '사람이 평일에도 워낙 많아서 어두워지기전에 명당자리로 가야합니다', '내부 시설이 너무 덥지만특이한 식물들이 정말 많아서 좋았어요음악분수는 정해진 시간이 있어서 못보실 수도 있습니다 봄가을겨울 추천합니다 여름은 너무 힘들어요.....', '어떤 ♪♩♩새키가 금붕어  애무새 옆에. 쥐넣어나노', '식물 좋아하는 사람으로서 참을 수 없어 가게 됐습니다여름에 가면 더 덥고 시원한 냉방시설이 없어 여름에 가는 것은 비추천드립니다.식물원 안에 들어가면 3천원? 정도 주고 안내 책자를 살 수 있는데 책자를 사고 곳곳에 있는 도장을 다 찍으면 사은품을 줍니다. 소소한 재미이지요.식물원 내부가 넓고 관리가 잘 되어있어 한여름임에도 불구하고 벌레에 물린 적은 없습니다. 평소에 볼 수 있는 식물 뿐만 아니라 여러가지 식물과 독특한 식물이 있어 아이들이나 혼자 구경하기 좋습니다.', "Not bad if you avoid summer. I visited here 6/17 and it was extremely hot in GyungJyu. This place is supposed to be warm or hot for the plants, and it was horrible inside when my family visited. The only place that AC turned on was the cafe at the entrance, and staff didn't allow us to stay at the cafe unless ordering drinks. Stay away from this place during summer. Probably warm and cozy during winter for sure though.", '시설 잘 되어 있음', '멍때리고 식물구경하기 넘 조아요.. 입장권도 인터넷에서 미리 사면 저렴함', '식물원이 넓고 뭔가 제주도에 온 느낌?이 들고 포토존으로도 강추입니다. 그러고 식물원 관람 끝나면 앞에 음악분수쇼도 해서 좋았습니다.', '온실은 볼만했음. 근데 조금 수종이 적은느낌. 본관이랑 2관의 수종이 거의 비슷하거나 겹침.규모를 더 키우고 수종이 더 많았으면 좋겠음. 여름철에는 좀 더울수있음.수종이름표가 애매하게 꼽혀있어서 뭘 말하는지 헷갈림.꽃종류가 많았으면 좋겠음.', '음악분수 멋있어요. 식물원은 가격에 비해 볼게 없는 느낌....? 너무 더워요', '얫지명이 안압지로유명했었지요4년만에 다시찾아간곳인데 명칭을 동궁과월지로 바뀌었다고합니다왜 바뀌었는지는 다음에 방문하면 여쭈어봐야겠네요야경이 참으로 아름다운 경주의 관광지입니다', '너무 이뻐요 데이트하기 좋았우ㅠㅁ', '식물원 5000에 바나나나무 짱 큰거 봐서 좋았어요 아쉬운 건 식물이름표가 어떤 식물에 붙은 건지 헷갈리게 꽂혀있어서 설명이 흥미로워도 어떤식물 말하는건지 알수없어여. 개선있길 바랍니다', '규모가 좀 작습니다! 주요 관광지와 거리가 좀 있어서 굳이 와야할까 싶네요', '버드파크에서 까마귀 소리냈음 ㅋㅋㅋ', '입장료 5000원 ( 네이버 예매시 4000원 )식물원만 봤는데 웅장한 건물 외관과 달리 특별히 볼 게 없었음..  주제별로 구성을 한 것도 아니고 그냥 조밀조밀 밀집되어 있는 느낌이었고 초록식물들만 보이니 심심한 느낌.. 관람자체는 30분 안 걸림 ㅠㅠ 입장료가 싼 편이라 이해는 된다. 그래도 거대한 열대식물은 좀 멋있었음매 정각마다 20분 정도 하는 음악분수까지 봐야 입장료 안 아까움 (근데 음악분수도 처음엔 멋있는데 노래가 바뀌어도 구성은 비슷해서 중간에 나왔다)', '볼만함. 여름에 가서 더워 죽을뻔 함', '정말 잘 만들어진곳...기대이상으로 좋았음...개인차는 있겠지만 식물원 좋아하고 사진찍기 좋아하는 사람들이라면 만족할거에요~', '식물원과 버드파크 두개로 나뉘어져있다.식물원 입장권을 끊어야 버드파크도 입장할수 있는줄 알았는데 식물원 따로 버드파크 따로 입장권 끊을수 있는거 같다.식물원은 규모도 세종식물원에 비해 작고 그저그런 편이었다. 버드파크만 구경해도 구경거리가 많고 규모가 크기때문에 식물원은 패스하고 버드파크만 구경해도 충분. 버드파크 별다섯개. 식물원 별3개.', '저녁 7시까지로 되어있어서 6시3분에왔는데6시까지 표끊어야만 입장할수있다고해서못보고 허탕쳤습니다..', '동물들 귀엽다', '가격은 비싸지만 그만큼 동물들 관리를 잘해주시는 느낌을 받았다. 재밌었다', '6시 이후 야간개장 무료는 그냥 체크인 할만함식물원은 안가봣음', '버드파크 좋아요!! 먹이주기 체험도 있고, 좀 비싸긴하지만 한번쯤 갈만하네요~ 동궁원은 정말 잘꾸며놔서 또 가고싶어요!!', '꽃 보러 가시는거면 실망ㅜ사진 찍으러 간다면 나름 추천?', '비오고 갈데없어서 시간떼우러간거였는데 의외로 대만족..산책하기도좋고 중간에쉬기도좋고 식물원너무잘돼있어서 좋았어요', '비가와서 동궁원갔는데 좋았어요~열대식물들이 주로 있어서 신기한 식물도 많고관리도 잘되어있고 종류도 많아서 잘봤어요.야외 음악분수도 시원하니 좋았어요^^', '어른들이 보러가기엔,,좀 무난합니다가족단위로 오면 좋을것같아요!', '식물원 예쁨', '버드 파크만 볼만함', '4.0', '난 좋았는데 버드파크도 여기도']</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>캘리포니아비치</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>경주시 보문로 544</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>['파도풀이 약해서 8세 딸아이놀기좋음엑티비티한건 키작아서 못놀았지만 어린이들 놀만한거많아서 괜춘딸아이 완전좋아함 또오고싶다고함', '너무좋아요 ㅎㅎ 매년 여름만되면 꼭생각나는곳입니다!', '끝물이여서 그런가 사람들도 많이 없고 재미있게 놀다가 가네요.워터파크 이용후 경주월도 싼 가격에 이용 가능하고 다 좋아요', '아이들과 너무 재미잇게 놀고왔어요키 120 넘으니 거의 다탈수있어서  좋았어요', '굿 좋아요깨꿋하고 흐아아아아 재미지게 놀다 갑니다.', '미리 예매하니 빠르게 입장도 가능했어요9시 오픈이라고 착각하고 와서 한시간 기다리긴 했지만 주차도 편히 하고 좋았네요', '방학되자말자 날잡아 갔지만..종일권을 끊코도 오후권 직전에ㅠ.ㅠ늦게 도착하는 바람에..(주차장까지 넘 멀었지만~^^;)셔틀버스가 쉬지 않고 와주었고요 ..마침 사이버거 (이미테이션?사이)공연으로 아들과 정말 즐거운 시간이 추가됬으며..신천 할매 떡볶이 매장뿐만 아니라 닭꼬치에 맥주에..콜팝 등등 먹거리가 너무나도 풍부하고 곳곳에 푸드 트럭이 많아서 좋았어요~♡♡아참~!!입구에 👙 수영복등 용품 판매점도 좋은제품을 세일까지 해줘서 감사했어요~^^;', '오픈런하고 진짜 입장하자마자 코인충전하고 구명조끼 썬베드까지 빌리고 짐 썬베드에 던져놓고 바로 엑스로 향했는데ㅋㅋㅋㅋㅋㅋㅋ30분만에 엑스랑 와이프아웃 클리어함ㅋㅋㅋㅋㅋ아웃까지 다타고 내려오니깐 그제서야 대기 90분걸려있어씀ㅋㅋㅋㅋㅋㅋ줄 운빨이 너무좋았어요ㅋㅋㅋㅋㅋ모든 놀이기구 대기줄이 20분안에 다끝나서 생각했던거보다ㅋㅋ너무일찍끝나버림ㅋㅋㅋㅋ', '싸이버거 그리고 날씨가 다했다', '단점은 물놀이 하고 나가서 씻으러 가면 사람들이 많아서 샤워할 때 줄을 서야 해요또 재밌는 슬라이드도 있는데요*추천*그랜드캐년, 후룸라이드(급류 타기)이런것들은 오후 4시까지만 해요캘리포니아 비치는 6시까지만 하고 경주월드는 8시까지 해요!', '놀기좋고 즐거웠습니다단지  락카룸 공간이  좁아 불편핬습니다', '캘리포니아소울 캘리포니아서울 캘리포니아비치 산타모니카비치', '오랜만에 가족들과 캘리포니아비치를 찾았다. 캘리포니아비치를 간건 진짜 오래 전이었는데. 시설도 많이 개선되었고 편의시설도 좋았다. 특히 2시 싸이버거 공연도 너무 좋았다^^', '부대시설 및 아이들과 함께 오기 좋은 .매년 여름 시즌만 되면 아이들이 먼저 가자고 해서 매년 하이시즌 골든시즌 이렇게 두번씩 예약함.올해도 하이, 골든시즌 이렇게 두번씩 오게됨', '놀이동산과 캘리포니아비치 두군데 다 이용하엿어요 아이와함께 하기 좋았어요 아이들이 타는 청룡열차가 없어져서 아쉬웟지만 오픈런하여 오전에 놀이동산이용후 물놀이까지 하고 왓는데 물놀이도 아이들이 놀수잇어서 좋앗습니다 저희가물놀이 갓을때는 줄이 많이길지않아 아이가 신나게 놀고 왓습니다~~  1시공연도 아이가 너무 좋아햇어요 싸이버거님이 신나게 해주셔서 재미 잇엇습니당~~^^', '첫 방문이였는데 가족모두 즐거운 시간이였어요저럼하게 잘 다녀왔습니다', '역시 여름에는 물놀이', '극성수기철이라 물반 사람반 당연히 놀이시설은 기본30분이상 대기줄파도풀이나 일반놀이터에서 노세요', '라커룸에 신발이 없어졌습니다.', '가족들과 함께 가기엔 가장가성비좋은 워터파크인듯합니다  음식가격도 타 워터파크에비해합리적입니다', '좋아요  굿굿굿 추천요 고고', '아기들이  이때까지 놀러간곳중  최고라며  집에가기 실어해서 겨우달래서 왔어요 다음에  또가자고  약속하고,', '김해보다 여기가 더 좋아요.', '매년 방문하지만 너무 좋습니다.가까운곳에 워터파크를 저렴히 갈수있어 좋아용', '공주랑 같이 넘 재미있게 잘 놀다왔어요 내년 또 와야지요^^', '좋아요 사람이 많아도 놀 포인트가  많아 여러곳에서 신나게 놀수 있어요', '항상 가지만 애들이랑 같이가기 좋아요', '행사가격으로  4인가족  저렴하게 잘 다녀왓어요  또또또  이런행사  원해요 ㅎㅎ', '아들 생일을 맞이하여 가족들과 즐거운 시간을 보내고 왔어요.', '아이들이 놀기에 좋고 방송 자주자주 잘해줍니다', '사람이 그렇게 많지 않아서 잘 놀고왔어요. 유수풀이 대기해야하고 한 번에 한 번만 돌 수 있어서 처음엔 뭐야?했는데 파도가 쎄서 재밌었어요. 파도풀 파도가 약한건 아쉬웠어요', '재미도있고  싸게 잘구매해서 놀다갑니다~', '할인도 많이 되고 좋습니다', '주차 무료셔틀 버스 이용하세요주차비 무료', '시즌초라 물도 깨끗하고 사람도 별로 없어서 잘 놀다가 갑니당☺️☺️', '꿀잼이에용 또놀고싶네요 ㅎㅎ', '결코 싸지도 않고, 파도풀에서 모자없이는 이용하지 못한다는것은 전세계에서 이곳 밖에 없을듯,다시 나가서 수영모 사와야함 싸지도않음 . 각종 슬라이드 기구도 조끼 탈의 해야 탈 수 있다고 번거롭게해서 조금 이라도 덜타게함 인원제한안해서 콩나물시루 몇년연속 갔는데 변하는게 없음', '재미있게 잘 놀고갑니다', 'good', '2023년 여름 시즌 폐장하기 마지막 오픈날에 너무 재밌게 잘 놀았습니다.', '너무 재미있게. 잘 놀다 갑니다 또가고싶어요', '오후권 입장하면 부지런히 줄서야 액티브한 놀이기구 한번씩 탈 수 있어요 다음날 경주월드 오후권1만원이니까 경주월드도 가보는걸 추천합니다 캐비치이용하면 일반오후권보다 빨리들어가요 스나미 줄 길어도 재밌으니까 꼭 타보세요', "Bring your own life vest and hat - you'll save 26,000 won 😉", '사람이 너무 많네요', '어제 갔는데 물반 사람반임 대기 기본 90분', '워터파크인데 놀이기구가 한정적이고 그렇게 재밌지도 않음그냥 아이데리고 가는곳 수준?', '실내풀 없음. 크기 작음. 쉴 수 있는 찜질방 같은 휴게 공간 없음. 어린이나 할머니할아버지와 같이 가면 안될것 같아요.', '가성비 좋은 워터 파크 입니다유수풀 파도도 꽤 쌔서 재미있었어요 다수이용 놀이기구는 꽤 줄이 길고 개인은 널널합니다', '성수기라 그런지 사람너무많음.. 파도풀 너무 잔잔하고 시시해서 실망. 슬라이드만 실컷 타고왔음', '유수풀 오래 기다려서 겨우 한바퀴....ㅠㅠ 너무 짧아요 기다리지 않고는 할 수 있는게 파도풀 뿐인데 파도풀도 작아서 사람이 많네요 샤워실이 좀 깨끗하지 않은 것 같아 아쉽..!', '와우 놀이기구 엄청 재미있었어요! 근데 음식값은 좀 비싸요', '평일에 방문했는데 유수풀 한바퀴밖에 못돌고 나오게하고..유수풀도 1시간기다리고 탑승. 놀이기구 기본 1시간대기..파도풀도 노잼! 놀이기구도 전체적으로 정말 재미없다...여태가본 워터파크중에 제일별로', '탈것도 많았고 시설도 많았지만 문제는 조끼를 차라리 입장료낼때 포함해서 지불하면 타는사람입장에서도 좋을텐데 조끼 안빌리면 수영 할줄 알아도 못 탄다 하더라고요...  조끼 빌리러 가느라 시간낭비한게 아쉽네요. 하지만 탈것들이 다른게 많아서 즐거웠습니다. 아 근데 Wave Canyon 진짜 뭔가 해서 탔는데 절대 타지 마세요 물흐름도 약해서 걍 걸어서 나가야 합니다. 걍 구명조끼 입고 파도타기 하면서 멍때리기 하면 힐링 최고입니다.', 'very good place', '2021.8.29 huling hirit sa waterpark ngaung tag init..^^', '발바닥 녹아 내리는줄..', '유스풀이 정말 재밌었어요', '바닥 개뜨거움 진짜로ㅋㅋㅋ 아쿠아슈즈 필수예요 ㅋㅋㅋ 바닥 온도 미쳤음 ㄹㅇ..음 그리고 지방 워터파크만의 그런 촌스러운? 응팔스러운? 느낌이 나름 좋았어요ㅎㅎ 내년 여름에 핫딜 올라온다면 또 가려고요~', '장점대기가 적어 기다리지 않고 금방 탑승 가능음식값이 다른 곳에 비해 합리적인 느낌이용 시 경주월드 big5 이용 가능단점놀이기구가 너무 적음탈의실이 청결하게 관리되는 것 같지 않음', '준성수기지만 사람많은건 그렇지만 그래도2~4인용 놀이기구빼고는 대기시간은 많지않습니다(다만 주말에는 모르죠) 근데 놀이기구가 적다는건흠 좀 무;; (결정적으로 아이를위한 놀이시설은 많이없네요ㅎ)']</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>경주루지월드</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>경주시 천북남로 16</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>[' ']</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>화랑의언덕</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>3.6</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>경주시 산내면 수의길 601</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>['입장료 2천원받기시작했네요.. 그 드넓던 언덕에 파카연습장 생기면서 모든뷰를 망쳐놓았는데...입장료???... 자본주의가 자연을 망쳐놓은걸 보고왔네요..ㅠㅠ 이런뷰 보려고 경주시내에서 40분걸려 갈 의미는 없을듯ㅠㅠ', '뷰 좋아요바람의 언덕이 더 맞을듯요', '예전의 그곳이 아니네요파크골프장으로 변해서 뷰도 엉망진창이고동물들 물도 없네요입장료가 아까워요다신 안 올 것 같아요', '#좋은추억만들기', '경주에 이런 명소가 있는걸 처음 알았습니다. 산책로도 잘 되어있고 경치가 정말 좋습니다. 하지만 여기까지 올라오는 길이 좀 힘드네요. 양이랑 말들 먹이주는 곳도 있고 가족들과 함께 여행하기 좋은 곳입니다. ^^', '입장료 받으시면서 도로 좀 포장 했으면 하네요동물들  물도 좀 주고요 관리가 너무 안되네요   사람들 오는거 비해 전체적으로 관리가 안되는것 같아요  두번다시는  안올것 같음', '애견동반 가능하다기에 강아지들 데리고 다녀왔다가 진드기 잔뜩 붙여왔어요.. 애견 입장료 받으시면 이에 대한 관리는 어느정도 해주셔야 하는거 아닌가 싶네요... 첨엔 애들 털이 길어서 몰랐다가 이틀째 발견하고 결국 강아지들 털 박박밀고 병원다녀왔습니다ㅠ 이미 아시는 분들은 진드기 유명하다고 아시더라고요.. 견주분들 애견동반 방문 절대 추천드리지 않습니다!', '뷰, 사진 최고~ 다른건 볼거없음!아침에 방문했는데 안개가 넘 예뻤어요', '화랑의 언덕이 뷰 맛집 이라는 소식듣고 그냥 찾아간 곳인데날씨도 선선하게 바람도 많이불고 좋았어요그냥 확 트인 풍경 자체가 좋았어요', '오랫만에 가보니 가관임. 탁 트인 전경과 하늘이 예술이던 언덕은 곳곳이 울타리 쳐진 파크골프장으로 변해 있고 열심히 치는 어르신들의 놀이터~~ 이곳의 테마는 뭘까? 어이 주인양반! 입장료를 처 받아 먹으면 주자창 가는 길 비포장 신작로 정리 좀 해라!가마니 나  파쇄석을 깔던 울퉁불퉁 차 쇼바 다 나가것따!  이젠 구태여 시간낭비 하며 갈일은 없을듯', '날이 흐려서 방문전에 입장가능하냐 전화했을땐 된다고 하셔서 갔습니다. 1시간가까이 운전해서 겨우 도착했는데 입장료 받을때만 사람이 있고, 현장엔 사람이 없네요. 도착해서 전화하니 그땐 또 안받으시더라구요  바람이 많이불고 흐린날이였는데 언덕에서 사진찍다가 사고라도 나면 어쩌려고 안전요원분이나 막는 분 한명이라도 안계시나요.. 화장실도 청소가 안되어있는 부분이 아쉬웠구요. 동물들가까이서 볼 수 있는 부분만 좋았습니다. 경주시내에서 계획하고 갔는데 시간과 에너지 낭비했습니다..', '뷰맛집이죠ㅋㅋ', '정말좋아요 👪', 'Healing', '쵝오', '해발 500m의 신라시대에 화랑들의 심신단련의 장소로서 유서가 깊은장소입니다.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>나정고운모래해변</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>경주시 감포읍 동해안로 1915</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>['여름 주말에 갔는데 사람 적당히 있고 좋았음이름과는 다르게 자갈이 많아서 물놀이 할 때 발바닥이 조금 아팠음 ㅋㅋ', '시원한 바다 풍경과 바람에 힐링', '타지 사람 없이 경주 사람들만 갈 것 같은 곳한산하니 좋음', '한적하고 조용한편이에요.경사가 완만해서 아이와 물놀이하기도 모래놀이 하기도 좋아요.오토캠핑장도있고 화장실 샤워장도 지은지 얼마 안되서 깨끗하고 좋아요.주차장도 잘되어있고 주위에 편의점이며 먹거리가 많아서 좋습니다.', '일출명소', '차박가능 백사장이 넓고 쉬는 시설이 잘 갖춰져 있습니다.', '좋다….', '일상을 떠나 자연을 맞이 할 수 있었다.', '주차 공간이 생각 보다 많고, 동해인 만큼 바다 수질이 좋았습니다.', '나정고운모래(&amp;거친자갈돌) 해변', '바다는 좋지만 샤워실은 이용하지 마세요. 샤워하러 가니까 관리하시는 할머니들이 남자샤워실이라고 적혀있던 곳에 문을 열어주는 겁니다. 여기 남자샤워실 아니냐 물으니 여자샤워실이라고 괜찮다고 들어가래서 들어갔습니다.  들어가니 여자분들만 한가득 계시길래 아, 진짜 여자샤워실 맞구나 하고 씻고있는데 남자분들이 자꾸 들어왔다가 놀라시고 나가시는 겁니다. 어이가 없는 와중에도 빨리 나가야겠다 싶어서 옷 입고있는데 또 들어오더군요. 저는 문 입구쪽에 있었으니 밖의 상황을 다 알 수 있었습니다. 관리할머니가 직접 카드키를 찍으면서 "들어가소! 괜찮아, 들어가소!"하면서 남자분들을 밀어넣더군요. 남자분들은 안에 사람있다고 안된다고 하는데 계속 넣으려 들길래 참을 수 없어서 따졌습니다. 그 남자분도 할머니한테 남자샤워실이라면서요!하고 화를 내고요.  할머니는 정말 어이없게도 들어와서 확인 한 번 안해보고 \'소리가 안 들려서 사람이 없는 줄 알았다.\'고 말하며 그 상황에서도 꿋꿋하게 옆의 남자분께 \'괜찮으니 들어가면 된다\'고 계속 말했습니다. 중요한 점은 할머니는 여전히 안에 사람이 있는지 들아가서 확인을 안 한 상태고요.  저 말고도 여러 사람이 있었는데, 저는 이런 어이없는 경험은 진짜 처음입니다. 관리가 왜 이따구인건지 원... 일단 저는 다신 안 올 것 같습니다.물놀이', '위쪽동해보다 훨~~~씬 좋아요..샤워장은 어짜피 돈내고 쓰는곳이고 인프라가 굿.. 편의점.화장실.주차장 가깝구요~첫날은 평상을 빌렸는데.. 돈이 아깝지 않았어요!누워서 수박먹고 자고 해수욕하고 애들노는거보고~특히 차를 몰고 경주까지외서 바닷소리 들으며 단잠잤어요~ㅎㅎ 물이 너무너무 깨씃해요. 모래가 아닌 잔 자갈이지만 수영복에 모래안들어가 좋았습니다.둘째날은 딱 2시간 여유라 평상은 안빌리고 짚으로 된 멋진 무료 파라솔을 점거.. 너무좋았어요. 뒤쪽이라 아이들이 시야에 안들어와 살짝 걱정했자만  이젠 커서 신나게 놀고 오더라구요. 발딱는곳 수압짱! 곳곳에 있어 큰물통에 물받아 대충 바다물만 씻고 옷은 알아서 갈아입고 설와서 씻었어요~ 이젠 매년 피서지로 올듯해요.이름처럼 고운모래 아녀서 호불호가 있지만 전 좋았습니다!!굿! (워터슈즈착용 필수입니다. 확실한 지압을 원하시면 맨발도 괜춘요..매우 아파요)', '할매들 샤워실 점거하고 샤워비 3천원받음 ㄷㄷ', '고운모래 없음. 돌자갈해변. 해변따라 쓰레기 엄청 많음.', '고운모래 아니고 자갈바다에 쓰레기, 나뭇가지, 해초가 엄청 떠다님요즘은 해파리때문에 자유롭게 들어갈 수 없음', '아이들이 아주 좋아해요 날씨 좋은 날 또 오고싶네요', '경주 갔다가 잠시 아빠엄마와 들린 장소, 캠핑장이 있고 여유롭네요', '몽돌해변 시원하고 좋은 바다', '나정교차로 경유 박쥐고운자갈 바다멍 시간땜빵GS25경주감포나정점', '이름과 다르게 자갈해변 =ㅅ=풍경은 좋으나, 강풍이 잦은 점이 아쉬움', '최고다 최고말하면 무하노가보면 알제백문이 불여일견ㅣ라', '이름과 전혀 다른 자갈 해변입니다~그래도 물도 깨끗하고 오토캠핑장 있고 바로 씻을 수 있는 곳이 있어서 좋았어요 씻을 때 요금 받는건 함정!(1인 3천원)', '고운모래인지는 모르겠지만 화장실 깨끗하고 좋아요', '호의가 계속되면 그게 차두리 인줄 알아여!', '급경사가 심하고 물이 깊어요자갈인데 발이 푹푹빠져요경사+자갈 때문에 걷기에는 안좋아요고운모래 절대아님너무 깊어서 놀기엔 위험', '고운모래해변이 아니라 거친자갈해변.. 풍경은 좋았지만 여름이 아니라 그런지 해변에 쓰레기도 너무 많았네요', '굳', '고운모래가 아니라 지옥자갈 해변이네요. 물은 엄청 깨끗해요. 발바닥이 호빗이 아니면 맨발로 거닐다간 죽습니다.', '해변은 해수욕과 캠핑을 하기에 정말 좋습니다. 근처 이마트24 편의점도 좋고, 해변슈퍼도 바가지가 없는듯 했습니다. 다만 여기 사시는 주민 몇몇 분들이 해변 관리하시는 것 같은데, 마주치지 마세요. 심보들이 정말 고약해요.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>천마총</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>경주시 계림로 9</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>['너무나 더웠던 여름밤, 시원하게 유물들 잘 감상했어요.', '천마님이랑 재미있게 놀았어요.', '사진은 없어요안내도가 내가있는장소에서 안내도있음좋겠네요안내도가 전부 똑같아요어느장소에있든', '유물은 보존하고 지켜주셔서 감사합니다', '😁 그럼에도 역사적 유물을 이렇게 보존하고 하는것에 큰 의미가 있다 봄😡 입장료 받는것치고 그리고 관광지 명성에 너무 간소한 느낌⭐️ 온게 후회되는 곳⭐️⭐️ 한번정도는 와볼만한 곳⭐️⭐️⭐️ 근처에 있다면 갈만한 곳⭐️⭐️⭐️⭐️ 오길 잘한 곳⭐️⭐️⭐️⭐️⭐️ 이곳을 가기위한 여행', '보통은 유물 위주로 설명된 경우가 많은데,천마총은 특이하게도 발굴 이야기가 함께 있어서, 천천히 읽으면 흥미롭습니다.그늘 찾기 어려운 더운 여름날에는대릉원 안에서 유일하게 에어컨 바람을 쐴 수 있는 곳입니다.지금까지 국가에 낸 세금 10만 원 당 1포인트씩 쌓여있을 세금포인트 1점을 사용해1천 원의 입장료를 할인받을 수 있습니다.', '경주는 야경이 볼만하고 한적하고 느그적하게 걸어다니고 조용함을 감상하기에는 적격인거 같습니다.천마총은 경주 여행의 가벼운 코스입니다.', '대릉원 안에 있는 천마총.규모가 압도적이고 신라의 문화와 신비함을 느낄수있는곳.천마총 내부는 자세하게 설명도 되어있고 보존도 잘되어 있어서 꼭방문하길 추천함.5월15일~5월19일까지는 무료입장이 가능함', '천마총 좋아요.', '내부가 실제 무덤 발굴할때 그모습이 그대로 보존돼어있고유물도 있네요.', '신기하다. 말 장구류가 화려하다. 말에 채운 것을 보고 싶다', '벚꽃이 아직 피지 않아서인지....목련나무 앞에서 사진을 찍으려고 장사진을 이루었다.', '이정도면 돈이 아깝지 않네요 구성이 알차요', '특별히 볼 건 없어요. 입장료 아까움', '단풍명소에요 특히 은행나무 좋아하시면 더 만족하실 거에요', '역사의 숨결이 살아 숨쉬는 곳', '주변상권도 좋고 분위기도 좋아요', '20년만에 다시온 유적지 깔끔하게 잘 되어있어 보기 좋았습니다', '대릉원에 능중 가장 큰 능발굴과정등의 자료를 살펴보면 흥미롭다', '대한민국의 피라미드(?)거의 유일하게 도굴되지 않은 곳이라 여러 유물이 나왔고천마도가 출토되어 이름이 천마총으로 지어짐.역사적, 학술적 의의는 있으나 규모는 작고 실제 보물은 박물관에 다 있으니 별도 유료 정책은 좀 아니지 싶다; 🤔', '전부 모조품인데 삼천원 받을 이유가?', '한국 고고학적으로 의미가 깊은 곳입니다. 출토 당시같이 재현을 잘 해놨어요. 진짜 보물은 다 경주박물관에 들어가있습니다', '경주의 아이덴티티. 입장료 3천원은 글쎄.', '신라 제22대 지증왕(재위 500~514)의 무덤으로 추정됨', '크진 않지만 잠깐 둘러보기 좋아요 !', '대릉원과 함께 보고 가세요. 문화유산에는 값을 매길 수 없기에 입장료를 아까워하면 안 된다 생각합니다. 입장료가 아까우면 안 들어가면 됩니다.', '입장료 성인 3000원 10분도 채안되는볼거리지만 볼만합니다 이집트 유물저리가라하는 번쩍번쩍 유물들', '수학여행때 와보구 20여년이 흘렀네요감회가 새로워요~', '사진으로 아름다움을 담을수없는 곳. 최고 b', '경주는 천마총 대왕릉굿요즘은(2023년 기준) 입장료 없어서 더 좋아요', '안쪽 전시품이 모조품들이라 굳이 안까지 들어갈 필요는 없을 듯(너무 더워서 3천원내고 에어컨 쐬러 들어감) 다음날 갔던 국립경주박물관이 훨씬 볼거리는 많음.', '경주 왔으면 한 번 싹 돌고 가야죠 ! 🌳💙', '되게 멋있고 고즈넉하니 예뻐요', '꾸미고 입장료가 생겼지만 한번은 가볼만함. 짧은 코스지만 볼만함. 대릉원 산책하면서 처음이라면 추천.', '입장료가 무료기간이었다걷기 좋은 큰 공원 넘 좋아', '230523일 경주여행 무료 관람 일주하기', '천마총 안에 들어가면 따뜻해요. 유물이 가짜긴해도 출토 당시의 모습을 짐작해 볼 수 있게 잘 조성해놨고, 설명이나 영상으로 유물 설명도 잘 해놔서 교육적으로도 좋았어요.', '신라시대 유물이 잘 보관된 모습이 인상적입니다.', 'AK HISTORY TV(방문영상)https://youtu.be/ppTF2VNsYtg#고대고분군#일본놈이도굴#천마도가나왔어요#경주에서유일하게들어가는고분#문화지구가운데있어요#Real Life #Artificial Kernel#Arnold J. Kim#20.7.26', '말의 안장 양쪽에 달아 늘어뜨리는 장니에 그려진 말(천마)그림이 출토되어 천마총이라 불리게 되었다. 신라회화로서 현재까지 남아있는 거의 유일한 작품으로 그 가치가 크다... 유물(복제품) 옆쪽에 제작과정 영상이 있는데 신기하더라고요 일일이 그리고, 떼어내고, 연결하고', '저녁 7시반에 갔더니 대기 1도 없이 잘 봤어요. 패드로 확대 축소 가능해서 자세히 볼 수 있고 복원과정도 볼 수 있어서 성인도 흥미로웠습니다.', '대릉원속 하이라이트 천마총무덤에 들어와서 본다는것 자체만으로도 신기하다', '묘에서 나온 유물', '새것 같은 복제품 보려고 한시간 넘게 줄서서 관람한거 실화냐시간내서 보느니 주변 공영주차장 옆에 마련된 복제품을 보세요', '놀라운 마립간(칸)의 위엄', "전세계에서 한 수도를 천년이상 유지한 딱 두 수도.경주와 로마..값어치를 환산할 수 없이 빛나는 '경주'를 가진 나라에 사는걸 감사할 줄은 모르고 주차비며 입장료 아깝다느니 푸념 늘어놓는 사람들 참..기가 찬다..세계문화유산 관리하려면 그정도 입장료 받을 수 있는거 아닌가? 그 마인드로 애들을 가르치기엔...자주 오기힘든 곳 왔으면 자기 자식들한테 설명하나 더 해주고 가야는게 부모 본분아닌가요..참 씁쓸..하네요", '새것같은 복제품보려고 주차비에 입장료에..진품은 경주박물관으로', '안에 안 들어가도 될듯...', '5월19일~20일 경주시내관광~주상절리까지 공기좋고 친절하고 .깨끗한 환경 good~~~', '직원분 사소한거지만 친절히 응대해 주셔서 너무 감사했습니다. 덕분에 오래오래 기억에 남을 경주 여행이 되었습니다. 역사를 온전히 느끼기 좋았다. 길도 걷기 편하게 되어있고 대만족', '여러번 가도 신기해', '공사중..  대신 입장은무료', 'ℹ 대릉원내에 위치. 이 곳에서 발굴된 금관과 천마도장니가 역사적으로 가치를 인정 받았다.ℹ 천마총에서 발굴된 금관은 지금까지 발견된 신라시대 금관 가운데 금판이 가장 두꺼우며 금의 성분도 우수한 것으로 판명 국보 제 188호로 지정.✌ 옛 무덤을 복원해서 공개한 것으로 특별한 것은 없는듯..']</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>감은사지삼층석탑</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>경주시 문무대왕면 용당리 55-3</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>['국가문화유산(☆국보☆)국가유산청 국가유산포털(www.heritage.go.kr)', '사람이 거의 없어서 좋고, 여길 목적지로 찍고 들르는것보다 가는길에 들르는걸 추천해요!날씨맑은날 노을보는게 예쁘다고합니다!', '⭐️⭐️…여기도…그럭저럭…', '한국사 책에서 사진만봤었는데 실물보니 웅장하더라고요또 사람들 없어서 사진찍기좋기고요~', '석굴암 가는길에 코스로 넣었는데 두삼층석탑이 너무 웅장하고 아름답게 보존되고 있다는게 감격!한바퀴도는데두 시간도 별루 안걸리고 관람객도 많지않아 딱좋네요!', '삼국을 통일한 문무왕이 심심하면 동해안을 약탈하는 왜구로부터 나라를 지키기 위한 호국사찰로 창건한 감은사. 그렇지만 문무왕은 절이 완공되는 것을 보지 못하고 세상을 떠났고 아들인 신문왕이 완성했습니다. 문무대왕릉과 멀지 않은 곳에 있기에 아마도 문무왕을 기리는 사찰인 원찰로서의 기능도 했을 것으로 보이는 감은사. 실제 현재 남아 있는 감은사지의 석재는 용이 드나들 수 있도록 하는 독특한 구조를 했던 것으로 보입니다. 인근의 이견대와 함께 만파식적 설화의 장소이기도 했던 곳. 사찰 앞으로는 배가 드나들었던 흔적이 남아있어 과거 감은사의 모습을 상상하게 합니다. 강당이 있던 자리에 앉아 두 탑을 한번 가만히 바라봐보세요. 감은사지의 묘미는 거기에 있답니다.', '송대말등대 들렸다가 근처에 있길래 가봤는데 이야… 일출전이나 일몰전에 가시길 추천드립니다. 해가 산자락에 살짝 걸쳤을 때 장관임', '감은사는 신라 제30대 문무대왕이 삼국통일의 대업을 성취하고 난 후, 부처님의 힘으로 왜구의 침입을 막고자 이곳에 절을 세우다 완성하지 못하고 돌아가자 아들인 신문왕이 그 뜻을 좇아 즉위한 지 2년 되던 해인 682년에 완성한 신라시대의 사찰이었다. 문무대왕은 죽기 전 내가 죽으면 바다의 용이 되어 나라를 지키고자 하니 화장하여 동해에 장사지낼 것을 유언하였는데, 그 뜻을 받들어 장사한 곳이 바로 대왕암이며 부왕의 은혜에 감사하여 사찰을 완성하고 이름을 감은사라 하였다고 전하고 있다. 현재의 모습은 1979년부터 2년에 걸쳐 전면 발굴조사를 실시하여 얻어진 자료를 통해 창건 당시의 건물 기초대로 노출 정비한 것이며, 아울러 금당의 지하에는 바다용이 된 문무대왕의 휴식을 위한 상징적인 공간을 마련한 특수 구조와 동쪽으로 통로를 만들었다고 하는 흔적도 밝혀 놓은 것이다.우뚝 솟은 두 삼층석탑은 만들어진 연대가 확실한 통일신라 초기의 석탑으로서 수십 개의 부분으로 나누어 만들어 조립식으로 세운 것으로 전체 높이 13.4m에 이르는 신라 삼층석탑 중 최대의 것이다.', '오랜만에 만난 감은사! 예전보다 잘 정비되어있어서 감사했는데ㅡ아직 정비중이라 조용하고 고즈넉한 분위기는 아쉬웠어요. 문화재를 위한일이니 다음에 다시 방문하기로!', '조용하고 한적 해서 좋아요.', '석탑이 보수 공사중이라 아쉬웠네요...잠시 들리시기에 좋을듯 합니다.', '아이와 좋은 시간이었습니다.', '경주여행하면서 문무대왕암. 감은사지5층석탑등 가까이 있어 한번에 둘러보기 딱 좋아여. 날씨도 좋아서 더 좋았네여', '신라시대 신문왕때 조성, 문무대왕  수중릉, 이견대.', '탑은 장대하게 느껴집니다만 왠지 홀로 고군분투하는모습처럼 생각되어 서러워지네요. 그래도또와서  보고싶은곳 입니다.', '아이들에게 신라역사 삼국통일 이후 이야기 해주기좋아요', '멀리서 바라보는 것과 가까이에서 보는 것이 확연히 차이 납니다. 웅장함을 느낄 수 있습니다.', '너무 멋있어요! 그런데 저녁에 가면 좀 무서울지도', '국보에 낙서하지 맙시다', '비록 터만 남아있지만 최대한 복원하려 했다는 것이 느껴집니다.주상절리 갔다가 돌아오는 길에 가볍게 들려보시길 추천드립니다.', '웅장하다 감사하다 감은혜 은감은사…', '망한 절터와 탑을 복원해 이정도 관람케 하는것만해도다행이라 생각한다', '조용하고 한적하니 천천히 둘려보기 진짜 좋음특히 일몰이 멋진곳임', '멋있어요. 사람도 없고 여유로워 좋았음. 감은사지보고 바다보러가세요~~', '새파란 잔디 위로 아름다웠던 두 탑. 갑자기 비가 와서 도망쳤는데 좀더 느긋하게 보고싶었다', '신문왕의 기운이 느껴진다. 그래, 내가 통일신라의 왕이다. 불국사 탑들에서 느껴지는 경덕왕 시절의 예술적 극치, 분황사 전탑에서 느끼는 아직 작던 시절의 신라와는 다른, 고구려 같은 신라 느낌이다', '호랑이의 쌍불 쌍탑이 있는 곳.신문왕이 동해의 용이 된  아버지 문무왕의 은혜에 감사하고, 왜구의 상륙을 조기 발견하기 위한 군사적 목적의 호국사찰.', '탑과 남겨진 절터에서 신라 천년의 역사, 신문왕의 효성이 전해졌네요.', '겁나 큼', '생각보다 거대한 규모에 입이 떡', '경주에 올 때마다 항상 들르는 곳입니다.터가 명당이고, 뒷편으로 대나무 숲도 좋고요.', '고양이 있어요 최고', '꼭 가세요', '외떨어진 곳에 있지만 기나긴 시간의 흐름을 느껴볼 수 있는 장소였습니다.  경주 방문하실 때 추천드릴 곳 입니다.', '별보러 왔어요~^^', '‘돌이 뭔가 말을 하는거 같다’랬던가, 기가 막힌 감상평이다. 그나저나 저 나무는 언제부터 있던거야...', '웅장한 삼층석탑. 동해안 문무대왕릉 바다 옆.', '✌ 몽고의 침입으로 감은사는 소실되고 지금은 절터만 남아있다.ℹ 국보 제 112호 감은사지 3층 석탑.', '무엇을 더 말할 수 있을까...']</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>관성솔밭해변</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>경주시 양남면 수렴리 489-19</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>['입구들어와서 오른쪽이 좀 더 괜찮아요', '캠핑하기 정말 좋았어요.', '늦은시간 도착해서 해변가쪽으로 자리를 잡지는 못했지만, 그래도 바다가 살짝 보이는곳에 자리잡아서 좋았습니다.그리고 화장실도 깔끔히 운영되고, 쓰래기 버리는 곳도 곳곳에 있어서 편했네요~~밤에는 바람도 솔솔 부는게 선풍기 안써도 너무 시원했네여~~경치도 너무 좋았고 너무너무 맘에 들었어요...장작은 슈퍼에서 사세요.. 거긴 만원, 편의점은 14000원이에여... 늦어서 편의점서 샀네여..ㅠㅠ난중에는 오후 반차내고 일찍가서 해변가쪽으로 자리를 잡아볼라고요~', '굳', '물놀이', '평상2칸 3만, 3칸 5만, 주차5천, 샤워1천관리잘되어있고 좋아요', '좋아요아주', '멸치떼출몰지역2020.10.24']</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>옥산서원</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>경주시 안강읍 옥산서원길 216-27</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>['여유롭고 좋아용', '조선시대 성리학자인 회재 이언적을 기리기 위한 곳으로, 이언적의 학문은 퇴계 이황에게 이어져 영남학파 성리설의 선구가 되었다.이곳은 선조 5년(1572)에 경주부윤 이제민이 처음 세웠고, 그 다음해에 임금에게 ‘옥산’이라는 이름을 받아 사액서원이 되었다. 옥산서원옆에 세심대는 여름에 굿~~~ ※ 주차료 입장료 모두 무료 입니다', '바람마니부네요 자전거타고오기좋네요', '문화해설사를 꼭 활용하자. 그냥 보면 30분 컷이다. 물론 좋은 해설사를 만나는 것도 중요. 조금 더 가면 나오는 독락당(?)과 십삼층석탑(국보)도 꼭 다녀오자. 돌아가는 버스는 배차간격이 넓으니 꼭 확인할 것.', '계곡 조아요!', '제가 갔을땐 사람이 그닥 많지않았습니다 계곡물이 시원해요 집이랑 가까워서 좋습니다', '옥산서원도 너무 멋지고 옆에 흐르는 계곡의 물도 너무 멋있었습니다. 자연과 어우러지는 한국의 전통 건축 양식을 느낄 수 있는 좋은 시간이었어요.', '조선시대 유교 교육기관이자 명문 사립학교인 경주 옥산서원(사적 154호)은 회재 이언적의 덕행과 학문을 기리고 배향하는 곳이다. 풍광 좋은 안강의 자계천에서 숲과 계곡이 가장 아름다운 자리에 있다. 역락문을 지나 무변루, 구인당, 민구재와 암수재까지 작은 문고리 하나 무심히 지나칠 수 없을 만큼 회재의 학문적 열정이 스며들었다서원은 1574년 선조에게 ‘옥산’이라는 이름을 받았다. 흥선대원군의 서원 철폐에도 살아남은 47곳 가운데 하나인 옥산서원에는 보물급 문화재가 많다.\xa0', '앞에 흐르는 계곡 풍경이 수려함. 공부할 맛 났을 듯.', '여기 가면 삼국사기 완질본 볼 수 있나여', '유네스코 유산인데ㅠㅠ 관리가 잘 되고있지는 않은 것 같아서 아쉬워요. 입장료를 받지 않아서인지..앞에 계곡 놀러오는 분들만 많은 곳! 계곡 물은 맑고 물놀이하기 좋아보입니다!', '입장료 무료+무료해설+시원한 계곡+친절한 직원+템플스테이 가능', '계곡이 넘 이쁘고 좋았다ㅠ', '입장료무료 계곡물맑고 단풍이너무예쁘네요.서원이 좀 작아서 아쉬웠는데 계곡 단풍이 예뻐서 만족스러웠어요^^']</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>포석정</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>3.5</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>경주시 배동 454-3</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>['국민학교시절에 수학여행때는 물이흐르고 낭만이있었는데이번에는 수로에 솔가지만실망스러워요', '힐링 그자체  너무 좋았어요..', '⭐️1/2…여기도…그럭저럭…', '날씨가 좋아서 사진도 너무 잘 나오고 넘넘 좋았어요', '떡갈비로 맛있네요 점심특선메뉴가 다양해서 선택폭이 넓어요 화장실도 내부 도 깔끔하고 반찬도 맛있어서 잘먹었습니다.', '이곳은 돈주고  가면 안되는곳 절대가지마셈. 시설공단계약직 월급품앗이하러가는꼴임.볼것도없고 살다살다 입장료내고 화나보긴 여기가 포석정이 처음 절대 가면 안됨주차료2천원에 입장료성인2천원인데 입장하면 주차료는공짜. 왜자꾸 방문자센터겸 매표소에서 건물안 둘러볼것을 권하는지 나가서 실물을보면 알게됨. 그돈이면 애기들 맛난걸 하나다사주지 되도않는 잘봤다는 후기들보면 정말 주작이 의심스러울정도. 지금생각해도 어이가없어 화가나구만요. 사기당한 관광지 포석정지.', '포석정은 경주의 유명한 가을명소이다.포석정지의 번창했던 초록이 화려한 주홍빛으로 물들었다가 이내 떨어져 겨울을 준비하는 모습이 마치 신라의 흥망성쇠를 보는 듯도 하다.관람시간 : 09:00-18:00(동절기 17:00까지)-관람료 : 성인 2,000원 /군인 및 청소년 1,000원 / 어린이 500원', '회전초밥의 시초~👍', '작고 아담합니다. 워낙 유명한 곳', '흔히 경애왕이 술마시다 견훤이 쳐들어오는 지도 모르고 죽임을 당한, 비운의 장소로 알려져 있지만 경주에서 남산이 가지는 위상, 특히 서남산이 가지는 위상을 생각해보면 그러한 기록은 역사의 슬픈 사실인 승자의 기록이라는 점이 크게 반영된 것이 아닐까 싶습니다. 포석사라는 사당이 있었다고 전해지는 곳인만큼 유흥의 공간이 아닌 제례의 공간으로 보는 게 유력하죠. 사진 찍는다고 넘어서 들어가시는 분이 있는데.. 들어가서 보나 밖에서 보나 큰 차이 없으니 예절을 지키며 관람했으면 좋겠습니다. 봄에는 예쁜 목련이 피고 포석정 앞으로는 겹벚꽃길이 이어집니다. 여름에는 신록이 우거진 작은 숲의 느낌을, 가을에는 단풍이 절정을 이루죠. 겨울의 포석정은 다소 쓸슬한 느낌입니다만, 안에 소나무와 대나무가 심어져 있어 푸른 숲을 만날 수 있습니다. 삼릉까지 이어지는 산책로가 있으니 차량 이동보다는 도보여행을 추천!', '아이와 가기 좋은장소', '역사 시간에 배웠던 신라의 포석정 의미있는 시간이었습니다', '입장료가 있습니다~1000원 정도구요~신라 말기 견훤에 의해 경애왕이 살해된 곳이기도 하지만 궁지의 일부이며 제사가 이루어진 곳임을 가면 느낄수 있습니다', '역사해설 필수코스. 아는 만큼 재미있어진다. 신라의 수준 높은 과학, 화려했던 문화, 몰락의 슬픈 역사까지 한꺼번에 느껴지는 신라 유적지. 사진 대신 실물로 기억할 듯. 출수구 22조각은 어디로 사라졌을까?이 동네는 가정집 마당 경계석으로 거대한 불상 얼굴이 꽂혀있으니...어느 집 마당 장식으로 또는 논밭 경계석으로 박혀 있는건 아닐지... 조선시대에도 지금처럼 담을 두르고 소중히 관리됐더라면 하는 아쉬움.', '포석정은 왕이 술을 들면서 즐길 수 있도록 마련된 별궁의 하나였으나, 927년 신라 경애왕이 이곳에서 잔치를 베풀며 놀고 있다가 후백제 견훤의 습격을 받아 살해돼 신라 천년 역사의 치욕이 담긴 장소이기도 하다.', '국사책에서만 보던 그곳~ 하지만 정말 포석정만 딱 있다는^^ 다른 유적지는 무료개방이던데 포석정은 입장료가 있는게 이상하다', 'AK HISTORY TV(방문영상)https://youtu.be/HAIucTGAXsA#회식명당#신라는술을좋아해#운치있는곳#이곳에서술마시고싶다#여름철에너무시원해#위에서시원한개울이흘러들어감#Real Life #Artificial Kernel#Arnold J. Kim#20.7.26', '관람시간은 짧지만 그래도 가서 이야기해줄것들이 있어요', 'ㅋㅋ문화재 관람하는 데 2천원이 아까우면 그냥 폰으로 사진 보시면 될 듯해요~ 2천원이면 진짜 요새 커피 한 잔도 못 사먹는데 뭐가 비싸다는 건지;;;건물 들어가시면 포석정에 대한 영상을 시청하실 수 있고 물이 흐르는 모조 포석정도 있습니다. 화장실도 깨끗하구요, 소나무가 울창한 고즈넉한 정원 산책해서 아주 좋았어요!', '관람료 2,000원이면 싼 편인데요..? 이게 비싸고 돈 아까우면 인터넷으로 보세요^^!!!', '좋아요신라 왕실의 별궁으로 역대 왕들의 연회장~~~~', '아쉬운 관람료…2,000원,,500원만 받아도 될 둣', '뉭귀미..그게 돈을 2000원씩 받을 만한곳이냐?볼거도 없고..가까이 가지도 못하게 막아놓고..가슴에 손을 얹고 생각해라씰데없는 공사하고 공사비를 관람객에 전가시키는거냐?한 5년 전에 갔었을땐 담도없고공짜였다', '돈아까워여', '사진에 나오는게 다인데 조용하니 좋아요', '굳이.......안봐도 돼요', '도대체 입장료는 왜 받을까?', '여름에는 입장 시간을 늘려줬음 좋겠어요. 6시에 갔는데 닫아서 담 넘어로만 보고 왔어요.', '관리도 허술한거 같은데 그에 반해 입장료가..... 아까워요! 경주와서 도장깨기 하러 다니며 번번히 입장료 내는데 입장료 내고 들어가서 볼거까진 아닌거 같아요.', '이런 곳에 왜 2,000원씩이나 받을까요왜 그럴까요누가 설명 좀 해조요욕나오네', '나름 기대하고 갔는데  그냥 포석정만 덩그렇게있네요 동내 작은공원정도느낌입니다  입장료내는건 좀.....']</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>경주버드파크</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>경주시 보문로 74-14</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>['시설 위생에 신경좀 쓰세요;;친절은 바라지도 않습니다.', '수조에 이끼가 너무 많이 껴서 잘 보이지 않고 동물들이 축 쳐져 있거나 예민해져 있네요뭐 당연하죠사람도 저런 쓰레기장 같은 곳에서 제대로 움직이지도 못하고 지내면 없던 암도 생기겠어요입장료 비싸게 받아먹고 뭐하는 겁니까?', '새를 좋아하면 구경가기 좋은 곳', '새가 정말 많에요. 직접 만날 수 있는 체험이 있어서 아이들에게 너무 좋을 꺼 같아요. 경주에서 방문한 곳 중 가장 만족도 높았습니다.', '새모이는 주워서 쓰세요 사는곳 어딘지 모르겠어서 안샀는데 안사도 됨새 실컷 볼수있음 재밌음휴일에 주차는 좀 빡센듯', '입장하실때 꼭 새 모이 사가세요!!', '체험하는건 엄청 즐거운데 실내동물원 특성상 냄새가 좀 심하고 몇몇 동물들은 관리가 좀 안되어 있습니다다만 심각한 수준은 아니라 어느정도 감안하고 보면 즐겁게 구경하고 올수있습니다동물도 엄청 많아요', '여기서만 볼 수있는 특정한 뭐가 있다 이런건 없고 킬링타임으로 나쁘지 않은느낌이네요', '여름에는... 너무너무 더워요... 만일 동물이 있는 공간 특성상 냉방이 불가능하다면, 통행로 주변에 선풍기 등 설치가 필요해보입니다.아기랑 갔는데, 동물원 위생관리도 좀 필요해보이고 그 가격에는 쫌... 전반적으로 아쉬웠습니다.', '좋았어요 작아요', '애데리고 가기 딱이에요!! 다양한 앵무새를 눈앞에서 볼 수 있어서 너무 좋았어요!', '관리용품이 그냥 길에 방치되어있고(염소우리쪽) 위험해보임. 동물이름은 있지만 빈 케이지가 있음. 동물들 상태가 좋아보이진않음. 밥좀주세요 물이랑.버드파크인데 버드종류가 적음.', '관리가 잘 안 돼 있는 부분이 있고입장료 정가가 퀄리티에 비해 비쌈', '360개월 아들이 너무 좋아했어요^-^', '입장료 낸거 뽕 엄청 뽑은 것 같네요다만 조류 특유의 냄새가 날 수 있어서 새 냄새 싫어하는 사람에게는 별로일 수 있습니다애초에 새 싫어하는 사람은 안가겠지만요...?', '엄청 예쁘게 잘 해둠', '이 사진 하나로 설명 됨', '버드파크라 해서 새들만 있는줄 알았는데 동물들 다양해서 신기했어요근데 전체적으로 각자 동물들에 맞게 관리와 개선 좀 해주세요 ㅠㅠ22년 12월 방문시 야외에 타조랑 사슴이랑 들소 등등 있던데 소가 배고팠는지 울타리 위에 풀을 뜯으려해서 너무 놀랐어요 좀 먹이 넉넉히 주세요 ㅠㅠㅠ안에 오리들이 공간은 부족한데 개체가 많아서 그런지 다른 애 몸을 물어뜯고 못살게 굴더라구요다양한 동물이 있는만큼 넉넉한 공간과 먹이 좀 부탁드려요', '카페테리아 서비스마인드가 신라시대급', '저는 새를 안좋아하지만... 아이들이 놀기에 좋습니다.먹이값도 이만하면 그럭저럭이고, 새들 반응이 2관은 확 달려드는데 1관은 약간의 인내심이 필요합니다. 근데 아이들은 1관 체험을 다시하고 싶어한걸보니 나쁘지 않았던 모양입니다. 다만 여름이라 너무 더웠습니다. 손 선풍기랑 얼음물 챙기세요.', '입장료가 2만원인거에 비해 시설이 너무 관리가 안된 느낌이에요. 어항이 무슨 횟집 수족관 같아요', '새한테 먹이 주기 체험 처음이었고 새가 손에 앉는 느낌이 그렇게 간질간질 기분 좋은 느낌인 걸 처음 알아서 정말 좋았습니다❤️ 힐링힐링❤️ 그런데 수조란 수조들이 죄다 너무너무너무 이끼가 많이 꼈어요.. 아가오리 노는 곳도요. 여우원숭이 우리는 청소가 안 되어서 냄새가 너무 심했구요.. 암컷 사슴은 아파 보였습니다.. 관리에 좀 더 신경 써주시면 좋겠습니다!!', '에휴', '안좋은 후기보고 쫄았는데 너무 좋아요 기대이상이에용', '다 좋은데.사랑앵무인가 작은새 쪽에는직원 하나도 없어서문 열때 누가 잘못 밞고 그대로새가 죽었는데그걸 애들이 다 봄큰 앵무새뿐 아니라 여기에도 직원이 있어야 할 것 같음', '물고기 어항들이 청소가 전혀 안 되어 있고 큰 물고기가 너무 작은 어항에 들어있음. 새 아닌  동물들은 너무 작은 철창에 갇혀있고 움직임이 거의 없음. 왜 별점이 높은지 모르겠음. 동물을 사랑한다면 가지 말 것.', '애교쟁이 앵무새도 있고 다른 친구들도 많아용 근데 관리도 엄청 잘 되어 있고 관리자 분들이 동물들에게 애정을 많이 주세요 엄청 넓어용 실내는 따뜻한 편이에여 외투는 두고 들어가도 되는 정도! ㅎㅎ', '새들과 힐링했어요', '애들이 좋아하고 새밥주기 좋은곳', '앵무새 종류가 만아요', '즐겁게 다녀왔습니다. 그런데.. 사람에게도 뜨거운 날씨에 야외에 있는 시베리아 허스키들 두마리가 마음에 걸려 댓글 남기고 갑니다 ㅠ 눈썰매 끄는 아이들을 뙤약볕에 두는 건 좀 아니지 않나요 ㅠ 조치 부탁 드립니다그 외에 동물들은 잘 즐겼고 재미있게 즐기다 왔습니다', '볼게많다특히 앵무새들이 내 손과 머리에 앉아있을땐 즐거웠다. 그러나 너무 덥다.. 진짜 덥다..', '첫번째 앵무새 체험관 남자 직원분 정말 친절 하세요~ 멍충이 앵무새도 알려주시고, 안녕하세요 하는 앵무새도 신기하고~ 짧은시간 정신 없이 보고 나왔어요~ 흰공작도 멋짐~', '실내가 더웠어요 ㅠㅠ 직원분들 친절해요. 아이가 앵무새체험 너무 즐거워했어요.원가격 주고 들어가기는 아깝고 쿠팡이나 온라인티켓 구매하는게 좋아요.', '현금을 꼭 챙겨가세요. 새를 가까이 볼 수 있고, 평온할 것 같지만 새들이 참 역동적으로 움직였던 곳', '새들도 많고 새만 있는 줄 알았는데 물고기 종류나 다른 동물들도 있어서 볼 것이 많았어요.', 'nice place', '주차 진짜 너무너무 별로지만 친절하게 안내해주시는 분들도 있어서 괜찮았어요성인 두명에서 갔는데 너무너무 재밌었어요. 평소 새를 좋아해서 더 좋았던것도 있었구새만 있는게 아니라 물과 대지에 사는 동물들도 있었고 곤충도 있었어요. 또 가고싶네요... 까마귀는 없었어요 ㅠㅠ', '최고다 새들 너무 귀엽다좁은 곳에서 사는 동물은 개선 좀', '혹시나 하고 왔는데 의외로 괝찮다', '서울보다 좋아요', '힐링되는 좋은 곳입니다.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>보문정</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>경주시 신평동 150-1</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>['벚꽃명소 이나 겨울이라서 약간 썰렁해요.', '벚꽃시즌에 가면 눈이 부시게 아름다운곳 작은 연못을 따라 흐드러지게 핀 벚꽃스팟', '연못이고 뭐고 다 메말라있음', '되게 작아요. 근데 되게 예쁘네요. 한.. 10분 있었어요 ㅋㅋ', '야경 보러 가면 좋을것 같아요! 낮에 가기에는 생각보다 크지 않고 볼게 많지는 않은것 같습니다', '벚꽃명소', '벚꽃명소', '날씨 영향 많이 받는 곳인 듯 ㅠㅠ 일단 규모도 작아서 단독으로 갈 정도는 아니고.... 후기 사진이랑 너무 달라서 당황함ㅎㅎ 연못에 물이 없고 연꽃도 쓰러져 있어서 황량한 느낌! 계절 좋을 때 가야할 듯 싶음.', '걷다가 힘들어서 잠시 들러 벤치에 앉아 보문정을 감상했음ㅋ 사람도 별로 없어 혼자 쉬기에 딱 좋았고 시원했음ㅋ 무튼 편하게 쉬기 좋다', '낮에 가야 이쁜가봄 밤에는 조명이 딱히 없어서 걍 그래요', '아덴갔다 애들 데리고 바람쐬러 보문정까지 좀걸었네요ㅋ늦어서 그런가 조명이 다꺼진게 아쉽네요ㅋ', '가볍게 갔는데 너무 예쁨', '정말 아름다워요. 벚꽃이 만개할 때 꼭 가보세요!', '아담하니 예뻐요 ~ 근처 가신다면 잠시 들르기 좋아요! 넘 좋았어요 ~', '단풍철에는 멋지겠습니다.', '규모가 너무 작아요...절경...?은 아닌듯', '보문호에 비한다면 엄청 작지만 휴먼스케일에서 느낄 수 있는 완벽한 조경을 느낄 수 있죠. CNN이 선정한 한국의 50대 절경이랍니다.', '야경이 좋은 곳']</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>통일전</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>경주시 칠불암길 6</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>['숙소가 근처라 아침에 방문했는데 너무 만족스러웠습니다^^ 아 통일이 신라의 삼국통일을 의미 합니다', '경주 여행 중 제일 기억에남음', '산책하기 정말 좋고 주차도 편하고 아름답습니다', '올해 은행나무 단풍은 기대이하였지만 내년을 기약합니다', '통일전(統一殿,Tongiljeon)은 경상북도 경주시 칠불암길 6에 있다. 신라가 이룩한 삼국 통일의 위엄을 기리고, 한국의 통일에 의지와 염원을 밝히기 위한 것이며, 역사적 의의와 통일전을 세운 깊은 뜻을 밝힌 기념비가 있다. 1977년에 박정희의 지시로 건립되었다. 통일전에는 또한 삼국을 통일하는 데에 큰 공을 세운 신라의 태종 무열왕 김춘추와 김유신 장군, 그리고 삼국 통일의 대업을 완수한 문무왕의 영정이 모셔져 있다.경상북도에서 관리합니다. 주차장 넓어요. 경주남산을 등반할  때 이곳에서 주차하고 갑니다. 주차료는 무료입니다.', '너무좋았어요설악산 봉정암 만큼좋았습니다한달에 한번정도 가고싶어습니다 너무좋았어요시간되시면 한번씩단녀오세용', '넓은 공원 같은 ~~연못이 큼   ~~', '주차장 무료에 자리가 그렇게 많은데왜 좌우 갓길에 불법주정차를 하는건지 이해가 안됨', '화랑정이 특히 좋았음 경주에서 많은 연못을 봤는데 화랑정 앞의 연못이 가장 넓고 예뻤다 연못, 정자, 뒤로 산이 펼쳐지는 광경이 최고였음 통일전은 아쉽게도 문이 닫혀서 못 들어갔음 4ㅡ10월까지 9시?10시?까지 개장이라고 써있었는데 닫혀있었다 왜지', '단풍 쩐다길래 가봄근데 별로임', '경치도 좋고 신라역사에 관심이 많다면 한번 가볼만 해요.', '멋짐', '딱 한번만 가볼만한곳', '너무멋있어요 가을에 꼭 가볼만햔곳!!', '신라 삼국통일의 주역 무열왕 문무왕 그리고 김유신의 업적을 기린 곳, 경주의 주요 관광지 사진과 역사그림이 있어 좋아요.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>보문호</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>경주시 신평동 719-1</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>['무료입장. 뷰도 좋아요 산책코스 굿굿', '좋아용', '주변 벗꽃이 아름 답고 커피숍과 음식점이 있어 가볍게 부부나 연인끼리 산책하기 좋습니다.', '정말 좋아요산책로가 좋아요두번이나 갔어요또가고싶음한바퀴 13000보 정도 됩니다', '일몰이 근사한곳보문호단지에 숙박한다면 둘레길 산책하면서 일몰을 맞이하는것도 좋을듯', '보문호를 중심으로 관광단지가 발달했지만사실 호수 자체는 잔잔하고 조용함.호수 주변 산책길이 잘 돼있고 특히 봄엔 가로수에 핀 벚꽃으로 유명함.', '보문호수 넘 좋아요 .. 💚☘️🌿🌱 밤산책 너어무 이뻐요 !!!! 힐링이당', '벗꽃이 활짝  피었습니다', '한바퀴 운동삼아 둘러보기 좋은 곳벚꽃 피면 백만배 아름다울 듯', '산책하기 좋은 곳']</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>양남해수온천랜드24</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>경주시 양남면 해변공원길 93</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>['목욕 강추.냉,온탕. 해수냉.온탕. 전기안마탕, 폭포안마, 일반.습식 사우나탄산냉탕 있구요. 새벽 청소 늘 하시네요.주말에 사람 많아 찜질방은 비추 합니다. 가성비가 좋은 대신 사람 많아 복잡해요. 누울 자리도 힘들수 있어요.', '매년 3~5회정도 유람중에 들리는곳입니다만사우나는 매우 만족합니다.단.찜질방은 불만족입니다.찜질방은 5년간...딱 1회 아무리 시골에 있다지만관리가 안되어도 너무 안되고 있습니다...사우나는 관리가 잘되고 있어서온천욕하기 좋고 피로를 풀기엔 안성맞춤입니다.', '바닥이 더럽고 많이 낡았네요.', '근처에  해수탕 없어서 한번씩 가는곳인데  갈때마다 실망이네 ㅠ  관리도 안되는지 수건도 냄새 나고  여자화장실은 대변을 보면 물을 안 내리는 사람도 많다 오늘까지 네번 갔는데 네번다 💩 보고 온다   이제는 못가겠다 ㅋㅋㅋㅋ    그리고 남의  가방안에 넣어둔 머리띠도 훔쳐갔다 ㅠ  ○○○○   그리구 탕에 물때도 너무 떠다녀서 관리좀 하셨으면 좋겠다', '가성비 좋고 물좋고 음식 맛있습니다', '순수개인생각입니다.너무좋다에점수를드리고싶네요.해수온천 일출명소', '씻으러 오는건 ok 오후 10시 넘어서 와서 잠까지 자겠다? 비추 합니다. 잘곳이 없습니다. 잘곳이 없어 계단에서 자는 사람들도 있습니다.나머지 일출 뷰 온천탕은 좋았습니다.', '누가 여기를 좋다고 했는지.. 모르겠네요..주말(토) 이용했습니다.누울 수 있는 거주 공간도 부족하고누울 수 있는 매트리스(패드)도 부족합니다.저녁 10시에 카운터 문의하니 그때야 창고에서 매트를 몇 장(약 6장 정도) 갖고 나오더라고요..매트 수만큼만 인원을 받던지. 거주할 수 있는 공간을 늘리든지 해야지요..너무 놀랐습니다..근처에 다시 방문해도 재방문 의사는 없습니다.', '찜질방에서 1박 했는데 아침에 휴게실에서 일출감상 할 수 있어서 좋았네요. 가성비좋고 쾌적한 찜질방입니다.', '시설좋고,친절하시고, 깨끗합니다.탄산온천탕, 해수탕, 안마탕등 여러탕들이 있으며 바다를 볼수있어서 더욱 좋습니다가격도 6,000원 입니다번창하세요', '물이 해수를 끌어써서 그런가 수원이 풍부해서 맑은듯 합니다. 찜질방 시설도 오래된거라고 생각하기 어려울정도로 좋습니다.', '친절!!!청결!!!시설!!!오랫동안 머물려고 했는데코로나 확산으로...ㅠㅠ수고하십시요^^', '너무 좋아요~^^ (쪽득~)', '소금방이 2개~ 사람없고 음식가져갈수 있고 무엇보다 해수탕이 커서 좋음']</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>김유신장군묘</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>경주시 흥무로 71</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>['김유신(595∼673)은 삼국통일에 중심 역할을 한 사람으로, 김춘추(후에 태종무열왕)와 혈연관계를 맺으며 정치적 발판을 마련하였고, 여러 전투와 내란에서 큰 공을 세웠다. 660년에 귀족회의의 우두머리인 상대등이 되어 백제를 멸망시켰으며, 668년에는 신라군의 총사령관인 대총관(大摠管)이 되어 고구려를 멸망시키고 당의 침략을 막아 신라 삼국통일의 일등공신이 되었다.참고로 주차료는 없고 입장료는 2000원그 외 할인혜택이 있는조건이 있읍니다', '신라 역사상 유일하게 왕족이 아닌 인물 중 왕이 된 인물 김유신. 물론 살아 있을 때가 아닌 죽어서 왕이 된 추존왕이었지만 그럼에도 가야 왕족 출신이었던 김유신이 신라사회에서 왕으로까지 추앙받았던 것은 그가 이룬 업적뿐만 아니라 생애 보여준 인물됨됨이까지 감동을 주었기 때문이 아닐까 싶습니다. 할아버지의 전공 덕택에 그래도 신라에서 꽤나 지위를 얻기도 했지만 가야 왕족이었다는 사실은 그가 견제의 대상이 될 수 밖에 없었고 신라 사회에서 자리 잡는데는 분명 한계가 있었을 겁니다. 어떤 이유에서인지는 당사자만 알 수 있겠지만 아버지 서현이 당대 최고 권력자였던 숙흘종의 딸과 혼인을 한 것은 어쩌면 미래를 내다보았던 것이라고도 생각되더군요. 영웅으로서의 김유신뿐만 아니라 한 사람으로서의 김유신의 삶을 생각해보면 태어나서 죽을 때까지 하루도 마음 편할 날이 없었겠다는 생각이 듭니다. 간략하게나마 김유신의 일대기를 읽어보고 이곳을 찾아보세요. 물론 이곳도 다른 여러 신라왕릉처럼 김유신이 잠든 곳이라고 100% 확신하고 있진 않지만 그럼에도 김유신을 기억하고 기릴수 있는 공간으로서의 가치는 충분합니다. 숭무전 쪽으로 이어지는 소나무숲길도 참 좋습니다. 벚꽃피는 봄이면 김유신장군묘에서 흥무로 방향으로 내려가는 벚꽃길은 환상적인 벚꽃터널을 만들죠. 저만 알고 싶은 경주 벚꽃 명소.', '묘가 꽤 독특합니다신기해요', '김유신(595∼673)은 삼국통일에 중심 역할을 한 사람으로, 김춘추(후에 태종무열왕)와 혈연관계를 맺으며 정치적 발판을 마련하였고, 여러 전투와 내란에서 큰 공을 세웠다. 660년에 귀족회의의 우두머리인 상대등이 되어 백제를 멸망시켰으며, 668년에는 신라군의 총사령관인 대총관이 되어 고구려를 멸망시키고 당의 침략을 막아 신라 삼국통일의 일등공신이 되었다.', 'AK HISTORY TV(방문영상)https://youtu.be/suOa5KPhvkw', '신라를 상징하는 노익장', '230524일 경주여행 이틀째 돌아보기', '밤에는 불이 꺼져서 아쉽고 낮에 가자기에는 차가 너무 많은 장소', '좋아요', '정말 이쁘고 지나갈때마다 좋았습니다', '묘비에 소변금지!', '와우. 장군묘가 여기였네요.(백제는 일본을 끌어들였다지요?)', '글쎄.. 당나라 끌어들여 삼국을 통일한게 업적일까?']</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>운곡서원</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>경주시 강동면 사라길 79-19</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>['은행나무에 단풍이 들면 엄청난 인파가 몰려 옵니다', '경상북도 경주시 강동면에 있는 조선후기 권행을 추모하기 위해 창건한 서원. 교육시설.1784년(정조 8)에 지방유림의 공의로 권행(權幸)의 공적을 추모하기 위하여 이 지역에 추원사(追遠祠)를 창건하여 위패를 모셨다.그 뒤 권산해(權山海)와 권덕린(權德麟)을 추가배향하였으며, 운곡서원으로 개편하여 선현배향과 지방교육의 일익을 담당하였다. 1868년(고종 5)에 대원군의 서원철폐령으로 훼철되었다가 1930년 유허지(遺墟址)에 설단(設壇)하여 향사를 지내왔으며, 1976년에 복원하여 오늘에 이르고 있다.경내의 건물로는 3칸의 경덕사(景德祠), 신문(神門), 5칸의 중정당(中正堂), 각 1칸의 동무(東廡)와 서무(西廡), 각 3칸의 동재(東齋)와 서재(西齋), 외삼문(外三門), 6칸의 유연정(悠然亭), 주소(厨所) 등이 있다.묘우인 경덕사에는 권행의 위패가 봉안되어 있고, 동무에는 권산해, 서무에는 권덕린의 위패가 봉안되어 있다. 중정당은 서원의 강당으로 중앙의 마루와 양쪽 협실로 되어 있는데, 원내의 여러 행사와 유림의 회합 및 학문강론 장소로 사용되고 있다.동·서재와 유연정은 유생들이 수학하며 거처하는 곳이고, 전사청은 향사 때 제수를 마련하여두는 곳이다. 이 서원에서는 매년 3월 초정(初丁 : 첫번째 丁日)에 향사를 지내고 있으며, 제품(祭品)은 4변(籩) 4두(豆)이다.유물로는『태사실기(太師實記)』·『죽림실기(竹林實記)』·『구봉집(龜峰集)』·『효경(孝經)』·『두고세고(杜皋世稿)』 등의 목판과 문집 약간권이 소장되어 있다. 재산으로는 전답 7,000평, 임야 84정보 등이 있다.', '운곡서원 Ungok Seowon경주 운곡서원은 조선 정조8년.1784 경주향내의 유림과 전국의 후손들이 이곳에 추원사를 세우고안동권씨 시조이자 고려 개국공신인 권행 선생을주향으로, 단종의 이모부인 충민공 권산해와명종 때의 학자인 귀봉 권덕린공을 배향하다. 고종 5년1868 대원군이 내린 금령으로 서원이 훼철되었다. 대한제국 광무칠년 (1903) 이 자리에 다시 단을 쌓고 제향을 봉행하다. 1976년에 중창하고 향의에 따라 운곡서원으로 개액을 했다. 운곡서원엔 경덕사와 정의당, 돈교재, 잠심재, 견심문, 그리고 조금 떨어진 곳 용추언덕자리에 경상북도 문화재자료 제345호 유연정을 두고 있다. 2007년엔 경덕사와 이웃한 곳에 고려태사권공신도비를 세웠다.', '실망했어요. 관리가 안되어서', '은행잎이 아직 녹색인데다  바람이  너무 많이 불어서 잎이 다  떨어지네요 아쉽게도 다음을 기약해야 되겠네요~^^;', '20231105일자 은행나무올해는 노랑노랑하지 않네요ㅠ아쉬워요😭', '딱 한 번 울어서 넓히는 고요의 면적', '350살이라는 은행나무가 정말 멋지더군요평일 이른 시간이라 그런지 주차장도 여유있었어요', '겨울이라 가지만 앙상하지만~아주 짧막하게 다녀온정도^^가을에 다시 와보고 수정할께요~~ ㅋ', '참 좋은데, 사람이 너무 많아요.', '유연정 옆 350년 수령 은행나무 숨은 단풍명소']</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>봉길대왕암해변</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>경주시 문무대왕면 봉길리</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>['사람이적어요 북적북적하게놀고싶으면 고운모래를가세요 고아라해변은 현지인들이 세미나겸 그룹으로놀러많이오는거같아요', '몽골의 친구들과 함께 해수욕장에 왔는데 넘 좋아하네요. 몽골은 내륙국가로 바다가 없어서 이겠지요.저가 후원하는 아이가 9살에서 14살로 많이 자라서요. ^^  주차장 무료입니다. 회장실 무료. 2024.08  기준', '신비로운날 대왕암 해변에서 대왕님을 뵙습니다.', '갈매기가 엄청 많아요 ^^', '갈매기 먹이 주는거 진짜 재미있었고 오징어,새우깡이 맛있었어요일출명소', '너무 맑고 이쁩니다', '한적 했으며 다른곳과 달리 굿당이 근처에 많이 보였습니다아직 개발되지 않아 좋은것  같아요', '물도 맑고 !!! 너무 만족스러운 해변가에요백사장이 아니고 자갈이라 신발필수!!물놀이하면 꿀잼 보장~그냥 발만 담그고 놀아도 재밌는곳이였여요~', '즐거운 마음으로 해변에 갔다.의자4  + 그늘막  + 평상 : 3시간 오만원그늘막 + 평상 :  3시간 삼만원 해변에 갔다가 기분 땡', '강아지랑 같이 갔는데 좋았어요', '모래해변아니고 동글동글 귀여운 자갈해변이라 쉬어가기 좋아요! 바다도 깨끗하고 예뻐서 발 담그고 놀기 좋았어요.', 'ℹ 1988년 처음 개장. 매년 7월 초 ~ 8월 중순까지 개장한다.✌ 백사장 길이 500m. 폭은 40m 의 해수욕장으로 문무대왕릉이 바로 옆에 위치해 있다.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>경주 주상절리 파도소리길</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>경주시 양남면 읍천리 405-2</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>['하서항에서 주상절리조망타워까지 뷰가 정말멋집니다. 주상절리 보고, 바다도 보고, 저멀리 배도 보고...살짝 이국적인 느낌도 들고..동해만의 매력이 있는곳입니다여기도 카페랑 숙박업소가 더 들어서면 제주도꼴 나겠죠?', '해파랑길 경주구간의 일부이기도 한 파도소리길. 걷기여행을 위해 경주를 찾으신 분이라면 옥산서원 산책길, 삼릉가는길과 함께 추천드리는 코스입니다. 잔잔한 파도와 셀 수 없는 시간을 지나온 주상절리를 보며 여유롭게, 편안하게 걸을 수 있는 길이에요. 보통 읍천항에서 시작해 하서항까지 갔다가 돌아오는 분들이 많은데 양남면 소재지인 하서해안공원까지 가셨다가 버스로 돌아오는 것을 추천합니다. 천천히 걸으면 편도 1시간 30분 정도 소요되니 식사하시고 걷기 딱 좋은 코스랍니다 :D 해맞이 명소로서도 손색없는 곳이니 일출 감상을 원하신다면 부채꼴 주상절리가 있는 전망대 인근을 추천합니다.', '걷기좋은', '뷰는 참 좋아요... 주상절리길근데 주차도 별로고ㅎㅎ 좀 아쉬워요 예전같지 않은 것 같아여', '예쁘긴한데 풀 있는 곳이 전혀 관리가 안되어있어요', '오랜만에 다시 들려봤네요.둘레길 조성을 잘 해놨어요.아쉬운건...전망대는 올때마다 잠겨있고 펜션이 너무 많이 생겨나고 있다는것....', '철원, 제주와는 다른 형태의 주상절리를 볼 수 있습니다. 용암이 분출된 정확한 위치가 궁금하네요.', '분위기가 넘 좋았음', '중간에 길 끊어져있음하서항에서 600m정도 보고읍천항으로 다시 보러감']</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>토함산자연휴양림</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>3.3</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>경주시 문무대왕면 불국로 1208-45</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>['캠핑하기에는 별로네요', "송창식의 토함산을 떼창하면서 찿아간 곳토함산자연휴양림낡은 사각밥상에 둘러앉아 빗소리와 이슬을 넘기던 늦은밤의 휴양림은 쉼표였다쉼!!!시간되면 다시가서 쉬고 싶은곳이다사진은 아침 산책길에서 찍었는데 무슨 버섯인지?'?'?", '이불 세탁안하시는듯. 덮으면 가려움게다가 굉장히 얇아서 여러겹 깔아도 소용없음 등골브레이커임 여분이불들고오는거 추천. 뜨거운물은 잘나오는데 쇼파도 없고 의자도 몇개없어서 다들 걍 서있기만 한게 기억남네요', '- 옆 방 대화 내용의 판별 가능함으로 인한 소통 원활- 전 투숙객이 사용한 침구의 재활용으로 인한 자연 오염 방지- 화장실용 방향제의 충분한 사용으로 인한 쾌적한 환경', '전망대 올라가는 계단은 빡시지만 올라가면 후회안함.바쁜 일상 중에 힐링 제대로~']</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>태종무열왕릉</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>경주시 대경로 4859</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>['신분의 불리함을 극복하고 최초의 진골 출신 왕이 되었던 김춘추, 신라 왕실에서 유일하게 묘호와 시호를 함께 가진 태종 무열왕이다.김유신과 함께 삼국통일의 기반을 다진 왕. 김유신은 떡잎부터 그를 알아보고 김춘추의 킹메이커가 되기로 결심했다.모든 것은 계획대로, 김유신의 김춘추 사로잡기 프로젝트가 시작된다.어느 날 김유신은 김춘추와 함께 축국(현재의 축구) 시합을 하다가 실수를 가장한 고의로 춘추의 옷고름을 밟아 떨어지게 했다.옷을 수선해주겠다며 집으로 초대한 유신은 두 누이에게 김춘추의 옷을 고쳐달라고 하는데, 언니 보희를 대신해 문희가 그의 옷을 집어 들었다.이것을 인연으로 문희는 김춘추의 아이를 갖게 된다.김춘추가 문희와의 결혼을 주저하자, 김유신은 아비 없는 아이를 가졌다는 이유로 동생을 화형에 처하겠다며 소동을 벌였다.깜짝 놀라 달려온 김춘추는 아이의 아버지임을 고백하고 문희와 결혼하였다. 사돈 지간이 된 두 남자, 일적으로도 사적으로도 끈끈한 사이가 되었다.태종 무열왕의 능은 주인이 확실한 왕릉 중 한 곳이다. 왕릉과 멀지 않은 곳에 비석을 세웠던 돌 거북(귀부)과 비석 위에 올리는 머릿돌(이수)이 남아 있다.이 머릿돌에 ‘태종무열대왕지비(太宗武烈大王之碑)’라는 글씨가 새겨져 있어 이곳이 무열왕의 능임을 알 수 있었다.무열왕릉 영역 안에는 왕릉 뒤편으로 ‘서악동고분군‘으로 부르는 거대한 고분4기가 일렬종대로 늘어서 있다.무열왕릉부터 서악동고분군까지 거닐기 좋게 산책로를 잘 가꾸어 놓았으니 여유롭게 거닐어 보자.', '서악마을 가는 길에 들렀어요.좋아요', '좋아요', '솔직히 태종은 정치를 잘했다 본다', '입장 유료지만 왕릉을 가까이서 볼수있고 산책하기 좋다.', '경상북도\xa0경주시에\xa0있는\xa0삼국시대\xa0#신라\xa0제29대\xa0태종무열왕의\xa0능.\xa0왕릉.\xa0사적.삼국문화재 지정사적 제20호건립시기 신라시대성격능, 왕릉유형유적면적 1만 4,169㎡소재지경상북도 경주시 서악동 842분야역사/선사문화거북이상의 발가락은 몇개일까요? 원래는 5개이나 이곳에는 각각 4개씩 조각이 되어 있습니다.이는 거북이가 빠른 이동시 엄지발가락을 안쪽으로 숨기고  간다고 합니다.통일신라시대의 기상을 표현한것이라고 합니다.또한 거북이 목부분의 화려함  또한, 통일신라시대의 융성한 문화예술을 표현것이기도 합니다.', '깨끗하게 관리되어 있네요', '경주 무열왕릉은 신라 제29대 태종무열왕(재위 654∼661, 김춘추)의 능이다. 경주 북서쪽에 있는 선도산에서 남쪽으로 뻗은 구릉의 말단부에 위치해 있다. 김춘추는 신라 중대의 첫 진골출신 왕으로 당과 연합하여 백제를 병합하고 통일 대업의 기반을 닦았으나 통일을 완수하지 못하고 세상을 떠났다.', '2천원에 여유! 날은 더웠지만 하늘이 맑아서 산책하기 더 좋았던거같아요🥰', '230524일 경주여행 이틀째 돌아보기', '조용하고 경치가 좋아 혼자서 산책하기 좋습니다.', 'AK HISTORY TV(방문영상)https://youtu.be/v3_8SgN8BOU#김춘추묘#서악리고군분#신라는먹고살만했다#당나라는싫어요#동아시아국제전쟁#삼한통일#김유신은?#Real Life #Artificial Kernel#Arnold J. Kim#20.7.26', '한적하고 깨끗해서 천천히 30분에서 1시간 정도 산책하기 좋습니다. 입장료 2천원 있는데 저는 그렇게 아깝다는 생각은 안들었습니다. 언덕 위로 가시면 진흥왕릉으로 가는 길도 이어져 있어요', '무열왕릉 관람중지  2020.8.1~공사준공시', '공사해서 관람도못하는데 입장료는 왜 받나요..', '그레이드를 보여주는 거북이, 그리고 이 미친 분위기.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>국민힐링파크</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>경주시 산내면 문복로 1280-8</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>['카누 뷰 좋고 물도 꽤 맑아요. 거위들이랑 물고기들이랑 오리밥 잘 먹어요~ 우린 겁이 많아서 물위 그네 실패~ 4인용 카누는 그네올라타기에  균형잡기 괜찮을듯…']</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>도리마을 은행나무숲</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>경주시 서면 도리 959-3</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>['단풍명소', '한철 장사시니 비싸고 허접해도 참아야지....은행잎은 다 떨어졌지만 나름의 운치가 좋았던....', '11/6 방문전날 비오고 오전에 흐렸지만 가을이 느껴지는 곳이였어요.바람에 후둑 떨어지는 은행비가 너무 이뻣어요.주차장도 잘되어있고 아담하니 이쁜 동네!아! 잉어빵이 은근...맛있었어요 킄', '2023년 11월 5일 오후 4시30분경 방문사람도 많고 차도 많았지만 생각보단 복잡하지 않았음노란 은행잎들이 정말 이쁘고 좋았어요한군데만 있는게 아니라 위쪽으로 쭉 있어서 좋은듯', '예쁘다', '내려가는길에 들러봤는데 이쁘고 한적하니 좋았습니다. 단풍철엔 미어터질듯..', '그냥 무료로 밥먹고 나서 마실하기 좋은곳', '주차장을 새로 만들었는지 넓게 있음은행나무 숲이 이게 단가 싶은데 안쪽에 또 있음그러나 그게 다임 ..주변에 뭐가 없음. 그래도 사진 찍기는 좋은 스팟인듯', 'Strolling in Fall', '가을에 은행잎 물들었을때 꼭 와보고 싶은곳', '경주를 들릴때마다 한번씩은 꼭 찾는 곳우거진 은행나무 숲이 너무 예쁘다']</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>남산</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>경주시 배동 산 72-6</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>['등산로 곳곳에 숨겨져있는 조상님들의 숨결을 찾아보는 재미가 있는 곳가볍게 산책으로 올라가기 괜찮은 곳삼릉탐방지원센터-&gt;금오봉-&gt;약수계곡날머리', '불국토를 꿈꾸던 신라가 산 전체에 남겨둔. 살아있는 박물관.', '7~8월 산행하면서 가장 무더웠던... 남산 산행. 바람도 안 불고 습하고 죽는 줄 알았지만ㅋㅋ 경주가 한 눈에 보이는 아름다운 뷰에 더위는 금세 잊혀졌다ㅎ 정상 가는 길에 우체통도 있음! 날이 덥지만 않다면 가볍게 산책하기 좋은 코스다', '뷰가 좋아요. 곳곳에 문화재가 있어서 걷기 좋습니다. 다만 생각보다 코스가 가파르네요.', '다 좋은데 등산로 중간에 쉴 곳이 잘 없어요. 벤치(의자) 많이 늘려주세요.', '등산을하며 역사유적도 볼수있는 여러가지의미있는 등산이였습니다', '경주 남산 상선암 다람쥐 영상입니다.  구경하고 가세요 https://youtu.be/SbgZ83_NWUg', '약수골은 피하세요', '아무런 사전 지식없이 대구에서 가깝다는 이유로 가벼운 마음으로 찾았던 곳입니다.등산하는데 적당히 힘들었고 산 곳곳에 있는 문화재에 놀랐던 곳입니다.정말 추천하고 싶은 곳이에요.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>경주오릉</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>경주시 포석로 907</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>['다시 방문 하고 싶어요', '대릉원보다 덜붐벼서 좋고 소나무가 멋져요대릉원만큼 넓진 않아요', '박혁거세, 남해왕, 유리왕, 파사왕,알영여왕의 무덤이 있는 곳으로, 숭덕젼에는 아직도 참봉이 근무하십니다.사적 제172호. 문천에서 남쪽으로 약 120m 떨어진 구릉성 평지에 위치한 5기의 고분을 가리키는 것인데, 그에 관한 기록은 〈삼국유사〉에 보인다. 즉 "신라시조인 박혁거세와 왕비의 시신을 합장하고자 하는데, 큰 뱀이 쫓아와 방해하므로 오체(五體)를 각각 나누어 장사지냈으므로 오릉이라고 하며 또한 사릉(蛇陵)이라고도 일컫는다"고 했다. 그러나 〈삼국사기〉에 의하면 5릉은 박혁거세·알영왕비·남해차차웅·유리이사금·파사이사금과 같은 박씨 왕가의 초기 능묘로 전해지고 있다.분묘의 양식은 원형봉토분으로서 가장 남쪽에 있는 제1호분은 높이 7.25m, 지름 38.8m로 5릉 가운데 가장 높고 규모가 크다. 제1호분의 동북쪽에 있는 제2호분은 장축을 동서로 한 표주박 모양을 하고 있으며 길이는 6.3m이다. 제3호분은 5기의 분묘 가운데 거의 중앙에 위치하고 있는 정원형의 분구로서 높이는 3.75m이다. 제4호분은 가장 북쪽에 위치하고 있는데 높이는 2.25m이다. 제5호분은 가장 동쪽에 위치하고 있으며 규모가 가장 적은 분구로서 높이는 2m이다.현재까지 발굴조사가 진행된 바 없어 이들 분묘의 구조나 축조시기 등은 알 수 없다. 다만 분구의 형상을 가지고 돌무지덧널무덤·굴식돌방무덤·돌덧널무덤 등으로 추정하는 견해는 있다. 그러므로 5릉의 피장자를 사서의 기록과 관련지어 살피는 것은 어려울 것 같다.', '한적하게 산책할 수 있어 추천하는 장소입니다. 입장료가 있으니 고분만 둘러보지 마시고 알영정과 대나무숲길, 연못 근처 산책로등 구석구석 둘러보는 것을 추천드려요. 주차장 앞에 있는 작은 산책로도 해질 무렵 예쁘답니다.', '조용하게  산책하기 좋습니다', '즐거웠던 경주 여행 오릉은 산책하기 좋네요', '오릉(사적)은 신라 시조왕인 박혁거세왕과 왕비 알영부인, 제2대 남해왕, 제3대 유리왕, 제5대 파사왕 등 신라초기 박씨왕 네 명과 왕비 한 명을 한 자리에 모셨다고 하여 오릉이라 한다. 오릉 동편에는 지금도 시조왕의 위패를 모시는 숭덕전이 있으며, 그 뒤에는 알영부인이 탄생한 알영정이 잘 보존되어 있다.', '오릉은 한적하고 조용해서 좋은데 매표소에 안경 쓴 아줌마직원 너무 불친절함', '좋아요', '신라1대왕인 박혁거세의 탄생지 나정에서  200m 떨어진 오릉(박혁거세 포함)은 조용히 아침에 방문하기 좋음. 배롱나무꽃(백일홍)이 이쁘다는 7~9월에 꼭 다시 오기로... 고즈넉하니 좋은데 동절기엔 오후5시마감.박씨 문중 2천명이 모여 지낸다는 봄 가을 제사도 궁금하다.신라시조 박혁거세와 알영왕후, 2대 남해왕, 3대 유리왕, 4대 파사왕까지 5대조 무덤. 신라 포석정, 나정, 오릉까지 뿌듯함이 남는 코스.', '넓은 터 신선한 공기~~ 잘 관리된 왕릉, 멋진 소나무', '빽빽한 노송과 미니 대나무 길이 좋았어요 !!', '시조 박혁거세, 알영, 2대 남해왕, 3대 유리왕, 5대 파사왕의 릉들이 모여있는 곳. 고즈넉하니 괜찮았는데 외곽인데도 주차비를 따로 받네요.', '경주 오릉 전체가 돌담인 경역내에서 고라니 찾기 오늘 새끼 2마리 뛰어놀고 있네요관리자가 10마리 정도 있다네요얼른 가보세요ㅋ', '행운의 애기 사슴 꼭 찾아보시길..!!', '여기 노루 살아요', '구석에 작은 연못도 있고, 예쁜 사슴들이 뛰어 다녀요.애들이 숨어 있는데다가 빨라서 운 좋아야 볼 수 있음!!릉 사이를 우아하게 뛰던 그 사슴이 자꾸 생각나....', '무덤5개있는 공원. 입장료2000, 주차료1000', '고즈넉하고 좋아요', '한적하고 조용하고 힐링', '조용입장료 2000주차비 1000', '제대로된 안내판도 없고, 주차비는 왜받는지 모르겠네.0점을 못줘서 어쩔수없이 1점.', '대릉원 보다 매우 한적하고 소나무도 많아서 산책하기 좋아요']</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>경주황룡사지</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>경주시 구황동 786-3</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>['복원이 되면 정말 어마어마 할듯~', "황룡사는 신라 진흥왕 14년(553)에 경주 월성의 동쪽에 궁궐을 짓다가, 그곳에서 황룡(黃龍)이 나타났다는 말을 듣고 절로 고쳐 짓기 시작하여 17년 만에 완성되었다. 그 후 574년, 인도의 아소카왕이 철 57,000근·금 3만분으로 석가삼존불상을 만들려다 뜻을 이루지 못하고 금과 철, 그리고 삼존불상의 모형을 배에 실어 보낸 것이 신라 땅에 닿게 되자, 이것을 재료로 삼존불상을 만들게 되었는데, 5m가 넘는 이 불상을 모시기 위해 진평왕 6년(584)에 금당을 짓게 되었다. 선덕여왕 12년(643)에는 당나라에서 유학하고 돌아온 자장의 권유로 외적의 침입을 막기위한 바램의 9층 목탑을 짓게 되는데, 각 층마다 적국을 상징하도록 하였으며, 백제의 장인 아비지에 의해 645년에 완공되었다.이와 같이 황룡사는 93년간에 걸친 국가사업으로 조성된 큰 절이었으며, 신라의 3가지 보물 중 천사옥대(天賜玉帶)를 제외한 2가지 보물이 황룡사 9층목탑과 장육존상이었다는 것에서도 황룡사가 차지하는 비중을 짐작할 수 있다. 또한 '신라의 땅이 곧 부처가 사는 땅'이라는 신라인들의 불교관이 잘 나타나 있는 곳이기도 하다.그러나 황룡사는 고려 고종 25년(1238)에 몽고의 침입으로 모두 불타 없어져 지금은 그 흔적만 남아있다. 늪지를 메워서 그 위에 지은 황룡사는 중문·목탑·금당·강당이 남북으로 길게 배치된 1탑식 배치였다. 그러나 장육존상과 목탑 등이 조성된 후 금당 좌우에 작은 금당이 배치되는 1탑 3금당식으로 바뀌고, 탑의 좌우에 종루와 경루(經樓)가 대칭을 이루어 배치되었다. 또 사방은 복도와 같은 회랑으로 둘러싸여, 독특한 가람배치를 보이고 있다.『삼국유사』에 의하면 종루에는 거대한 종이 있었는데, 몽고가 침입했을 때에 없어진 것으로 보인다.1976년부터 시작한 발굴조사에서 금동불입상·풍탁·금동귀걸이·각종 유리 등 4만여 점의 유물이 출토되었으며, 높이 182㎝에 이르는 대형치미는 건물의 웅장한 규모를 짐작하게 한다. 금당에는 솔거가 그린 벽화가 있었다고 전하며, 목탑지에서 발견된 당나라 백자항아리는 당시의 문물교류를 잘 알 수 있게 한다.", '봄부터 가을까지는 계절을 대표하는 꽃들을 만날 수 있는 곳. 경주에서 몇 안되는, 탁 트인 넓은 공간감을 느낄 수 있는 곳. 딱 가면 아무것도 없는 그냥 넓은 들판이기에 뭐지? 싶지만 이곳의 매력은 비어있는 공간을 채워가는 것. 노을을 보기에도 좋아요. 지금은 빈 터만 남아 있지만, 탑과 법당이 있던 자리에는 주춧돌만 남아있지만, 그 흔적들로 인해 눈을 감고 상상으로 나만의 황룡사를 채워보는 것. 비움을 통해 채우는 경험을 할 수 있어 매력적인 곳! 역사문화관 앞에는 이곳에서 출토된 다양한 석재들을 볼 수 있는데 돌들의 다양한 모습을 보고 있으면 묘하게 빠져든다.', '터 위를 걷는것도 색다름황룡사 역사문화관도 추천', '황룡사지는 사적 제6호. 삼국시대 가장 큰 절로 대표적 왕실사찰이었다.신라3보인 장륙존상과 9층목탑이 있었던 곳으로 유명하다.〈삼국사기〉와 〈삼국유사〉에 553년(진흥왕 14) 월성 동쪽에 새로운 궁궐을 지으려고 할 때황룡이 나타나자 그곳에다 황룡사라는 절을 짓기 시작했다고 기록되어 있다.', '자연스럽게 500년 도읍지를 필마로 도라드니가 떠오릅니다.', '분황사 모전석탑을 보고 바로 옆이 황룡사지입니다.사실 터만 있어서 별 감흥은 없었지만 산책하기 좋았어요.황룡사9층목탑 심초석이 있어서 그건 신기했어요.아직 개발이 덜된 미개발 유적이 있는 것도 신기했어요.코스모스를 많이 심어뒀던데 가을에 가면 예쁘겠어요.', 'AK HISTORY TV(방문영상)https://youtu.be/G9vixSog2Xk', '잘 복원해서 황룡사를 다시 볼 수 있으면 좋겠습니다.', '터만 있지만 경주에서 가장 좋아하는 장소', '몽골이 안태웠으면 임진왜란이나 한국전쟁때 불탔겠지 우리나라 역사가 그렇게 평화로운줄아나', '남아 있었다면 얼마나 장관이었을까. 아쉬울 따름이다.', '몽골이 못된짓을 했네 복원 했으면 좋겠는데 . 원형을 알 수 없으니 문제네', '9층 목탑, 성덕신종의 4배인 49만근(80톤) 범종. 광화문 광장보다 더 넓은 황룡사 앞 광장. 동궁월지 300미터 옆 왕실 사찰. 복원 가능할까....', '경주 방문객들이 모두 방문했으면 하는 곳. 이 터라도 남아있다는 것이 애잔하게 느껴집니다. 후손들에게 꼭 그대로 남겨졌으면 합니다.', '신라의 수도 경주를 죄다 복원시키자 아름다운 한옥을 봐야한다', '고려시대때 몽골놈들이 태워버리지만 않았으면 동양 최고의 건축물 중 하나로 손꼽혔겠지...', '터만 남았다고 지나치지마시길.', '굿', '원 임진왜란 양요 일제시대 6.25를 거치면서 울나라 문화재 거의 불탐-.-서울 백제문화재는 무분별한 개발로 흔적도 없어짐..이제라도 경각심을 가집시다..!', '터만 봐도 유추되는 웅장한 황룡사소실된게 너무 아쉽네요', '신라  황실사찰로 당대 동양 최대의 9층목탑이  700년동안  존재하다가  13세기 몽고전란때 사찰전체가  불타 없어졌다.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>나아해변</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>2.7</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>경주시 양남면 나아리</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>['비오는날에가도 사람이빼곡.. 더 좋은곳 많지않나..?', '너무 사람과 차가 믾음', '삼중수소 ㅎㅎ', '아침에 일출 정말 멋져요그때로 돌아가고 싶어요', '방사능샤워?', '조용하고 사람 북적이지 않아 좋고 물도 맑고 다 좋아요~해변 넘어 오토 캠핑숲도 있어 다 좋은데, 물이 7월말 한참 더울 때갔는데도 굉장히 차가웠어요. 무엇보다 수심이 깊어 어린이들은 놀기가 위험해요~']</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>경주계림</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>경주시 교동 1</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>['교촌마을이나 대릉원에서 월성을 가는 길에 대부분 그냥 지나치는 숲 계림. 경주에서 가장 좋아하는 장소 중 한 곳이에요. 경주 김씨의 시조인 김알지의 탄생설화가 전해져오는 곳임과 동시에 한 때 신라의 이름이 계림이라고 불렸을 만큼 신라 역사에서, 경주에서는 상징적인 곳이죠. 그런 역사적인 의미도 좋지만 계림은 사계절 다른 매력이 있는 곳이에요. 새싹이 피어나는 봄에는 싱그러운 봄 분위기를 느낄 수 있고 여름 맥문동이 필 때면 보랏빛이 장관을 이루죠. 계림이 가장 화려한 옷을 입는 가을엔 말이 필요 없습니다. 가을의 계림은 그냥 끝입니다. 겨울엔 다소 쓸쓸하지만 오히려 그래서 오래된 고목들이 더 눈에 잘 들어오죠. 시간이 흐르는 숲 계림은 꼭 방문해보시길. 아, 입구에 있는 회화나무는 무려 1200살! 경주의 천년 숲은 바로 이곳!', '드넓은 숲, 고요한 정적첨성대와 월정교(남천)으로 이어지는 지름길', '멋진 소나무숲이 좋습니다.', '230523일 경주여행 무료 입장기간 일주', '숲과 나무를 좋아해서 너무 좋았어요..', '겨울인데도 산책하기 좋은곳', '3월말~4월 초중순 봄에 계림 일대는 연중 최고의 시기. 여기뿐만 아니라 경주시 전체가 완전 좋음. 다만 벚꽃과 다양한 봄꽃들이 피는시기라 주차전쟁. 사람 미어터짐. 심지어 톨게이트로 진출하는 본선에서부터 차가 막히는걸 경험 함. 신기 방기. 지방에서 주차난 겪음. 전주처럼 한옥톨게이트 임. 더 크게 짓지하는 아쉬움.', '야경보러 갔다가 개실망. 그냥 낮에 산책하러가는게 쵝오!', '산책하기에 정말 좋은 곳', '밤에 월정교에서 첨성대가다 길을 잘못들어서 가본곳ㅋㅋ 낮에 산책하기는 딱인거같아요ㅋ', '산책하기 좋아요', '좋다', '좋다.. 경주는 더 여유 있게 다녀와야 하는 곳이라는 걸 알게 해 주는 곳', '개인적으로 경주를 여행할 때 가장 좋아하는 것 중 하나는 이곳 매우 오래된 숲이라는 계림과 월성으로의 새벽산책이다. 이런 종류의 이른 아침산책 코스 몇 개가 경주를 훨씬 매력적으로 만든다. 부디 인공적이면서 유치하고 게다가 과도하기까지한 되두않은 설치물들로 망가뜨리지말고 ‘폐허의 미학’에 정합적인 분위기가 잘 유지되면 좋겠다. 하나 제안한다면 대릉원에서 동궁/월지까진 이른 아침시간, 예컨대 6시부터 8시까지 아침산책객들을 위해 개방해주면 좋겠다는 것이다. 어차피 그 시간에 거기까지 산책하는 사람들 그리 많지않아 입장료 수입이 줄어 경영에 타격을 입히진 않을거다. 설마 수입땜에 그런다면 너무 야박한 일이고 미처 생각하지 못했던거라면 지금이라도 재고해 보기 바란다. 경주를 훨씬 매력적인 도시로 어필할 수 있다.', '딱히 찾아갈정도는 아닙니다 솔직히', '최고', '조아', '비오는 계림 아무도 없는 계림 짱이다!', '시원한숲길']</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>뽀로로아쿠아빌리지</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>경주시 보문로 182-27</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>['평일에 가서 주차는 여유로웠는데주차장 입구가 좁아서 지상에 주차 했어요. 크기는 작은데 그 안에 알차게 구성 해놓으셔서아이가 너무 즐거워 했어요. 온천수라 물도 좋고 너무 덥지도 않고 미온수라 딱 좋았어요.군데군데 따뜻한 탕이 있어서 몸 데우기도 좋았고 다행히 버블 파티 마지막 주라 버블탕에도 들어갔는데아이가 너무 좋아했어요. 유수풀을 제일 좋아해서 거기서 제일 오래 있었고푸드코트에서 감자튀김&amp;치킨도 먹었는데 맛있었어요. 티켓은 네이버에서 샀는데 네이버가 제일 저렴해요. 초등학교 저학년까지 강추 합니다.', '작고 좁은데 주말이라 사람은 많고, 물에는 락스 냄새가 진동합니다. 그래서 그런지 숙소로 왔을때 피부 예민한 저로서는 따갑고 건조했어요.', '미취학아이들이 놀기 좋은 곳이예요. 크지않아 오후권도 충분할 것 같습니다만.., 천연온천수지만 수질이 좋지는 않아요.', '1. 뽀로로파크 예매는 인터넷에서 하세요. 한화리조트 숙박객 가격도 인터넷보다 비쌉니다.2. 오늘도 가고 내일도 갈 거라면, 첫날에는 인터넷 예매, 이틀날에는 전 날 티켓을 제시하고 익일 요금제 구매하면 쌉니다 (대인소인 구분 없이 18000원)3. 갈 때 물에 젖어도 상관 없는 가방을 챙겨가세요. 물에 젖은 채로 밖으로 나갈 수가 없어서 수영장에서 애기들 추울 때 입힐 수건 등 ... 챙기려면 방수용 가방이 필요해요.4. 신발장 락커키랑 사우나 락커키가 똑같은 키에요. 그래서 카운터에서 필요한 인원수 만큼 불러서 키 번호를 받으세오. 그리고 신발장 키를 뽑고 그 키로 사우나 방에서 락커룸을 쓰세요.5. 수영이 끝나고 나면 몸을 씻고 수건으로 닦고 나가야하는데, 탈수기가 진짜 작아서 탈수가 잘 안 돼요. 그래서 들어갈 때 평상복, 사우나에서 수영복 갈아입기, 나갈 때 수영복 벗고 씻고 수건으로 몸 닦고, 수영복을 탈수기에 돌리고, 옆에 비치된 흰 봉투를 뜯어서 수영복을 넣고, 다시 락커룸에서 평상복을 꺼내서 입고 나가면 아주 좋습니다.6. 수영장으로 들어가면 튜브 공기 넣는 곳 왼쪽 2개, 공기 빼는 곳 오른쪽 2개입니다. 줄 헷갈리지마세요.7. 아까 수영장에서 나가고 몸을 씻을 때 흰봉투가 있다고 말씀드렸는데 그 흰 봉투를 3개씩 챙기세요. 한화리조트 재활용봉투랑 똑같은 겁니다. 그걸로 재활용부터 쓰세요. 그렇다고 많이 가져가지는 마세요 ...', '종일권 예매하고도 대기열때문에 2시입장하게될 듯아무런 공지도 없었고, 뭐하자는건지 ㅉㅉ다신 안옵니다', '성인들은 접종완료자만 들어갈 수 있어 좋았어요. 네이버 예약으로 바로 할인권을 살 수 있었고 내부 매점이나 식당들도 적당했습니다. 시설은 유아에서 저학년까지 즐겁게 놀 수 있는 적당한 시설을 갖추었고 따뜻한 풀에서 즐겁게 놀 수 있었어요. 평일이라 그렇겠지만 사람도 많지안하 편하게 잘 놀았습니다.', '아이가 엄청 좋아합니다.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>토함산</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>경주시 마동 산 1-1</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>['경주를 한 눈에 내려다 볼 수 있는 산.석굴암 주차장에서 출발하면 짧게 다녀올 수 있어요.', '가는 분들만 가시지만 석굴암 가는 길에 같이 구경하는게 제일 좋습니다', '석굴암 보고 18시쯤 출발 토함산에서 코오롱 호텔 쪽으로 내려왔는데 야간 산행 준비도 안하긴 했지만 산이 위험하네요.해 떨어지고 야간 산행 한 1시간반정도 한거 같은데... 생각보다 빡센산임.미끄러워서 한번 뒤로 엉덩방아에 낙엽에 가려진 가짜 땅에 발목 꺽여서 쓰러진 나무 가지에 찔렸는데 위험했네요. 태풍 온게 수습이 안됬나 등산로가 골짜기차럼 좁고 땅이 푹푹꺼짐...야간 산행에 발목 한 10번 정도 꺽인 듯...무사히 내려와서 다행... 그나저나 뭔 묘소가 그리 많던지 길이 안보여서 계속 잃음.', '자하랑 설영이 보고싶다....', '경사가 있으니 조심히 등산하세요. 좋습니다.', '역사적으로 중요한 산']</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>청룡폭포</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>경주시 산내면 외칠리 산 1</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>['노지캠핑 및 취사가능합니다.파라솔은 2만원에 빌렸고, 튜브도 대여해줍니다!공용화장실 넓고 깨끗했고 수심은 깊은곳과 얕은곳이 골고루 있어서 성인들과 아이모두 잘 놀수있습니다.다만 주차장은 협소해서 좀 아쉬웠습니다.', '한 여름 피서지로 최고네요', '제세동기(AED) 위치: 청룡폭포 바로 맞은 편 화장실(약 400m 거리)', '짱좋아요', '좋네요']</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
